--- a/Översikt BORLÄNGE.xlsx
+++ b/Översikt BORLÄNGE.xlsx
@@ -572,7 +572,7 @@
         <v>44512</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44887</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>44552</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         <v>44494</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         <v>45069</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
         <v>44274</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>44824</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1222,7 +1222,7 @@
         <v>45028</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>43544</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
         <v>43781</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>44599</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>45072</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         <v>43431</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
         <v>43811</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>44420</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1928,7 +1928,7 @@
         <v>44453</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>44463</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2109,7 +2109,7 @@
         <v>44505</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>44874</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2285,7 +2285,7 @@
         <v>44908</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>44996</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2461,7 +2461,7 @@
         <v>44999</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>45068</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>45074</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>45117</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2809,7 +2809,7 @@
         <v>43409</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>43434</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2979,7 +2979,7 @@
         <v>43441</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
         <v>43544</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3153,7 +3153,7 @@
         <v>43969</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3243,7 +3243,7 @@
         <v>44362</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
         <v>44410</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3413,7 +3413,7 @@
         <v>44426</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3498,7 +3498,7 @@
         <v>44454</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3583,7 +3583,7 @@
         <v>44470</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3668,7 +3668,7 @@
         <v>44473</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
         <v>44603</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
         <v>44705</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>44798</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4017,7 +4017,7 @@
         <v>44798</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>44897</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
         <v>44931</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>45036</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4361,7 +4361,7 @@
         <v>45040</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4446,7 +4446,7 @@
         <v>45061</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4535,7 +4535,7 @@
         <v>45062</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>45072</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4710,7 +4710,7 @@
         <v>45090</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         <v>43432</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>43447</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>43448</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>43452</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>43453</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>43455</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>43461</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5199,7 +5199,7 @@
         <v>43473</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>43473</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>43486</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>43507</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>43544</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         <v>43544</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
         <v>43544</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>43550</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>43556</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>43581</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>43601</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>43606</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43613</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>43614</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>43614</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>43614</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43630</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43642</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>43648</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         <v>43649</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6354,7 +6354,7 @@
         <v>43660</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6411,7 +6411,7 @@
         <v>43704</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>43704</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>43707</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>43739</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>43767</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>43768</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>43783</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>43803</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>43808</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
         <v>43812</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         <v>43893</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7038,7 +7038,7 @@
         <v>43902</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7095,7 +7095,7 @@
         <v>43909</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7152,7 +7152,7 @@
         <v>43918</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>43927</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>43938</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         <v>43941</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>43948</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7442,7 +7442,7 @@
         <v>43957</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7499,7 +7499,7 @@
         <v>43971</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>43991</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7618,7 +7618,7 @@
         <v>44064</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7675,7 +7675,7 @@
         <v>44104</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7732,7 +7732,7 @@
         <v>44105</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7794,7 +7794,7 @@
         <v>44110</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7851,7 +7851,7 @@
         <v>44110</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7908,7 +7908,7 @@
         <v>44110</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7970,7 +7970,7 @@
         <v>44110</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>44118</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8094,7 +8094,7 @@
         <v>44120</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8156,7 +8156,7 @@
         <v>44120</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8218,7 +8218,7 @@
         <v>44132</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8275,7 +8275,7 @@
         <v>44145</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8332,7 +8332,7 @@
         <v>44147</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8389,7 +8389,7 @@
         <v>44154</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8446,7 +8446,7 @@
         <v>44167</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8503,7 +8503,7 @@
         <v>44168</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8560,7 +8560,7 @@
         <v>44172</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8617,7 +8617,7 @@
         <v>44174</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8674,7 +8674,7 @@
         <v>44203</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8736,7 +8736,7 @@
         <v>44222</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8793,7 +8793,7 @@
         <v>44228</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8850,7 +8850,7 @@
         <v>44244</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8907,7 +8907,7 @@
         <v>44274</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8964,7 +8964,7 @@
         <v>44279</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9021,7 +9021,7 @@
         <v>44280</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9078,7 +9078,7 @@
         <v>44280</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9135,7 +9135,7 @@
         <v>44286</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9192,7 +9192,7 @@
         <v>44287</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9254,7 +9254,7 @@
         <v>44293</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9311,7 +9311,7 @@
         <v>44293</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9373,7 +9373,7 @@
         <v>44298</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9430,7 +9430,7 @@
         <v>44299</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9487,7 +9487,7 @@
         <v>44305</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>44306</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>44308</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>44319</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>44337</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>44341</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>44361</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9886,7 +9886,7 @@
         <v>44376</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9943,7 +9943,7 @@
         <v>44377</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10005,7 +10005,7 @@
         <v>44379</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10062,7 +10062,7 @@
         <v>44379</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10119,7 +10119,7 @@
         <v>44384</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10176,7 +10176,7 @@
         <v>44384</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10233,7 +10233,7 @@
         <v>44384</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10290,7 +10290,7 @@
         <v>44389</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10347,7 +10347,7 @@
         <v>44389</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10404,7 +10404,7 @@
         <v>44393</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10461,7 +10461,7 @@
         <v>44393</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10518,7 +10518,7 @@
         <v>44399</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10575,7 +10575,7 @@
         <v>44399</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10637,7 +10637,7 @@
         <v>44417</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10694,7 +10694,7 @@
         <v>44420</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10751,7 +10751,7 @@
         <v>44426</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10808,7 +10808,7 @@
         <v>44427</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10865,7 +10865,7 @@
         <v>44433</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10922,7 +10922,7 @@
         <v>44434</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10979,7 +10979,7 @@
         <v>44438</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11041,7 +11041,7 @@
         <v>44438</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11103,7 +11103,7 @@
         <v>44438</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11165,7 +11165,7 @@
         <v>44439</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11222,7 +11222,7 @@
         <v>44441</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11279,7 +11279,7 @@
         <v>44452</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11336,7 +11336,7 @@
         <v>44452</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11393,7 +11393,7 @@
         <v>44452</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11450,7 +11450,7 @@
         <v>44452</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11507,7 +11507,7 @@
         <v>44454</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11564,7 +11564,7 @@
         <v>44461</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11621,7 +11621,7 @@
         <v>44466</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11678,7 +11678,7 @@
         <v>44466</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11735,7 +11735,7 @@
         <v>44467</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11792,7 +11792,7 @@
         <v>44468</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11849,7 +11849,7 @@
         <v>44475</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11911,7 +11911,7 @@
         <v>44475</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11973,7 +11973,7 @@
         <v>44487</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12030,7 +12030,7 @@
         <v>44487</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>44488</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>44488</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>44493</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>44494</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12315,7 +12315,7 @@
         <v>44494</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         <v>44494</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         <v>44494</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12506,7 +12506,7 @@
         <v>44494</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12563,7 +12563,7 @@
         <v>44495</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         <v>44496</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>44497</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12734,7 +12734,7 @@
         <v>44500</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>44505</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12848,7 +12848,7 @@
         <v>44510</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>44524</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         <v>44529</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         <v>44547</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>44550</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>44550</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44565</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13252,7 +13252,7 @@
         <v>44575</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
         <v>44579</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13366,7 +13366,7 @@
         <v>44587</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13423,7 +13423,7 @@
         <v>44588</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13480,7 +13480,7 @@
         <v>44592</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13537,7 +13537,7 @@
         <v>44601</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13594,7 +13594,7 @@
         <v>44610</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13651,7 +13651,7 @@
         <v>44623</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13708,7 +13708,7 @@
         <v>44624</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13765,7 +13765,7 @@
         <v>44670</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13822,7 +13822,7 @@
         <v>44673</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13879,7 +13879,7 @@
         <v>44675</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13936,7 +13936,7 @@
         <v>44705</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13993,7 +13993,7 @@
         <v>44713</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14055,7 +14055,7 @@
         <v>44717</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14112,7 +14112,7 @@
         <v>44728</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14169,7 +14169,7 @@
         <v>44733</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14226,7 +14226,7 @@
         <v>44733</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14283,7 +14283,7 @@
         <v>44741</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14340,7 +14340,7 @@
         <v>44755</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14397,7 +14397,7 @@
         <v>44755</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14454,7 +14454,7 @@
         <v>44781</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14511,7 +14511,7 @@
         <v>44781</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14568,7 +14568,7 @@
         <v>44788</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14625,7 +14625,7 @@
         <v>44792</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14682,7 +14682,7 @@
         <v>44792</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14739,7 +14739,7 @@
         <v>44798</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14796,7 +14796,7 @@
         <v>44799</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14858,7 +14858,7 @@
         <v>44799</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14915,7 +14915,7 @@
         <v>44799</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14977,7 +14977,7 @@
         <v>44799</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15039,7 +15039,7 @@
         <v>44804</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15096,7 +15096,7 @@
         <v>44805</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15153,7 +15153,7 @@
         <v>44812</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15215,7 +15215,7 @@
         <v>44820</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15272,7 +15272,7 @@
         <v>44820</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15334,7 +15334,7 @@
         <v>44830</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15391,7 +15391,7 @@
         <v>44830</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15448,7 +15448,7 @@
         <v>44832</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15505,7 +15505,7 @@
         <v>44832</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         <v>44837</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15619,7 +15619,7 @@
         <v>44837</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15676,7 +15676,7 @@
         <v>44869</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15733,7 +15733,7 @@
         <v>44879</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15795,7 +15795,7 @@
         <v>44886</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15852,7 +15852,7 @@
         <v>44887</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15909,7 +15909,7 @@
         <v>44889</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15966,7 +15966,7 @@
         <v>44900</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16023,7 +16023,7 @@
         <v>44908</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16080,7 +16080,7 @@
         <v>44911</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16137,7 +16137,7 @@
         <v>44935</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16199,7 +16199,7 @@
         <v>44935</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16256,7 +16256,7 @@
         <v>44950</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16313,7 +16313,7 @@
         <v>44951</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16370,7 +16370,7 @@
         <v>44958</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16432,7 +16432,7 @@
         <v>44972</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16489,7 +16489,7 @@
         <v>44977</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16546,7 +16546,7 @@
         <v>44977</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16603,7 +16603,7 @@
         <v>44981</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16660,7 +16660,7 @@
         <v>44987</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16717,7 +16717,7 @@
         <v>44988</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16794,7 +16794,7 @@
         <v>44992</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16851,7 +16851,7 @@
         <v>44992</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16908,7 +16908,7 @@
         <v>44992</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16965,7 +16965,7 @@
         <v>44999</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17027,7 +17027,7 @@
         <v>44999</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17089,7 +17089,7 @@
         <v>45008</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         <v>45015</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>45016</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17260,7 +17260,7 @@
         <v>45016</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17317,7 +17317,7 @@
         <v>45021</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17379,7 +17379,7 @@
         <v>45027</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17436,7 +17436,7 @@
         <v>45036</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17493,7 +17493,7 @@
         <v>45036</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17550,7 +17550,7 @@
         <v>45036</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17607,7 +17607,7 @@
         <v>45036</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17664,7 +17664,7 @@
         <v>45044</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17721,7 +17721,7 @@
         <v>45044</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17778,7 +17778,7 @@
         <v>45049</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17840,7 +17840,7 @@
         <v>45054</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17902,7 +17902,7 @@
         <v>45054</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17964,7 +17964,7 @@
         <v>45054</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18021,7 +18021,7 @@
         <v>45054</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18078,7 +18078,7 @@
         <v>45054</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18135,7 +18135,7 @@
         <v>45056</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18197,7 +18197,7 @@
         <v>45062</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18254,7 +18254,7 @@
         <v>45068</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18311,7 +18311,7 @@
         <v>45076</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18368,7 +18368,7 @@
         <v>45079</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18425,7 +18425,7 @@
         <v>45079</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18482,7 +18482,7 @@
         <v>45096</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18539,7 +18539,7 @@
         <v>45097</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18596,7 +18596,7 @@
         <v>45099</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18653,7 +18653,7 @@
         <v>45099</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18710,7 +18710,7 @@
         <v>45105</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18772,7 +18772,7 @@
         <v>45110</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18829,7 +18829,7 @@
         <v>45110</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18886,7 +18886,7 @@
         <v>45110</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18943,7 +18943,7 @@
         <v>45116</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19000,7 +19000,7 @@
         <v>45117</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19057,7 +19057,7 @@
         <v>45117</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19114,7 +19114,7 @@
         <v>45139</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19171,7 +19171,7 @@
         <v>45140</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19228,7 +19228,7 @@
         <v>45146</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>

--- a/Översikt BORLÄNGE.xlsx
+++ b/Översikt BORLÄNGE.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y299"/>
+  <dimension ref="A1:Y300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44512</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44887</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>44552</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         <v>44494</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         <v>45069</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
         <v>44274</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>44824</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1222,7 +1222,7 @@
         <v>45028</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>43544</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
         <v>43781</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>44599</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>45072</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         <v>43431</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
         <v>43811</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>44420</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1928,7 +1928,7 @@
         <v>44453</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>44463</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2109,7 +2109,7 @@
         <v>44505</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>44874</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2285,7 +2285,7 @@
         <v>44908</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>44996</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2461,7 +2461,7 @@
         <v>44999</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>45068</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>45074</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>45117</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2809,7 +2809,7 @@
         <v>43409</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>43434</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2979,7 +2979,7 @@
         <v>43441</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
         <v>43544</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3153,7 +3153,7 @@
         <v>43969</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3243,7 +3243,7 @@
         <v>44362</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
         <v>44410</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3413,7 +3413,7 @@
         <v>44426</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3498,7 +3498,7 @@
         <v>44454</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3583,7 +3583,7 @@
         <v>44470</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3668,7 +3668,7 @@
         <v>44473</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
         <v>44603</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
         <v>44705</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>44798</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4017,7 +4017,7 @@
         <v>44798</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>44897</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
         <v>44931</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>45036</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4361,7 +4361,7 @@
         <v>45040</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4446,7 +4446,7 @@
         <v>45061</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4535,7 +4535,7 @@
         <v>45062</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>45072</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4710,7 +4710,7 @@
         <v>45090</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         <v>43432</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>43447</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>43448</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>43452</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>43453</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>43455</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>43461</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5199,7 +5199,7 @@
         <v>43473</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>43473</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>43486</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>43507</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>43544</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         <v>43544</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
         <v>43544</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>43550</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>43556</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>43581</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>43601</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>43606</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43613</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>43614</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>43614</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>43614</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43630</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43642</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>43648</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         <v>43649</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6354,7 +6354,7 @@
         <v>43660</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6411,7 +6411,7 @@
         <v>43704</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>43704</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>43707</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>43739</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>43767</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>43768</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>43783</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>43803</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>43808</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
         <v>43812</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         <v>43893</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7038,7 +7038,7 @@
         <v>43902</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7095,7 +7095,7 @@
         <v>43909</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7152,7 +7152,7 @@
         <v>43918</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>43927</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>43938</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         <v>43941</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>43948</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7442,7 +7442,7 @@
         <v>43957</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7499,7 +7499,7 @@
         <v>43971</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>43991</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7618,7 +7618,7 @@
         <v>44064</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7675,7 +7675,7 @@
         <v>44104</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7732,7 +7732,7 @@
         <v>44105</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7794,7 +7794,7 @@
         <v>44110</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7851,7 +7851,7 @@
         <v>44110</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7908,7 +7908,7 @@
         <v>44110</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7970,7 +7970,7 @@
         <v>44110</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>44118</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8094,7 +8094,7 @@
         <v>44120</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8156,7 +8156,7 @@
         <v>44120</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8218,7 +8218,7 @@
         <v>44132</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8275,7 +8275,7 @@
         <v>44145</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8332,7 +8332,7 @@
         <v>44147</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8389,7 +8389,7 @@
         <v>44154</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8446,7 +8446,7 @@
         <v>44167</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8503,7 +8503,7 @@
         <v>44168</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8560,7 +8560,7 @@
         <v>44172</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8617,7 +8617,7 @@
         <v>44174</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8674,7 +8674,7 @@
         <v>44203</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8736,7 +8736,7 @@
         <v>44222</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8793,7 +8793,7 @@
         <v>44228</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8850,7 +8850,7 @@
         <v>44244</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8907,7 +8907,7 @@
         <v>44274</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8964,7 +8964,7 @@
         <v>44279</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9021,7 +9021,7 @@
         <v>44280</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9078,7 +9078,7 @@
         <v>44280</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9135,7 +9135,7 @@
         <v>44286</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9192,7 +9192,7 @@
         <v>44287</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9254,7 +9254,7 @@
         <v>44293</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9311,7 +9311,7 @@
         <v>44293</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9373,7 +9373,7 @@
         <v>44298</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9430,7 +9430,7 @@
         <v>44299</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9487,7 +9487,7 @@
         <v>44305</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>44306</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>44308</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>44319</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>44337</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>44341</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>44361</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9886,7 +9886,7 @@
         <v>44376</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9943,7 +9943,7 @@
         <v>44377</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10005,7 +10005,7 @@
         <v>44379</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10062,7 +10062,7 @@
         <v>44379</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10119,7 +10119,7 @@
         <v>44384</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10176,7 +10176,7 @@
         <v>44384</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10233,7 +10233,7 @@
         <v>44384</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10290,7 +10290,7 @@
         <v>44389</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10347,7 +10347,7 @@
         <v>44389</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10404,7 +10404,7 @@
         <v>44393</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10461,7 +10461,7 @@
         <v>44393</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10518,7 +10518,7 @@
         <v>44399</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10575,7 +10575,7 @@
         <v>44399</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10637,7 +10637,7 @@
         <v>44417</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10694,7 +10694,7 @@
         <v>44420</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10751,7 +10751,7 @@
         <v>44426</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10808,7 +10808,7 @@
         <v>44427</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10865,7 +10865,7 @@
         <v>44433</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10922,7 +10922,7 @@
         <v>44434</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10979,7 +10979,7 @@
         <v>44438</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11041,7 +11041,7 @@
         <v>44438</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11103,7 +11103,7 @@
         <v>44438</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11165,7 +11165,7 @@
         <v>44439</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11222,7 +11222,7 @@
         <v>44441</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11279,7 +11279,7 @@
         <v>44452</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11336,7 +11336,7 @@
         <v>44452</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11393,7 +11393,7 @@
         <v>44452</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11450,7 +11450,7 @@
         <v>44452</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11507,7 +11507,7 @@
         <v>44454</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11564,7 +11564,7 @@
         <v>44461</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11621,7 +11621,7 @@
         <v>44466</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11678,7 +11678,7 @@
         <v>44466</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11735,7 +11735,7 @@
         <v>44467</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11792,7 +11792,7 @@
         <v>44468</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11849,7 +11849,7 @@
         <v>44475</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11911,7 +11911,7 @@
         <v>44475</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11973,7 +11973,7 @@
         <v>44487</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12030,7 +12030,7 @@
         <v>44487</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>44488</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>44488</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>44493</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>44494</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12315,7 +12315,7 @@
         <v>44494</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         <v>44494</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         <v>44494</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12506,7 +12506,7 @@
         <v>44494</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12563,7 +12563,7 @@
         <v>44495</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         <v>44496</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>44497</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12734,7 +12734,7 @@
         <v>44500</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>44505</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12848,7 +12848,7 @@
         <v>44510</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>44524</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         <v>44529</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         <v>44547</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>44550</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>44550</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44565</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13252,7 +13252,7 @@
         <v>44575</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
         <v>44579</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13366,7 +13366,7 @@
         <v>44587</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13423,7 +13423,7 @@
         <v>44588</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13480,7 +13480,7 @@
         <v>44592</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13537,7 +13537,7 @@
         <v>44601</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13594,7 +13594,7 @@
         <v>44610</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13651,7 +13651,7 @@
         <v>44623</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13708,7 +13708,7 @@
         <v>44624</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13765,7 +13765,7 @@
         <v>44670</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13822,7 +13822,7 @@
         <v>44673</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13879,7 +13879,7 @@
         <v>44675</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13936,7 +13936,7 @@
         <v>44705</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13993,7 +13993,7 @@
         <v>44713</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14055,7 +14055,7 @@
         <v>44717</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14112,7 +14112,7 @@
         <v>44728</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14169,7 +14169,7 @@
         <v>44733</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14226,7 +14226,7 @@
         <v>44733</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14283,7 +14283,7 @@
         <v>44741</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14340,7 +14340,7 @@
         <v>44755</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14397,7 +14397,7 @@
         <v>44755</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14454,7 +14454,7 @@
         <v>44781</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14511,7 +14511,7 @@
         <v>44781</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14568,7 +14568,7 @@
         <v>44788</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14625,7 +14625,7 @@
         <v>44792</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14682,7 +14682,7 @@
         <v>44792</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14739,7 +14739,7 @@
         <v>44798</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14796,7 +14796,7 @@
         <v>44799</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14858,7 +14858,7 @@
         <v>44799</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14915,7 +14915,7 @@
         <v>44799</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14977,7 +14977,7 @@
         <v>44799</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15039,7 +15039,7 @@
         <v>44804</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15096,7 +15096,7 @@
         <v>44805</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15153,7 +15153,7 @@
         <v>44812</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15215,7 +15215,7 @@
         <v>44820</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15272,7 +15272,7 @@
         <v>44820</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15334,7 +15334,7 @@
         <v>44830</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15391,7 +15391,7 @@
         <v>44830</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15448,7 +15448,7 @@
         <v>44832</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15505,7 +15505,7 @@
         <v>44832</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         <v>44837</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15619,7 +15619,7 @@
         <v>44837</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15676,7 +15676,7 @@
         <v>44869</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15733,7 +15733,7 @@
         <v>44879</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15795,7 +15795,7 @@
         <v>44886</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15852,7 +15852,7 @@
         <v>44887</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15909,7 +15909,7 @@
         <v>44889</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15966,7 +15966,7 @@
         <v>44900</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16023,7 +16023,7 @@
         <v>44908</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16080,7 +16080,7 @@
         <v>44911</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16137,7 +16137,7 @@
         <v>44935</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16199,7 +16199,7 @@
         <v>44935</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16256,7 +16256,7 @@
         <v>44950</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16313,7 +16313,7 @@
         <v>44951</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16370,7 +16370,7 @@
         <v>44958</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16432,7 +16432,7 @@
         <v>44972</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16489,7 +16489,7 @@
         <v>44977</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16546,7 +16546,7 @@
         <v>44977</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16603,7 +16603,7 @@
         <v>44981</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16660,7 +16660,7 @@
         <v>44987</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16717,7 +16717,7 @@
         <v>44988</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16794,7 +16794,7 @@
         <v>44992</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16851,7 +16851,7 @@
         <v>44992</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16908,7 +16908,7 @@
         <v>44992</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16965,7 +16965,7 @@
         <v>44999</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17027,7 +17027,7 @@
         <v>44999</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17089,7 +17089,7 @@
         <v>45008</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         <v>45015</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>45016</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17260,7 +17260,7 @@
         <v>45016</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17317,7 +17317,7 @@
         <v>45021</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17379,7 +17379,7 @@
         <v>45027</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17436,7 +17436,7 @@
         <v>45036</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17493,7 +17493,7 @@
         <v>45036</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17550,7 +17550,7 @@
         <v>45036</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17607,7 +17607,7 @@
         <v>45036</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17664,7 +17664,7 @@
         <v>45044</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17721,7 +17721,7 @@
         <v>45044</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17778,7 +17778,7 @@
         <v>45049</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17840,7 +17840,7 @@
         <v>45054</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17902,7 +17902,7 @@
         <v>45054</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17964,7 +17964,7 @@
         <v>45054</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18021,7 +18021,7 @@
         <v>45054</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18078,7 +18078,7 @@
         <v>45054</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18135,7 +18135,7 @@
         <v>45056</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18197,7 +18197,7 @@
         <v>45062</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18254,7 +18254,7 @@
         <v>45068</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18311,7 +18311,7 @@
         <v>45076</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18368,7 +18368,7 @@
         <v>45079</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18425,7 +18425,7 @@
         <v>45079</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18482,7 +18482,7 @@
         <v>45096</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18539,7 +18539,7 @@
         <v>45097</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18596,7 +18596,7 @@
         <v>45099</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18653,7 +18653,7 @@
         <v>45099</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18710,7 +18710,7 @@
         <v>45105</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18772,7 +18772,7 @@
         <v>45110</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18829,7 +18829,7 @@
         <v>45110</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18886,7 +18886,7 @@
         <v>45110</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18943,7 +18943,7 @@
         <v>45116</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19000,7 +19000,7 @@
         <v>45117</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19057,7 +19057,7 @@
         <v>45117</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19114,7 +19114,7 @@
         <v>45139</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19171,7 +19171,7 @@
         <v>45140</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19218,7 +19218,7 @@
       </c>
       <c r="R298" s="2" t="inlineStr"/>
     </row>
-    <row r="299">
+    <row r="299" ht="15" customHeight="1">
       <c r="A299" t="inlineStr">
         <is>
           <t>A 35501-2023</t>
@@ -19228,7 +19228,7 @@
         <v>45146</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19274,6 +19274,63 @@
         <v>0</v>
       </c>
       <c r="R299" s="2" t="inlineStr"/>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>A 40954-2023</t>
+        </is>
+      </c>
+      <c r="B300" s="1" t="n">
+        <v>45173</v>
+      </c>
+      <c r="C300" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>BORLÄNGE</t>
+        </is>
+      </c>
+      <c r="G300" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H300" t="n">
+        <v>0</v>
+      </c>
+      <c r="I300" t="n">
+        <v>0</v>
+      </c>
+      <c r="J300" t="n">
+        <v>0</v>
+      </c>
+      <c r="K300" t="n">
+        <v>0</v>
+      </c>
+      <c r="L300" t="n">
+        <v>0</v>
+      </c>
+      <c r="M300" t="n">
+        <v>0</v>
+      </c>
+      <c r="N300" t="n">
+        <v>0</v>
+      </c>
+      <c r="O300" t="n">
+        <v>0</v>
+      </c>
+      <c r="P300" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q300" t="n">
+        <v>0</v>
+      </c>
+      <c r="R300" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt BORLÄNGE.xlsx
+++ b/Översikt BORLÄNGE.xlsx
@@ -572,7 +572,7 @@
         <v>44512</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44887</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>44552</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         <v>44494</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         <v>45069</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
         <v>44274</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>44824</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1222,7 +1222,7 @@
         <v>45028</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>43544</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
         <v>43781</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>44599</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>45072</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         <v>43431</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
         <v>43811</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>44420</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1928,7 +1928,7 @@
         <v>44453</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>44463</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2109,7 +2109,7 @@
         <v>44505</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>44874</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2285,7 +2285,7 @@
         <v>44908</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>44996</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2461,7 +2461,7 @@
         <v>44999</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>45068</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>45074</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>45117</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2809,7 +2809,7 @@
         <v>43409</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>43434</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2979,7 +2979,7 @@
         <v>43441</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
         <v>43544</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3153,7 +3153,7 @@
         <v>43969</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3243,7 +3243,7 @@
         <v>44362</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
         <v>44410</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3413,7 +3413,7 @@
         <v>44426</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3498,7 +3498,7 @@
         <v>44454</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3583,7 +3583,7 @@
         <v>44470</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3668,7 +3668,7 @@
         <v>44473</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
         <v>44603</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
         <v>44705</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>44798</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4017,7 +4017,7 @@
         <v>44798</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>44897</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
         <v>44931</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>45036</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4361,7 +4361,7 @@
         <v>45040</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4446,7 +4446,7 @@
         <v>45061</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4535,7 +4535,7 @@
         <v>45062</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>45072</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4710,7 +4710,7 @@
         <v>45090</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         <v>43432</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>43447</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>43448</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>43452</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>43453</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>43455</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>43461</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5199,7 +5199,7 @@
         <v>43473</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>43473</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>43486</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>43507</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>43544</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         <v>43544</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
         <v>43544</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>43550</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>43556</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>43581</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>43601</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>43606</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43613</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>43614</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>43614</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>43614</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43630</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43642</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>43648</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         <v>43649</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6354,7 +6354,7 @@
         <v>43660</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6411,7 +6411,7 @@
         <v>43704</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>43704</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>43707</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>43739</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>43767</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>43768</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>43783</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>43803</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>43808</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
         <v>43812</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         <v>43893</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7038,7 +7038,7 @@
         <v>43902</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7095,7 +7095,7 @@
         <v>43909</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7152,7 +7152,7 @@
         <v>43918</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>43927</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>43938</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         <v>43941</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>43948</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7442,7 +7442,7 @@
         <v>43957</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7499,7 +7499,7 @@
         <v>43971</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>43991</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7618,7 +7618,7 @@
         <v>44064</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7675,7 +7675,7 @@
         <v>44104</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7732,7 +7732,7 @@
         <v>44105</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7794,7 +7794,7 @@
         <v>44110</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7851,7 +7851,7 @@
         <v>44110</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7908,7 +7908,7 @@
         <v>44110</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7970,7 +7970,7 @@
         <v>44110</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>44118</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8094,7 +8094,7 @@
         <v>44120</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8156,7 +8156,7 @@
         <v>44120</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8218,7 +8218,7 @@
         <v>44132</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8275,7 +8275,7 @@
         <v>44145</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8332,7 +8332,7 @@
         <v>44147</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8389,7 +8389,7 @@
         <v>44154</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8446,7 +8446,7 @@
         <v>44167</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8503,7 +8503,7 @@
         <v>44168</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8560,7 +8560,7 @@
         <v>44172</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8617,7 +8617,7 @@
         <v>44174</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8674,7 +8674,7 @@
         <v>44203</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8736,7 +8736,7 @@
         <v>44222</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8793,7 +8793,7 @@
         <v>44228</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8850,7 +8850,7 @@
         <v>44244</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8907,7 +8907,7 @@
         <v>44274</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8964,7 +8964,7 @@
         <v>44279</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9021,7 +9021,7 @@
         <v>44280</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9078,7 +9078,7 @@
         <v>44280</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9135,7 +9135,7 @@
         <v>44286</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9192,7 +9192,7 @@
         <v>44287</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9254,7 +9254,7 @@
         <v>44293</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9311,7 +9311,7 @@
         <v>44293</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9373,7 +9373,7 @@
         <v>44298</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9430,7 +9430,7 @@
         <v>44299</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9487,7 +9487,7 @@
         <v>44305</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>44306</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>44308</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>44319</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>44337</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>44341</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>44361</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9886,7 +9886,7 @@
         <v>44376</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9943,7 +9943,7 @@
         <v>44377</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10005,7 +10005,7 @@
         <v>44379</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10062,7 +10062,7 @@
         <v>44379</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10119,7 +10119,7 @@
         <v>44384</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10176,7 +10176,7 @@
         <v>44384</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10233,7 +10233,7 @@
         <v>44384</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10290,7 +10290,7 @@
         <v>44389</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10347,7 +10347,7 @@
         <v>44389</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10404,7 +10404,7 @@
         <v>44393</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10461,7 +10461,7 @@
         <v>44393</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10518,7 +10518,7 @@
         <v>44399</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10575,7 +10575,7 @@
         <v>44399</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10637,7 +10637,7 @@
         <v>44417</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10694,7 +10694,7 @@
         <v>44420</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10751,7 +10751,7 @@
         <v>44426</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10808,7 +10808,7 @@
         <v>44427</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10865,7 +10865,7 @@
         <v>44433</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10922,7 +10922,7 @@
         <v>44434</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10979,7 +10979,7 @@
         <v>44438</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11041,7 +11041,7 @@
         <v>44438</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11103,7 +11103,7 @@
         <v>44438</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11165,7 +11165,7 @@
         <v>44439</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11222,7 +11222,7 @@
         <v>44441</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11279,7 +11279,7 @@
         <v>44452</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11336,7 +11336,7 @@
         <v>44452</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11393,7 +11393,7 @@
         <v>44452</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11450,7 +11450,7 @@
         <v>44452</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11507,7 +11507,7 @@
         <v>44454</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11564,7 +11564,7 @@
         <v>44461</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11621,7 +11621,7 @@
         <v>44466</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11678,7 +11678,7 @@
         <v>44466</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11735,7 +11735,7 @@
         <v>44467</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11792,7 +11792,7 @@
         <v>44468</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11849,7 +11849,7 @@
         <v>44475</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11911,7 +11911,7 @@
         <v>44475</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11973,7 +11973,7 @@
         <v>44487</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12030,7 +12030,7 @@
         <v>44487</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>44488</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>44488</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>44493</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>44494</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12315,7 +12315,7 @@
         <v>44494</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         <v>44494</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         <v>44494</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12506,7 +12506,7 @@
         <v>44494</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12563,7 +12563,7 @@
         <v>44495</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         <v>44496</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>44497</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12734,7 +12734,7 @@
         <v>44500</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>44505</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12848,7 +12848,7 @@
         <v>44510</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>44524</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         <v>44529</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         <v>44547</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>44550</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>44550</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44565</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13252,7 +13252,7 @@
         <v>44575</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
         <v>44579</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13366,7 +13366,7 @@
         <v>44587</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13423,7 +13423,7 @@
         <v>44588</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13480,7 +13480,7 @@
         <v>44592</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13537,7 +13537,7 @@
         <v>44601</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13594,7 +13594,7 @@
         <v>44610</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13651,7 +13651,7 @@
         <v>44623</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13708,7 +13708,7 @@
         <v>44624</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13765,7 +13765,7 @@
         <v>44670</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13822,7 +13822,7 @@
         <v>44673</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13879,7 +13879,7 @@
         <v>44675</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13936,7 +13936,7 @@
         <v>44705</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13993,7 +13993,7 @@
         <v>44713</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14055,7 +14055,7 @@
         <v>44717</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14112,7 +14112,7 @@
         <v>44728</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14169,7 +14169,7 @@
         <v>44733</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14226,7 +14226,7 @@
         <v>44733</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14283,7 +14283,7 @@
         <v>44741</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14340,7 +14340,7 @@
         <v>44755</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14397,7 +14397,7 @@
         <v>44755</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14454,7 +14454,7 @@
         <v>44781</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14511,7 +14511,7 @@
         <v>44781</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14568,7 +14568,7 @@
         <v>44788</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14625,7 +14625,7 @@
         <v>44792</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14682,7 +14682,7 @@
         <v>44792</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14739,7 +14739,7 @@
         <v>44798</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14796,7 +14796,7 @@
         <v>44799</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14858,7 +14858,7 @@
         <v>44799</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14915,7 +14915,7 @@
         <v>44799</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14977,7 +14977,7 @@
         <v>44799</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15039,7 +15039,7 @@
         <v>44804</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15096,7 +15096,7 @@
         <v>44805</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15153,7 +15153,7 @@
         <v>44812</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15215,7 +15215,7 @@
         <v>44820</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15272,7 +15272,7 @@
         <v>44820</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15334,7 +15334,7 @@
         <v>44830</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15391,7 +15391,7 @@
         <v>44830</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15448,7 +15448,7 @@
         <v>44832</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15505,7 +15505,7 @@
         <v>44832</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         <v>44837</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15619,7 +15619,7 @@
         <v>44837</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15676,7 +15676,7 @@
         <v>44869</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15733,7 +15733,7 @@
         <v>44879</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15795,7 +15795,7 @@
         <v>44886</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15852,7 +15852,7 @@
         <v>44887</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15909,7 +15909,7 @@
         <v>44889</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15966,7 +15966,7 @@
         <v>44900</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16023,7 +16023,7 @@
         <v>44908</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16080,7 +16080,7 @@
         <v>44911</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16137,7 +16137,7 @@
         <v>44935</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16199,7 +16199,7 @@
         <v>44935</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16256,7 +16256,7 @@
         <v>44950</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16313,7 +16313,7 @@
         <v>44951</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16370,7 +16370,7 @@
         <v>44958</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16432,7 +16432,7 @@
         <v>44972</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16489,7 +16489,7 @@
         <v>44977</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16546,7 +16546,7 @@
         <v>44977</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16603,7 +16603,7 @@
         <v>44981</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16660,7 +16660,7 @@
         <v>44987</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16717,7 +16717,7 @@
         <v>44988</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16794,7 +16794,7 @@
         <v>44992</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16851,7 +16851,7 @@
         <v>44992</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16908,7 +16908,7 @@
         <v>44992</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16965,7 +16965,7 @@
         <v>44999</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17027,7 +17027,7 @@
         <v>44999</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17089,7 +17089,7 @@
         <v>45008</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         <v>45015</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>45016</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17260,7 +17260,7 @@
         <v>45016</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17317,7 +17317,7 @@
         <v>45021</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17379,7 +17379,7 @@
         <v>45027</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17436,7 +17436,7 @@
         <v>45036</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17493,7 +17493,7 @@
         <v>45036</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17550,7 +17550,7 @@
         <v>45036</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17607,7 +17607,7 @@
         <v>45036</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17664,7 +17664,7 @@
         <v>45044</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17721,7 +17721,7 @@
         <v>45044</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17778,7 +17778,7 @@
         <v>45049</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17840,7 +17840,7 @@
         <v>45054</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17902,7 +17902,7 @@
         <v>45054</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17964,7 +17964,7 @@
         <v>45054</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18021,7 +18021,7 @@
         <v>45054</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18078,7 +18078,7 @@
         <v>45054</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18135,7 +18135,7 @@
         <v>45056</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18197,7 +18197,7 @@
         <v>45062</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18254,7 +18254,7 @@
         <v>45068</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18311,7 +18311,7 @@
         <v>45076</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18368,7 +18368,7 @@
         <v>45079</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18425,7 +18425,7 @@
         <v>45079</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18482,7 +18482,7 @@
         <v>45096</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18539,7 +18539,7 @@
         <v>45097</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18596,7 +18596,7 @@
         <v>45099</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18653,7 +18653,7 @@
         <v>45099</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18710,7 +18710,7 @@
         <v>45105</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18772,7 +18772,7 @@
         <v>45110</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18829,7 +18829,7 @@
         <v>45110</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18886,7 +18886,7 @@
         <v>45110</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18943,7 +18943,7 @@
         <v>45116</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19000,7 +19000,7 @@
         <v>45117</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19057,7 +19057,7 @@
         <v>45117</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19114,7 +19114,7 @@
         <v>45139</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19171,7 +19171,7 @@
         <v>45140</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19228,7 +19228,7 @@
         <v>45146</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19285,7 +19285,7 @@
         <v>45173</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>

--- a/Översikt BORLÄNGE.xlsx
+++ b/Översikt BORLÄNGE.xlsx
@@ -572,7 +572,7 @@
         <v>44512</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44887</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>44552</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         <v>44494</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         <v>45069</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
         <v>44274</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>44824</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1222,7 +1222,7 @@
         <v>45028</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>43544</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
         <v>43781</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>44599</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>45072</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         <v>43431</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
         <v>43811</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>44420</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1928,7 +1928,7 @@
         <v>44453</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>44463</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2109,7 +2109,7 @@
         <v>44505</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>44874</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2285,7 +2285,7 @@
         <v>44908</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>44996</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2461,7 +2461,7 @@
         <v>44999</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>45068</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>45074</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>45117</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2809,7 +2809,7 @@
         <v>43409</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>43434</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2979,7 +2979,7 @@
         <v>43441</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
         <v>43544</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3153,7 +3153,7 @@
         <v>43969</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3243,7 +3243,7 @@
         <v>44362</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
         <v>44410</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3413,7 +3413,7 @@
         <v>44426</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3498,7 +3498,7 @@
         <v>44454</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3583,7 +3583,7 @@
         <v>44470</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3668,7 +3668,7 @@
         <v>44473</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
         <v>44603</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
         <v>44705</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>44798</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4017,7 +4017,7 @@
         <v>44798</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>44897</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
         <v>44931</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>45036</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4361,7 +4361,7 @@
         <v>45040</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4446,7 +4446,7 @@
         <v>45061</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4535,7 +4535,7 @@
         <v>45062</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>45072</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4710,7 +4710,7 @@
         <v>45090</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         <v>43432</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>43447</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>43448</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>43452</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>43453</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>43455</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>43461</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5199,7 +5199,7 @@
         <v>43473</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>43473</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>43486</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>43507</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>43544</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         <v>43544</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
         <v>43544</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>43550</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>43556</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>43581</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>43601</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>43606</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43613</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>43614</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>43614</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>43614</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43630</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43642</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>43648</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         <v>43649</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6354,7 +6354,7 @@
         <v>43660</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6411,7 +6411,7 @@
         <v>43704</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>43704</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>43707</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>43739</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>43767</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>43768</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>43783</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>43803</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>43808</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
         <v>43812</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         <v>43893</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7038,7 +7038,7 @@
         <v>43902</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7095,7 +7095,7 @@
         <v>43909</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7152,7 +7152,7 @@
         <v>43918</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>43927</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>43938</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         <v>43941</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>43948</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7442,7 +7442,7 @@
         <v>43957</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7499,7 +7499,7 @@
         <v>43971</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>43991</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7618,7 +7618,7 @@
         <v>44064</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7675,7 +7675,7 @@
         <v>44104</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7732,7 +7732,7 @@
         <v>44105</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7794,7 +7794,7 @@
         <v>44110</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7851,7 +7851,7 @@
         <v>44110</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7908,7 +7908,7 @@
         <v>44110</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7970,7 +7970,7 @@
         <v>44110</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>44118</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8094,7 +8094,7 @@
         <v>44120</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8156,7 +8156,7 @@
         <v>44120</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8218,7 +8218,7 @@
         <v>44132</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8275,7 +8275,7 @@
         <v>44145</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8332,7 +8332,7 @@
         <v>44147</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8389,7 +8389,7 @@
         <v>44154</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8446,7 +8446,7 @@
         <v>44167</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8503,7 +8503,7 @@
         <v>44168</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8560,7 +8560,7 @@
         <v>44172</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8617,7 +8617,7 @@
         <v>44174</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8674,7 +8674,7 @@
         <v>44203</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8736,7 +8736,7 @@
         <v>44222</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8793,7 +8793,7 @@
         <v>44228</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8850,7 +8850,7 @@
         <v>44244</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8907,7 +8907,7 @@
         <v>44274</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8964,7 +8964,7 @@
         <v>44279</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9021,7 +9021,7 @@
         <v>44280</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9078,7 +9078,7 @@
         <v>44280</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9135,7 +9135,7 @@
         <v>44286</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9192,7 +9192,7 @@
         <v>44287</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9254,7 +9254,7 @@
         <v>44293</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9311,7 +9311,7 @@
         <v>44293</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9373,7 +9373,7 @@
         <v>44298</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9430,7 +9430,7 @@
         <v>44299</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9487,7 +9487,7 @@
         <v>44305</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>44306</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>44308</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>44319</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>44337</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>44341</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>44361</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9886,7 +9886,7 @@
         <v>44376</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9943,7 +9943,7 @@
         <v>44377</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10005,7 +10005,7 @@
         <v>44379</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10062,7 +10062,7 @@
         <v>44379</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10119,7 +10119,7 @@
         <v>44384</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10176,7 +10176,7 @@
         <v>44384</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10233,7 +10233,7 @@
         <v>44384</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10290,7 +10290,7 @@
         <v>44389</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10347,7 +10347,7 @@
         <v>44389</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10404,7 +10404,7 @@
         <v>44393</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10461,7 +10461,7 @@
         <v>44393</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10518,7 +10518,7 @@
         <v>44399</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10575,7 +10575,7 @@
         <v>44399</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10637,7 +10637,7 @@
         <v>44417</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10694,7 +10694,7 @@
         <v>44420</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10751,7 +10751,7 @@
         <v>44426</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10808,7 +10808,7 @@
         <v>44427</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10865,7 +10865,7 @@
         <v>44433</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10922,7 +10922,7 @@
         <v>44434</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10979,7 +10979,7 @@
         <v>44438</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11041,7 +11041,7 @@
         <v>44438</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11103,7 +11103,7 @@
         <v>44438</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11165,7 +11165,7 @@
         <v>44439</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11222,7 +11222,7 @@
         <v>44441</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11279,7 +11279,7 @@
         <v>44452</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11336,7 +11336,7 @@
         <v>44452</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11393,7 +11393,7 @@
         <v>44452</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11450,7 +11450,7 @@
         <v>44452</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11507,7 +11507,7 @@
         <v>44454</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11564,7 +11564,7 @@
         <v>44461</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11621,7 +11621,7 @@
         <v>44466</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11678,7 +11678,7 @@
         <v>44466</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11735,7 +11735,7 @@
         <v>44467</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11792,7 +11792,7 @@
         <v>44468</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11849,7 +11849,7 @@
         <v>44475</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11911,7 +11911,7 @@
         <v>44475</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11973,7 +11973,7 @@
         <v>44487</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12030,7 +12030,7 @@
         <v>44487</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>44488</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>44488</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>44493</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>44494</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12315,7 +12315,7 @@
         <v>44494</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         <v>44494</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         <v>44494</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12506,7 +12506,7 @@
         <v>44494</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12563,7 +12563,7 @@
         <v>44495</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         <v>44496</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>44497</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12734,7 +12734,7 @@
         <v>44500</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>44505</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12848,7 +12848,7 @@
         <v>44510</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>44524</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         <v>44529</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         <v>44547</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>44550</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>44550</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44565</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13252,7 +13252,7 @@
         <v>44575</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
         <v>44579</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13366,7 +13366,7 @@
         <v>44587</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13423,7 +13423,7 @@
         <v>44588</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13480,7 +13480,7 @@
         <v>44592</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13537,7 +13537,7 @@
         <v>44601</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13594,7 +13594,7 @@
         <v>44610</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13651,7 +13651,7 @@
         <v>44623</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13708,7 +13708,7 @@
         <v>44624</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13765,7 +13765,7 @@
         <v>44670</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13822,7 +13822,7 @@
         <v>44673</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13879,7 +13879,7 @@
         <v>44675</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13936,7 +13936,7 @@
         <v>44705</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13993,7 +13993,7 @@
         <v>44713</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14055,7 +14055,7 @@
         <v>44717</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14112,7 +14112,7 @@
         <v>44728</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14169,7 +14169,7 @@
         <v>44733</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14226,7 +14226,7 @@
         <v>44733</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14283,7 +14283,7 @@
         <v>44741</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14340,7 +14340,7 @@
         <v>44755</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14397,7 +14397,7 @@
         <v>44755</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14454,7 +14454,7 @@
         <v>44781</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14511,7 +14511,7 @@
         <v>44781</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14568,7 +14568,7 @@
         <v>44788</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14625,7 +14625,7 @@
         <v>44792</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14682,7 +14682,7 @@
         <v>44792</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14739,7 +14739,7 @@
         <v>44798</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14796,7 +14796,7 @@
         <v>44799</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14858,7 +14858,7 @@
         <v>44799</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14915,7 +14915,7 @@
         <v>44799</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14977,7 +14977,7 @@
         <v>44799</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15039,7 +15039,7 @@
         <v>44804</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15096,7 +15096,7 @@
         <v>44805</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15153,7 +15153,7 @@
         <v>44812</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15215,7 +15215,7 @@
         <v>44820</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15272,7 +15272,7 @@
         <v>44820</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15334,7 +15334,7 @@
         <v>44830</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15391,7 +15391,7 @@
         <v>44830</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15448,7 +15448,7 @@
         <v>44832</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15505,7 +15505,7 @@
         <v>44832</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         <v>44837</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15619,7 +15619,7 @@
         <v>44837</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15676,7 +15676,7 @@
         <v>44869</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15733,7 +15733,7 @@
         <v>44879</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15795,7 +15795,7 @@
         <v>44886</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15852,7 +15852,7 @@
         <v>44887</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15909,7 +15909,7 @@
         <v>44889</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15966,7 +15966,7 @@
         <v>44900</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16023,7 +16023,7 @@
         <v>44908</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16080,7 +16080,7 @@
         <v>44911</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16137,7 +16137,7 @@
         <v>44935</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16199,7 +16199,7 @@
         <v>44935</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16256,7 +16256,7 @@
         <v>44950</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16313,7 +16313,7 @@
         <v>44951</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16370,7 +16370,7 @@
         <v>44958</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16432,7 +16432,7 @@
         <v>44972</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16489,7 +16489,7 @@
         <v>44977</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16546,7 +16546,7 @@
         <v>44977</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16603,7 +16603,7 @@
         <v>44981</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16660,7 +16660,7 @@
         <v>44987</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16717,7 +16717,7 @@
         <v>44988</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16794,7 +16794,7 @@
         <v>44992</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16851,7 +16851,7 @@
         <v>44992</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16908,7 +16908,7 @@
         <v>44992</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16965,7 +16965,7 @@
         <v>44999</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17027,7 +17027,7 @@
         <v>44999</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17089,7 +17089,7 @@
         <v>45008</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         <v>45015</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>45016</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17260,7 +17260,7 @@
         <v>45016</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17317,7 +17317,7 @@
         <v>45021</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17379,7 +17379,7 @@
         <v>45027</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17436,7 +17436,7 @@
         <v>45036</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17493,7 +17493,7 @@
         <v>45036</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17550,7 +17550,7 @@
         <v>45036</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17607,7 +17607,7 @@
         <v>45036</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17664,7 +17664,7 @@
         <v>45044</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17721,7 +17721,7 @@
         <v>45044</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17778,7 +17778,7 @@
         <v>45049</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17840,7 +17840,7 @@
         <v>45054</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17902,7 +17902,7 @@
         <v>45054</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17964,7 +17964,7 @@
         <v>45054</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18021,7 +18021,7 @@
         <v>45054</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18078,7 +18078,7 @@
         <v>45054</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18135,7 +18135,7 @@
         <v>45056</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18197,7 +18197,7 @@
         <v>45062</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18254,7 +18254,7 @@
         <v>45068</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18311,7 +18311,7 @@
         <v>45076</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18368,7 +18368,7 @@
         <v>45079</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18425,7 +18425,7 @@
         <v>45079</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18482,7 +18482,7 @@
         <v>45096</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18539,7 +18539,7 @@
         <v>45097</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18596,7 +18596,7 @@
         <v>45099</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18653,7 +18653,7 @@
         <v>45099</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18710,7 +18710,7 @@
         <v>45105</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18772,7 +18772,7 @@
         <v>45110</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18829,7 +18829,7 @@
         <v>45110</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18886,7 +18886,7 @@
         <v>45110</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18943,7 +18943,7 @@
         <v>45116</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19000,7 +19000,7 @@
         <v>45117</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19057,7 +19057,7 @@
         <v>45117</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19114,7 +19114,7 @@
         <v>45139</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19171,7 +19171,7 @@
         <v>45140</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19228,7 +19228,7 @@
         <v>45146</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19285,7 +19285,7 @@
         <v>45173</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>

--- a/Översikt BORLÄNGE.xlsx
+++ b/Översikt BORLÄNGE.xlsx
@@ -572,7 +572,7 @@
         <v>44512</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44887</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>44552</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         <v>44494</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         <v>45069</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
         <v>44274</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>44824</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1222,7 +1222,7 @@
         <v>45028</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>43544</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
         <v>43781</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>44599</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>45072</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         <v>43431</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
         <v>43811</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>44420</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1928,7 +1928,7 @@
         <v>44453</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>44463</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2109,7 +2109,7 @@
         <v>44505</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>44874</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2285,7 +2285,7 @@
         <v>44908</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>44996</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2461,7 +2461,7 @@
         <v>44999</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>45068</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>45074</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>45117</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2809,7 +2809,7 @@
         <v>43409</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>43434</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2979,7 +2979,7 @@
         <v>43441</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
         <v>43544</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3153,7 +3153,7 @@
         <v>43969</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3243,7 +3243,7 @@
         <v>44362</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
         <v>44410</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3413,7 +3413,7 @@
         <v>44426</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3498,7 +3498,7 @@
         <v>44454</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3583,7 +3583,7 @@
         <v>44470</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3668,7 +3668,7 @@
         <v>44473</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
         <v>44603</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
         <v>44705</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>44798</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4017,7 +4017,7 @@
         <v>44798</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>44897</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
         <v>44931</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>45036</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4361,7 +4361,7 @@
         <v>45040</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4446,7 +4446,7 @@
         <v>45061</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4535,7 +4535,7 @@
         <v>45062</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>45072</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4710,7 +4710,7 @@
         <v>45090</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         <v>43432</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>43447</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>43448</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>43452</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>43453</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>43455</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>43461</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5199,7 +5199,7 @@
         <v>43473</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>43473</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>43486</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>43507</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>43544</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         <v>43544</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
         <v>43544</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>43550</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>43556</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>43581</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>43601</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>43606</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43613</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>43614</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>43614</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>43614</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43630</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43642</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>43648</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         <v>43649</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6354,7 +6354,7 @@
         <v>43660</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6411,7 +6411,7 @@
         <v>43704</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>43704</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>43707</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>43739</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>43767</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>43768</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>43783</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>43803</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>43808</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
         <v>43812</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         <v>43893</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7038,7 +7038,7 @@
         <v>43902</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7095,7 +7095,7 @@
         <v>43909</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7152,7 +7152,7 @@
         <v>43918</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>43927</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>43938</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         <v>43941</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>43948</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7442,7 +7442,7 @@
         <v>43957</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7499,7 +7499,7 @@
         <v>43971</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>43991</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7618,7 +7618,7 @@
         <v>44064</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7675,7 +7675,7 @@
         <v>44104</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7732,7 +7732,7 @@
         <v>44105</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7794,7 +7794,7 @@
         <v>44110</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7851,7 +7851,7 @@
         <v>44110</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7908,7 +7908,7 @@
         <v>44110</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7970,7 +7970,7 @@
         <v>44110</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>44118</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8094,7 +8094,7 @@
         <v>44120</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8156,7 +8156,7 @@
         <v>44120</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8218,7 +8218,7 @@
         <v>44132</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8275,7 +8275,7 @@
         <v>44145</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8332,7 +8332,7 @@
         <v>44147</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8389,7 +8389,7 @@
         <v>44154</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8446,7 +8446,7 @@
         <v>44167</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8503,7 +8503,7 @@
         <v>44168</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8560,7 +8560,7 @@
         <v>44172</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8617,7 +8617,7 @@
         <v>44174</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8674,7 +8674,7 @@
         <v>44203</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8736,7 +8736,7 @@
         <v>44222</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8793,7 +8793,7 @@
         <v>44228</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8850,7 +8850,7 @@
         <v>44244</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8907,7 +8907,7 @@
         <v>44274</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8964,7 +8964,7 @@
         <v>44279</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9021,7 +9021,7 @@
         <v>44280</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9078,7 +9078,7 @@
         <v>44280</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9135,7 +9135,7 @@
         <v>44286</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9192,7 +9192,7 @@
         <v>44287</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9254,7 +9254,7 @@
         <v>44293</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9311,7 +9311,7 @@
         <v>44293</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9373,7 +9373,7 @@
         <v>44298</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9430,7 +9430,7 @@
         <v>44299</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9487,7 +9487,7 @@
         <v>44305</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>44306</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>44308</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>44319</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>44337</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>44341</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>44361</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9886,7 +9886,7 @@
         <v>44376</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9943,7 +9943,7 @@
         <v>44377</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10005,7 +10005,7 @@
         <v>44379</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10062,7 +10062,7 @@
         <v>44379</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10119,7 +10119,7 @@
         <v>44384</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10176,7 +10176,7 @@
         <v>44384</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10233,7 +10233,7 @@
         <v>44384</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10290,7 +10290,7 @@
         <v>44389</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10347,7 +10347,7 @@
         <v>44389</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10404,7 +10404,7 @@
         <v>44393</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10461,7 +10461,7 @@
         <v>44393</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10518,7 +10518,7 @@
         <v>44399</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10575,7 +10575,7 @@
         <v>44399</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10637,7 +10637,7 @@
         <v>44417</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10694,7 +10694,7 @@
         <v>44420</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10751,7 +10751,7 @@
         <v>44426</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10808,7 +10808,7 @@
         <v>44427</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10865,7 +10865,7 @@
         <v>44433</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10922,7 +10922,7 @@
         <v>44434</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10979,7 +10979,7 @@
         <v>44438</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11041,7 +11041,7 @@
         <v>44438</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11103,7 +11103,7 @@
         <v>44438</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11165,7 +11165,7 @@
         <v>44439</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11222,7 +11222,7 @@
         <v>44441</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11279,7 +11279,7 @@
         <v>44452</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11336,7 +11336,7 @@
         <v>44452</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11393,7 +11393,7 @@
         <v>44452</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11450,7 +11450,7 @@
         <v>44452</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11507,7 +11507,7 @@
         <v>44454</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11564,7 +11564,7 @@
         <v>44461</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11621,7 +11621,7 @@
         <v>44466</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11678,7 +11678,7 @@
         <v>44466</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11735,7 +11735,7 @@
         <v>44467</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11792,7 +11792,7 @@
         <v>44468</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11849,7 +11849,7 @@
         <v>44475</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11911,7 +11911,7 @@
         <v>44475</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11973,7 +11973,7 @@
         <v>44487</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12030,7 +12030,7 @@
         <v>44487</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>44488</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>44488</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>44493</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>44494</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12315,7 +12315,7 @@
         <v>44494</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         <v>44494</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         <v>44494</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12506,7 +12506,7 @@
         <v>44494</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12563,7 +12563,7 @@
         <v>44495</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         <v>44496</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>44497</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12734,7 +12734,7 @@
         <v>44500</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>44505</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12848,7 +12848,7 @@
         <v>44510</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>44524</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         <v>44529</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         <v>44547</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>44550</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>44550</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44565</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13252,7 +13252,7 @@
         <v>44575</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
         <v>44579</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13366,7 +13366,7 @@
         <v>44587</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13423,7 +13423,7 @@
         <v>44588</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13480,7 +13480,7 @@
         <v>44592</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13537,7 +13537,7 @@
         <v>44601</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13594,7 +13594,7 @@
         <v>44610</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13651,7 +13651,7 @@
         <v>44623</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13708,7 +13708,7 @@
         <v>44624</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13765,7 +13765,7 @@
         <v>44670</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13822,7 +13822,7 @@
         <v>44673</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13879,7 +13879,7 @@
         <v>44675</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13936,7 +13936,7 @@
         <v>44705</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13993,7 +13993,7 @@
         <v>44713</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14055,7 +14055,7 @@
         <v>44717</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14112,7 +14112,7 @@
         <v>44728</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14169,7 +14169,7 @@
         <v>44733</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14226,7 +14226,7 @@
         <v>44733</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14283,7 +14283,7 @@
         <v>44741</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14340,7 +14340,7 @@
         <v>44755</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14397,7 +14397,7 @@
         <v>44755</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14454,7 +14454,7 @@
         <v>44781</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14511,7 +14511,7 @@
         <v>44781</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14568,7 +14568,7 @@
         <v>44788</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14625,7 +14625,7 @@
         <v>44792</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14682,7 +14682,7 @@
         <v>44792</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14739,7 +14739,7 @@
         <v>44798</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14796,7 +14796,7 @@
         <v>44799</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14858,7 +14858,7 @@
         <v>44799</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14915,7 +14915,7 @@
         <v>44799</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14977,7 +14977,7 @@
         <v>44799</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15039,7 +15039,7 @@
         <v>44804</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15096,7 +15096,7 @@
         <v>44805</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15153,7 +15153,7 @@
         <v>44812</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15215,7 +15215,7 @@
         <v>44820</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15272,7 +15272,7 @@
         <v>44820</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15334,7 +15334,7 @@
         <v>44830</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15391,7 +15391,7 @@
         <v>44830</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15448,7 +15448,7 @@
         <v>44832</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15505,7 +15505,7 @@
         <v>44832</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         <v>44837</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15619,7 +15619,7 @@
         <v>44837</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15676,7 +15676,7 @@
         <v>44869</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15733,7 +15733,7 @@
         <v>44879</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15795,7 +15795,7 @@
         <v>44886</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15852,7 +15852,7 @@
         <v>44887</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15909,7 +15909,7 @@
         <v>44889</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15966,7 +15966,7 @@
         <v>44900</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16023,7 +16023,7 @@
         <v>44908</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16080,7 +16080,7 @@
         <v>44911</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16137,7 +16137,7 @@
         <v>44935</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16199,7 +16199,7 @@
         <v>44935</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16256,7 +16256,7 @@
         <v>44950</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16313,7 +16313,7 @@
         <v>44951</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16370,7 +16370,7 @@
         <v>44958</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16432,7 +16432,7 @@
         <v>44972</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16489,7 +16489,7 @@
         <v>44977</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16546,7 +16546,7 @@
         <v>44977</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16603,7 +16603,7 @@
         <v>44981</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16660,7 +16660,7 @@
         <v>44987</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16717,7 +16717,7 @@
         <v>44988</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16794,7 +16794,7 @@
         <v>44992</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16851,7 +16851,7 @@
         <v>44992</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16908,7 +16908,7 @@
         <v>44992</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16965,7 +16965,7 @@
         <v>44999</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17027,7 +17027,7 @@
         <v>44999</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17089,7 +17089,7 @@
         <v>45008</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         <v>45015</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>45016</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17260,7 +17260,7 @@
         <v>45016</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17317,7 +17317,7 @@
         <v>45021</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17379,7 +17379,7 @@
         <v>45027</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17436,7 +17436,7 @@
         <v>45036</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17493,7 +17493,7 @@
         <v>45036</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17550,7 +17550,7 @@
         <v>45036</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17607,7 +17607,7 @@
         <v>45036</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17664,7 +17664,7 @@
         <v>45044</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17721,7 +17721,7 @@
         <v>45044</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17778,7 +17778,7 @@
         <v>45049</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17840,7 +17840,7 @@
         <v>45054</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17902,7 +17902,7 @@
         <v>45054</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17964,7 +17964,7 @@
         <v>45054</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18021,7 +18021,7 @@
         <v>45054</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18078,7 +18078,7 @@
         <v>45054</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18135,7 +18135,7 @@
         <v>45056</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18197,7 +18197,7 @@
         <v>45062</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18254,7 +18254,7 @@
         <v>45068</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18311,7 +18311,7 @@
         <v>45076</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18368,7 +18368,7 @@
         <v>45079</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18425,7 +18425,7 @@
         <v>45079</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18482,7 +18482,7 @@
         <v>45096</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18539,7 +18539,7 @@
         <v>45097</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18596,7 +18596,7 @@
         <v>45099</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18653,7 +18653,7 @@
         <v>45099</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18710,7 +18710,7 @@
         <v>45105</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18772,7 +18772,7 @@
         <v>45110</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18829,7 +18829,7 @@
         <v>45110</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18886,7 +18886,7 @@
         <v>45110</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18943,7 +18943,7 @@
         <v>45116</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19000,7 +19000,7 @@
         <v>45117</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19057,7 +19057,7 @@
         <v>45117</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19114,7 +19114,7 @@
         <v>45139</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19171,7 +19171,7 @@
         <v>45140</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19228,7 +19228,7 @@
         <v>45146</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19285,7 +19285,7 @@
         <v>45173</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>

--- a/Översikt BORLÄNGE.xlsx
+++ b/Översikt BORLÄNGE.xlsx
@@ -572,7 +572,7 @@
         <v>44512</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44887</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>44552</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         <v>44494</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         <v>45069</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
         <v>44274</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>44824</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1222,7 +1222,7 @@
         <v>45028</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>43544</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
         <v>43781</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>44599</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>45072</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         <v>43431</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
         <v>43811</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>44420</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1928,7 +1928,7 @@
         <v>44453</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>44463</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2109,7 +2109,7 @@
         <v>44505</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>44874</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2285,7 +2285,7 @@
         <v>44908</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>44996</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2461,7 +2461,7 @@
         <v>44999</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>45068</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>45074</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>45117</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2809,7 +2809,7 @@
         <v>43409</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>43434</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2979,7 +2979,7 @@
         <v>43441</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
         <v>43544</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3153,7 +3153,7 @@
         <v>43969</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3243,7 +3243,7 @@
         <v>44362</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
         <v>44410</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3413,7 +3413,7 @@
         <v>44426</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3498,7 +3498,7 @@
         <v>44454</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3583,7 +3583,7 @@
         <v>44470</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3668,7 +3668,7 @@
         <v>44473</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
         <v>44603</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
         <v>44705</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>44798</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4017,7 +4017,7 @@
         <v>44798</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>44897</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
         <v>44931</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>45036</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4361,7 +4361,7 @@
         <v>45040</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4446,7 +4446,7 @@
         <v>45061</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4535,7 +4535,7 @@
         <v>45062</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>45072</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4710,7 +4710,7 @@
         <v>45090</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         <v>43432</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>43447</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>43448</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>43452</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>43453</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>43455</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>43461</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5199,7 +5199,7 @@
         <v>43473</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>43473</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>43486</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>43507</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>43544</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         <v>43544</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
         <v>43544</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>43550</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>43556</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>43581</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>43601</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>43606</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43613</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>43614</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>43614</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>43614</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43630</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43642</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>43648</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         <v>43649</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6354,7 +6354,7 @@
         <v>43660</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6411,7 +6411,7 @@
         <v>43704</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>43704</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>43707</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>43739</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>43767</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>43768</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>43783</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>43803</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>43808</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
         <v>43812</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         <v>43893</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7038,7 +7038,7 @@
         <v>43902</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7095,7 +7095,7 @@
         <v>43909</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7152,7 +7152,7 @@
         <v>43918</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>43927</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>43938</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         <v>43941</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>43948</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7442,7 +7442,7 @@
         <v>43957</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7499,7 +7499,7 @@
         <v>43971</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>43991</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7618,7 +7618,7 @@
         <v>44064</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7675,7 +7675,7 @@
         <v>44104</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7732,7 +7732,7 @@
         <v>44105</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7794,7 +7794,7 @@
         <v>44110</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7851,7 +7851,7 @@
         <v>44110</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7908,7 +7908,7 @@
         <v>44110</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7970,7 +7970,7 @@
         <v>44110</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>44118</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8094,7 +8094,7 @@
         <v>44120</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8156,7 +8156,7 @@
         <v>44120</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8218,7 +8218,7 @@
         <v>44132</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8275,7 +8275,7 @@
         <v>44145</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8332,7 +8332,7 @@
         <v>44147</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8389,7 +8389,7 @@
         <v>44154</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8446,7 +8446,7 @@
         <v>44167</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8503,7 +8503,7 @@
         <v>44168</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8560,7 +8560,7 @@
         <v>44172</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8617,7 +8617,7 @@
         <v>44174</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8674,7 +8674,7 @@
         <v>44203</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8736,7 +8736,7 @@
         <v>44222</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8793,7 +8793,7 @@
         <v>44228</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8850,7 +8850,7 @@
         <v>44244</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8907,7 +8907,7 @@
         <v>44274</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8964,7 +8964,7 @@
         <v>44279</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9021,7 +9021,7 @@
         <v>44280</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9078,7 +9078,7 @@
         <v>44280</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9135,7 +9135,7 @@
         <v>44286</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9192,7 +9192,7 @@
         <v>44287</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9254,7 +9254,7 @@
         <v>44293</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9311,7 +9311,7 @@
         <v>44293</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9373,7 +9373,7 @@
         <v>44298</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9430,7 +9430,7 @@
         <v>44299</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9487,7 +9487,7 @@
         <v>44305</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>44306</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>44308</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>44319</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>44337</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>44341</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>44361</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9886,7 +9886,7 @@
         <v>44376</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9943,7 +9943,7 @@
         <v>44377</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10005,7 +10005,7 @@
         <v>44379</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10062,7 +10062,7 @@
         <v>44379</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10119,7 +10119,7 @@
         <v>44384</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10176,7 +10176,7 @@
         <v>44384</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10233,7 +10233,7 @@
         <v>44384</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10290,7 +10290,7 @@
         <v>44389</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10347,7 +10347,7 @@
         <v>44389</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10404,7 +10404,7 @@
         <v>44393</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10461,7 +10461,7 @@
         <v>44393</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10518,7 +10518,7 @@
         <v>44399</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10575,7 +10575,7 @@
         <v>44399</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10637,7 +10637,7 @@
         <v>44417</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10694,7 +10694,7 @@
         <v>44420</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10751,7 +10751,7 @@
         <v>44426</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10808,7 +10808,7 @@
         <v>44427</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10865,7 +10865,7 @@
         <v>44433</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10922,7 +10922,7 @@
         <v>44434</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10979,7 +10979,7 @@
         <v>44438</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11041,7 +11041,7 @@
         <v>44438</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11103,7 +11103,7 @@
         <v>44438</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11165,7 +11165,7 @@
         <v>44439</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11222,7 +11222,7 @@
         <v>44441</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11279,7 +11279,7 @@
         <v>44452</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11336,7 +11336,7 @@
         <v>44452</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11393,7 +11393,7 @@
         <v>44452</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11450,7 +11450,7 @@
         <v>44452</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11507,7 +11507,7 @@
         <v>44454</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11564,7 +11564,7 @@
         <v>44461</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11621,7 +11621,7 @@
         <v>44466</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11678,7 +11678,7 @@
         <v>44466</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11735,7 +11735,7 @@
         <v>44467</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11792,7 +11792,7 @@
         <v>44468</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11849,7 +11849,7 @@
         <v>44475</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11911,7 +11911,7 @@
         <v>44475</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11973,7 +11973,7 @@
         <v>44487</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12030,7 +12030,7 @@
         <v>44487</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>44488</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>44488</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>44493</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>44494</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12315,7 +12315,7 @@
         <v>44494</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         <v>44494</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         <v>44494</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12506,7 +12506,7 @@
         <v>44494</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12563,7 +12563,7 @@
         <v>44495</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         <v>44496</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>44497</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12734,7 +12734,7 @@
         <v>44500</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>44505</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12848,7 +12848,7 @@
         <v>44510</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>44524</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         <v>44529</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         <v>44547</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>44550</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>44550</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44565</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13252,7 +13252,7 @@
         <v>44575</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
         <v>44579</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13366,7 +13366,7 @@
         <v>44587</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13423,7 +13423,7 @@
         <v>44588</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13480,7 +13480,7 @@
         <v>44592</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13537,7 +13537,7 @@
         <v>44601</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13594,7 +13594,7 @@
         <v>44610</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13651,7 +13651,7 @@
         <v>44623</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13708,7 +13708,7 @@
         <v>44624</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13765,7 +13765,7 @@
         <v>44670</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13822,7 +13822,7 @@
         <v>44673</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13879,7 +13879,7 @@
         <v>44675</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13936,7 +13936,7 @@
         <v>44705</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13993,7 +13993,7 @@
         <v>44713</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14055,7 +14055,7 @@
         <v>44717</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14112,7 +14112,7 @@
         <v>44728</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14169,7 +14169,7 @@
         <v>44733</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14226,7 +14226,7 @@
         <v>44733</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14283,7 +14283,7 @@
         <v>44741</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14340,7 +14340,7 @@
         <v>44755</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14397,7 +14397,7 @@
         <v>44755</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14454,7 +14454,7 @@
         <v>44781</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14511,7 +14511,7 @@
         <v>44781</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14568,7 +14568,7 @@
         <v>44788</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14625,7 +14625,7 @@
         <v>44792</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14682,7 +14682,7 @@
         <v>44792</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14739,7 +14739,7 @@
         <v>44798</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14796,7 +14796,7 @@
         <v>44799</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14858,7 +14858,7 @@
         <v>44799</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14915,7 +14915,7 @@
         <v>44799</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14977,7 +14977,7 @@
         <v>44799</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15039,7 +15039,7 @@
         <v>44804</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15096,7 +15096,7 @@
         <v>44805</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15153,7 +15153,7 @@
         <v>44812</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15215,7 +15215,7 @@
         <v>44820</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15272,7 +15272,7 @@
         <v>44820</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15334,7 +15334,7 @@
         <v>44830</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15391,7 +15391,7 @@
         <v>44830</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15448,7 +15448,7 @@
         <v>44832</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15505,7 +15505,7 @@
         <v>44832</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         <v>44837</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15619,7 +15619,7 @@
         <v>44837</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15676,7 +15676,7 @@
         <v>44869</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15733,7 +15733,7 @@
         <v>44879</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15795,7 +15795,7 @@
         <v>44886</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15852,7 +15852,7 @@
         <v>44887</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15909,7 +15909,7 @@
         <v>44889</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15966,7 +15966,7 @@
         <v>44900</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16023,7 +16023,7 @@
         <v>44908</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16080,7 +16080,7 @@
         <v>44911</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16137,7 +16137,7 @@
         <v>44935</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16199,7 +16199,7 @@
         <v>44935</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16256,7 +16256,7 @@
         <v>44950</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16313,7 +16313,7 @@
         <v>44951</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16370,7 +16370,7 @@
         <v>44958</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16432,7 +16432,7 @@
         <v>44972</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16489,7 +16489,7 @@
         <v>44977</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16546,7 +16546,7 @@
         <v>44977</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16603,7 +16603,7 @@
         <v>44981</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16660,7 +16660,7 @@
         <v>44987</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16717,7 +16717,7 @@
         <v>44988</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16794,7 +16794,7 @@
         <v>44992</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16851,7 +16851,7 @@
         <v>44992</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16908,7 +16908,7 @@
         <v>44992</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16965,7 +16965,7 @@
         <v>44999</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17027,7 +17027,7 @@
         <v>44999</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17089,7 +17089,7 @@
         <v>45008</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         <v>45015</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>45016</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17260,7 +17260,7 @@
         <v>45016</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17317,7 +17317,7 @@
         <v>45021</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17379,7 +17379,7 @@
         <v>45027</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17436,7 +17436,7 @@
         <v>45036</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17493,7 +17493,7 @@
         <v>45036</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17550,7 +17550,7 @@
         <v>45036</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17607,7 +17607,7 @@
         <v>45036</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17664,7 +17664,7 @@
         <v>45044</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17721,7 +17721,7 @@
         <v>45044</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17778,7 +17778,7 @@
         <v>45049</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17840,7 +17840,7 @@
         <v>45054</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17902,7 +17902,7 @@
         <v>45054</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17964,7 +17964,7 @@
         <v>45054</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18021,7 +18021,7 @@
         <v>45054</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18078,7 +18078,7 @@
         <v>45054</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18135,7 +18135,7 @@
         <v>45056</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18197,7 +18197,7 @@
         <v>45062</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18254,7 +18254,7 @@
         <v>45068</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18311,7 +18311,7 @@
         <v>45076</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18368,7 +18368,7 @@
         <v>45079</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18425,7 +18425,7 @@
         <v>45079</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18482,7 +18482,7 @@
         <v>45096</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18539,7 +18539,7 @@
         <v>45097</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18596,7 +18596,7 @@
         <v>45099</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18653,7 +18653,7 @@
         <v>45099</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18710,7 +18710,7 @@
         <v>45105</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18772,7 +18772,7 @@
         <v>45110</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18829,7 +18829,7 @@
         <v>45110</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18886,7 +18886,7 @@
         <v>45110</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18943,7 +18943,7 @@
         <v>45116</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19000,7 +19000,7 @@
         <v>45117</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19057,7 +19057,7 @@
         <v>45117</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19114,7 +19114,7 @@
         <v>45139</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19171,7 +19171,7 @@
         <v>45140</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19228,7 +19228,7 @@
         <v>45146</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19285,7 +19285,7 @@
         <v>45173</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>

--- a/Översikt BORLÄNGE.xlsx
+++ b/Översikt BORLÄNGE.xlsx
@@ -572,7 +572,7 @@
         <v>44512</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44887</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>44552</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         <v>44494</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         <v>45069</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
         <v>44274</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>44824</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1222,7 +1222,7 @@
         <v>45028</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>43544</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
         <v>43781</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>44599</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>45072</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         <v>43431</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
         <v>43811</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>44420</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1928,7 +1928,7 @@
         <v>44453</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>44463</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2109,7 +2109,7 @@
         <v>44505</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>44874</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2285,7 +2285,7 @@
         <v>44908</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>44996</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2461,7 +2461,7 @@
         <v>44999</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>45068</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>45074</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>45117</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2809,7 +2809,7 @@
         <v>43409</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>43434</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2979,7 +2979,7 @@
         <v>43441</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
         <v>43544</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3153,7 +3153,7 @@
         <v>43969</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3243,7 +3243,7 @@
         <v>44362</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
         <v>44410</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3413,7 +3413,7 @@
         <v>44426</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3498,7 +3498,7 @@
         <v>44454</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3583,7 +3583,7 @@
         <v>44470</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3668,7 +3668,7 @@
         <v>44473</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
         <v>44603</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
         <v>44705</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>44798</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4017,7 +4017,7 @@
         <v>44798</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>44897</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
         <v>44931</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>45036</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4361,7 +4361,7 @@
         <v>45040</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4446,7 +4446,7 @@
         <v>45061</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4535,7 +4535,7 @@
         <v>45062</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>45072</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4710,7 +4710,7 @@
         <v>45090</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         <v>43432</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>43447</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>43448</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>43452</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>43453</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>43455</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>43461</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5199,7 +5199,7 @@
         <v>43473</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>43473</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>43486</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>43507</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>43544</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         <v>43544</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
         <v>43544</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>43550</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>43556</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>43581</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>43601</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>43606</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43613</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>43614</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>43614</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>43614</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43630</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43642</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>43648</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         <v>43649</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6354,7 +6354,7 @@
         <v>43660</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6411,7 +6411,7 @@
         <v>43704</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>43704</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>43707</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>43739</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>43767</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>43768</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>43783</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>43803</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>43808</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
         <v>43812</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         <v>43893</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7038,7 +7038,7 @@
         <v>43902</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7095,7 +7095,7 @@
         <v>43909</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7152,7 +7152,7 @@
         <v>43918</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>43927</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>43938</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         <v>43941</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>43948</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7442,7 +7442,7 @@
         <v>43957</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7499,7 +7499,7 @@
         <v>43971</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>43991</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7618,7 +7618,7 @@
         <v>44064</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7675,7 +7675,7 @@
         <v>44104</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7732,7 +7732,7 @@
         <v>44105</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7794,7 +7794,7 @@
         <v>44110</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7851,7 +7851,7 @@
         <v>44110</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7908,7 +7908,7 @@
         <v>44110</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7970,7 +7970,7 @@
         <v>44110</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>44118</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8094,7 +8094,7 @@
         <v>44120</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8156,7 +8156,7 @@
         <v>44120</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8218,7 +8218,7 @@
         <v>44132</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8275,7 +8275,7 @@
         <v>44145</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8332,7 +8332,7 @@
         <v>44147</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8389,7 +8389,7 @@
         <v>44154</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8446,7 +8446,7 @@
         <v>44167</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8503,7 +8503,7 @@
         <v>44168</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8560,7 +8560,7 @@
         <v>44172</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8617,7 +8617,7 @@
         <v>44174</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8674,7 +8674,7 @@
         <v>44203</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8736,7 +8736,7 @@
         <v>44222</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8793,7 +8793,7 @@
         <v>44228</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8850,7 +8850,7 @@
         <v>44244</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8907,7 +8907,7 @@
         <v>44274</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8964,7 +8964,7 @@
         <v>44279</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9021,7 +9021,7 @@
         <v>44280</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9078,7 +9078,7 @@
         <v>44280</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9135,7 +9135,7 @@
         <v>44286</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9192,7 +9192,7 @@
         <v>44287</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9254,7 +9254,7 @@
         <v>44293</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9311,7 +9311,7 @@
         <v>44293</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9373,7 +9373,7 @@
         <v>44298</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9430,7 +9430,7 @@
         <v>44299</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9487,7 +9487,7 @@
         <v>44305</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>44306</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>44308</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>44319</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>44337</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>44341</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>44361</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9886,7 +9886,7 @@
         <v>44376</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9943,7 +9943,7 @@
         <v>44377</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10005,7 +10005,7 @@
         <v>44379</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10062,7 +10062,7 @@
         <v>44379</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10119,7 +10119,7 @@
         <v>44384</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10176,7 +10176,7 @@
         <v>44384</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10233,7 +10233,7 @@
         <v>44384</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10290,7 +10290,7 @@
         <v>44389</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10347,7 +10347,7 @@
         <v>44389</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10404,7 +10404,7 @@
         <v>44393</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10461,7 +10461,7 @@
         <v>44393</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10518,7 +10518,7 @@
         <v>44399</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10575,7 +10575,7 @@
         <v>44399</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10637,7 +10637,7 @@
         <v>44417</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10694,7 +10694,7 @@
         <v>44420</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10751,7 +10751,7 @@
         <v>44426</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10808,7 +10808,7 @@
         <v>44427</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10865,7 +10865,7 @@
         <v>44433</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10922,7 +10922,7 @@
         <v>44434</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10979,7 +10979,7 @@
         <v>44438</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11041,7 +11041,7 @@
         <v>44438</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11103,7 +11103,7 @@
         <v>44438</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11165,7 +11165,7 @@
         <v>44439</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11222,7 +11222,7 @@
         <v>44441</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11279,7 +11279,7 @@
         <v>44452</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11336,7 +11336,7 @@
         <v>44452</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11393,7 +11393,7 @@
         <v>44452</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11450,7 +11450,7 @@
         <v>44452</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11507,7 +11507,7 @@
         <v>44454</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11564,7 +11564,7 @@
         <v>44461</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11621,7 +11621,7 @@
         <v>44466</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11678,7 +11678,7 @@
         <v>44466</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11735,7 +11735,7 @@
         <v>44467</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11792,7 +11792,7 @@
         <v>44468</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11849,7 +11849,7 @@
         <v>44475</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11911,7 +11911,7 @@
         <v>44475</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11973,7 +11973,7 @@
         <v>44487</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12030,7 +12030,7 @@
         <v>44487</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>44488</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>44488</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>44493</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>44494</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12315,7 +12315,7 @@
         <v>44494</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         <v>44494</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         <v>44494</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12506,7 +12506,7 @@
         <v>44494</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12563,7 +12563,7 @@
         <v>44495</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         <v>44496</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>44497</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12734,7 +12734,7 @@
         <v>44500</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>44505</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12848,7 +12848,7 @@
         <v>44510</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>44524</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         <v>44529</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         <v>44547</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>44550</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>44550</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44565</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13252,7 +13252,7 @@
         <v>44575</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
         <v>44579</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13366,7 +13366,7 @@
         <v>44587</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13423,7 +13423,7 @@
         <v>44588</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13480,7 +13480,7 @@
         <v>44592</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13537,7 +13537,7 @@
         <v>44601</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13594,7 +13594,7 @@
         <v>44610</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13651,7 +13651,7 @@
         <v>44623</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13708,7 +13708,7 @@
         <v>44624</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13765,7 +13765,7 @@
         <v>44670</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13822,7 +13822,7 @@
         <v>44673</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13879,7 +13879,7 @@
         <v>44675</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13936,7 +13936,7 @@
         <v>44705</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13993,7 +13993,7 @@
         <v>44713</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14055,7 +14055,7 @@
         <v>44717</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14112,7 +14112,7 @@
         <v>44728</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14169,7 +14169,7 @@
         <v>44733</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14226,7 +14226,7 @@
         <v>44733</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14283,7 +14283,7 @@
         <v>44741</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14340,7 +14340,7 @@
         <v>44755</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14397,7 +14397,7 @@
         <v>44755</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14454,7 +14454,7 @@
         <v>44781</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14511,7 +14511,7 @@
         <v>44781</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14568,7 +14568,7 @@
         <v>44788</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14625,7 +14625,7 @@
         <v>44792</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14682,7 +14682,7 @@
         <v>44792</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14739,7 +14739,7 @@
         <v>44798</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14796,7 +14796,7 @@
         <v>44799</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14858,7 +14858,7 @@
         <v>44799</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14915,7 +14915,7 @@
         <v>44799</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14977,7 +14977,7 @@
         <v>44799</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15039,7 +15039,7 @@
         <v>44804</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15096,7 +15096,7 @@
         <v>44805</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15153,7 +15153,7 @@
         <v>44812</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15215,7 +15215,7 @@
         <v>44820</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15272,7 +15272,7 @@
         <v>44820</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15334,7 +15334,7 @@
         <v>44830</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15391,7 +15391,7 @@
         <v>44830</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15448,7 +15448,7 @@
         <v>44832</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15505,7 +15505,7 @@
         <v>44832</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         <v>44837</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15619,7 +15619,7 @@
         <v>44837</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15676,7 +15676,7 @@
         <v>44869</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15733,7 +15733,7 @@
         <v>44879</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15795,7 +15795,7 @@
         <v>44886</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15852,7 +15852,7 @@
         <v>44887</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15909,7 +15909,7 @@
         <v>44889</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15966,7 +15966,7 @@
         <v>44900</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16023,7 +16023,7 @@
         <v>44908</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16080,7 +16080,7 @@
         <v>44911</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16137,7 +16137,7 @@
         <v>44935</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16199,7 +16199,7 @@
         <v>44935</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16256,7 +16256,7 @@
         <v>44950</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16313,7 +16313,7 @@
         <v>44951</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16370,7 +16370,7 @@
         <v>44958</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16432,7 +16432,7 @@
         <v>44972</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16489,7 +16489,7 @@
         <v>44977</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16546,7 +16546,7 @@
         <v>44977</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16603,7 +16603,7 @@
         <v>44981</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16660,7 +16660,7 @@
         <v>44987</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16717,7 +16717,7 @@
         <v>44988</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16794,7 +16794,7 @@
         <v>44992</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16851,7 +16851,7 @@
         <v>44992</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16908,7 +16908,7 @@
         <v>44992</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16965,7 +16965,7 @@
         <v>44999</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17027,7 +17027,7 @@
         <v>44999</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17089,7 +17089,7 @@
         <v>45008</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         <v>45015</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>45016</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17260,7 +17260,7 @@
         <v>45016</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17317,7 +17317,7 @@
         <v>45021</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17379,7 +17379,7 @@
         <v>45027</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17436,7 +17436,7 @@
         <v>45036</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17493,7 +17493,7 @@
         <v>45036</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17550,7 +17550,7 @@
         <v>45036</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17607,7 +17607,7 @@
         <v>45036</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17664,7 +17664,7 @@
         <v>45044</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17721,7 +17721,7 @@
         <v>45044</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17778,7 +17778,7 @@
         <v>45049</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17840,7 +17840,7 @@
         <v>45054</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17902,7 +17902,7 @@
         <v>45054</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17964,7 +17964,7 @@
         <v>45054</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18021,7 +18021,7 @@
         <v>45054</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18078,7 +18078,7 @@
         <v>45054</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18135,7 +18135,7 @@
         <v>45056</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18197,7 +18197,7 @@
         <v>45062</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18254,7 +18254,7 @@
         <v>45068</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18311,7 +18311,7 @@
         <v>45076</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18368,7 +18368,7 @@
         <v>45079</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18425,7 +18425,7 @@
         <v>45079</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18482,7 +18482,7 @@
         <v>45096</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18539,7 +18539,7 @@
         <v>45097</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18596,7 +18596,7 @@
         <v>45099</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18653,7 +18653,7 @@
         <v>45099</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18710,7 +18710,7 @@
         <v>45105</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18772,7 +18772,7 @@
         <v>45110</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18829,7 +18829,7 @@
         <v>45110</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18886,7 +18886,7 @@
         <v>45110</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18943,7 +18943,7 @@
         <v>45116</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19000,7 +19000,7 @@
         <v>45117</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19057,7 +19057,7 @@
         <v>45117</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19114,7 +19114,7 @@
         <v>45139</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19171,7 +19171,7 @@
         <v>45140</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19228,7 +19228,7 @@
         <v>45146</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19285,7 +19285,7 @@
         <v>45173</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>

--- a/Översikt BORLÄNGE.xlsx
+++ b/Översikt BORLÄNGE.xlsx
@@ -572,7 +572,7 @@
         <v>44512</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44887</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>44552</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         <v>44494</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         <v>45069</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
         <v>44274</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>44824</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1222,7 +1222,7 @@
         <v>45028</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>43544</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
         <v>43781</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>44599</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>45072</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         <v>43431</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
         <v>43811</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>44420</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1928,7 +1928,7 @@
         <v>44453</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>44463</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2109,7 +2109,7 @@
         <v>44505</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>44874</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2285,7 +2285,7 @@
         <v>44908</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>44996</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2461,7 +2461,7 @@
         <v>44999</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>45068</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>45074</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>45117</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2809,7 +2809,7 @@
         <v>43409</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>43434</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2979,7 +2979,7 @@
         <v>43441</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
         <v>43544</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3153,7 +3153,7 @@
         <v>43969</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3243,7 +3243,7 @@
         <v>44362</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
         <v>44410</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3413,7 +3413,7 @@
         <v>44426</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3498,7 +3498,7 @@
         <v>44454</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3583,7 +3583,7 @@
         <v>44470</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3668,7 +3668,7 @@
         <v>44473</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
         <v>44603</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
         <v>44705</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>44798</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4017,7 +4017,7 @@
         <v>44798</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>44897</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
         <v>44931</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>45036</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4361,7 +4361,7 @@
         <v>45040</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4446,7 +4446,7 @@
         <v>45061</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4535,7 +4535,7 @@
         <v>45062</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>45072</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4710,7 +4710,7 @@
         <v>45090</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         <v>43432</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>43447</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>43448</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>43452</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>43453</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>43455</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>43461</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5199,7 +5199,7 @@
         <v>43473</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>43473</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>43486</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>43507</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>43544</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         <v>43544</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
         <v>43544</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>43550</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>43556</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>43581</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>43601</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>43606</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43613</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>43614</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>43614</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>43614</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43630</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43642</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>43648</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         <v>43649</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6354,7 +6354,7 @@
         <v>43660</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6411,7 +6411,7 @@
         <v>43704</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>43704</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>43707</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>43739</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>43767</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>43768</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>43783</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>43803</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>43808</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
         <v>43812</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         <v>43893</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7038,7 +7038,7 @@
         <v>43902</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7095,7 +7095,7 @@
         <v>43909</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7152,7 +7152,7 @@
         <v>43918</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>43927</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>43938</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         <v>43941</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>43948</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7442,7 +7442,7 @@
         <v>43957</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7499,7 +7499,7 @@
         <v>43971</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>43991</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7618,7 +7618,7 @@
         <v>44064</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7675,7 +7675,7 @@
         <v>44104</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7732,7 +7732,7 @@
         <v>44105</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7794,7 +7794,7 @@
         <v>44110</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7851,7 +7851,7 @@
         <v>44110</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7908,7 +7908,7 @@
         <v>44110</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7970,7 +7970,7 @@
         <v>44110</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>44118</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8094,7 +8094,7 @@
         <v>44120</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8156,7 +8156,7 @@
         <v>44120</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8218,7 +8218,7 @@
         <v>44132</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8275,7 +8275,7 @@
         <v>44145</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8332,7 +8332,7 @@
         <v>44147</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8389,7 +8389,7 @@
         <v>44154</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8446,7 +8446,7 @@
         <v>44167</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8503,7 +8503,7 @@
         <v>44168</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8560,7 +8560,7 @@
         <v>44172</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8617,7 +8617,7 @@
         <v>44174</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8674,7 +8674,7 @@
         <v>44203</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8736,7 +8736,7 @@
         <v>44222</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8793,7 +8793,7 @@
         <v>44228</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8850,7 +8850,7 @@
         <v>44244</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8907,7 +8907,7 @@
         <v>44274</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8964,7 +8964,7 @@
         <v>44279</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9021,7 +9021,7 @@
         <v>44280</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9078,7 +9078,7 @@
         <v>44280</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9135,7 +9135,7 @@
         <v>44286</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9192,7 +9192,7 @@
         <v>44287</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9254,7 +9254,7 @@
         <v>44293</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9311,7 +9311,7 @@
         <v>44293</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9373,7 +9373,7 @@
         <v>44298</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9430,7 +9430,7 @@
         <v>44299</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9487,7 +9487,7 @@
         <v>44305</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>44306</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>44308</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>44319</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>44337</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>44341</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>44361</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9886,7 +9886,7 @@
         <v>44376</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9943,7 +9943,7 @@
         <v>44377</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10005,7 +10005,7 @@
         <v>44379</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10062,7 +10062,7 @@
         <v>44379</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10119,7 +10119,7 @@
         <v>44384</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10176,7 +10176,7 @@
         <v>44384</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10233,7 +10233,7 @@
         <v>44384</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10290,7 +10290,7 @@
         <v>44389</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10347,7 +10347,7 @@
         <v>44389</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10404,7 +10404,7 @@
         <v>44393</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10461,7 +10461,7 @@
         <v>44393</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10518,7 +10518,7 @@
         <v>44399</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10575,7 +10575,7 @@
         <v>44399</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10637,7 +10637,7 @@
         <v>44417</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10694,7 +10694,7 @@
         <v>44420</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10751,7 +10751,7 @@
         <v>44426</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10808,7 +10808,7 @@
         <v>44427</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10865,7 +10865,7 @@
         <v>44433</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10922,7 +10922,7 @@
         <v>44434</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10979,7 +10979,7 @@
         <v>44438</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11041,7 +11041,7 @@
         <v>44438</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11103,7 +11103,7 @@
         <v>44438</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11165,7 +11165,7 @@
         <v>44439</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11222,7 +11222,7 @@
         <v>44441</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11279,7 +11279,7 @@
         <v>44452</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11336,7 +11336,7 @@
         <v>44452</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11393,7 +11393,7 @@
         <v>44452</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11450,7 +11450,7 @@
         <v>44452</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11507,7 +11507,7 @@
         <v>44454</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11564,7 +11564,7 @@
         <v>44461</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11621,7 +11621,7 @@
         <v>44466</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11678,7 +11678,7 @@
         <v>44466</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11735,7 +11735,7 @@
         <v>44467</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11792,7 +11792,7 @@
         <v>44468</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11849,7 +11849,7 @@
         <v>44475</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11911,7 +11911,7 @@
         <v>44475</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11973,7 +11973,7 @@
         <v>44487</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12030,7 +12030,7 @@
         <v>44487</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>44488</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>44488</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>44493</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>44494</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12315,7 +12315,7 @@
         <v>44494</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         <v>44494</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         <v>44494</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12506,7 +12506,7 @@
         <v>44494</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12563,7 +12563,7 @@
         <v>44495</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         <v>44496</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>44497</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12734,7 +12734,7 @@
         <v>44500</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>44505</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12848,7 +12848,7 @@
         <v>44510</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>44524</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         <v>44529</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         <v>44547</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>44550</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>44550</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44565</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13252,7 +13252,7 @@
         <v>44575</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
         <v>44579</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13366,7 +13366,7 @@
         <v>44587</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13423,7 +13423,7 @@
         <v>44588</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13480,7 +13480,7 @@
         <v>44592</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13537,7 +13537,7 @@
         <v>44601</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13594,7 +13594,7 @@
         <v>44610</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13651,7 +13651,7 @@
         <v>44623</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13708,7 +13708,7 @@
         <v>44624</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13765,7 +13765,7 @@
         <v>44670</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13822,7 +13822,7 @@
         <v>44673</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13879,7 +13879,7 @@
         <v>44675</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13936,7 +13936,7 @@
         <v>44705</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13993,7 +13993,7 @@
         <v>44713</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14055,7 +14055,7 @@
         <v>44717</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14112,7 +14112,7 @@
         <v>44728</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14169,7 +14169,7 @@
         <v>44733</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14226,7 +14226,7 @@
         <v>44733</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14283,7 +14283,7 @@
         <v>44741</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14340,7 +14340,7 @@
         <v>44755</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14397,7 +14397,7 @@
         <v>44755</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14454,7 +14454,7 @@
         <v>44781</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14511,7 +14511,7 @@
         <v>44781</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14568,7 +14568,7 @@
         <v>44788</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14625,7 +14625,7 @@
         <v>44792</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14682,7 +14682,7 @@
         <v>44792</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14739,7 +14739,7 @@
         <v>44798</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14796,7 +14796,7 @@
         <v>44799</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14858,7 +14858,7 @@
         <v>44799</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14915,7 +14915,7 @@
         <v>44799</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14977,7 +14977,7 @@
         <v>44799</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15039,7 +15039,7 @@
         <v>44804</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15096,7 +15096,7 @@
         <v>44805</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15153,7 +15153,7 @@
         <v>44812</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15215,7 +15215,7 @@
         <v>44820</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15272,7 +15272,7 @@
         <v>44820</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15334,7 +15334,7 @@
         <v>44830</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15391,7 +15391,7 @@
         <v>44830</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15448,7 +15448,7 @@
         <v>44832</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15505,7 +15505,7 @@
         <v>44832</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         <v>44837</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15619,7 +15619,7 @@
         <v>44837</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15676,7 +15676,7 @@
         <v>44869</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15733,7 +15733,7 @@
         <v>44879</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15795,7 +15795,7 @@
         <v>44886</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15852,7 +15852,7 @@
         <v>44887</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15909,7 +15909,7 @@
         <v>44889</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15966,7 +15966,7 @@
         <v>44900</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16023,7 +16023,7 @@
         <v>44908</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16080,7 +16080,7 @@
         <v>44911</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16137,7 +16137,7 @@
         <v>44935</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16199,7 +16199,7 @@
         <v>44935</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16256,7 +16256,7 @@
         <v>44950</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16313,7 +16313,7 @@
         <v>44951</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16370,7 +16370,7 @@
         <v>44958</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16432,7 +16432,7 @@
         <v>44972</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16489,7 +16489,7 @@
         <v>44977</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16546,7 +16546,7 @@
         <v>44977</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16603,7 +16603,7 @@
         <v>44981</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16660,7 +16660,7 @@
         <v>44987</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16717,7 +16717,7 @@
         <v>44988</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16794,7 +16794,7 @@
         <v>44992</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16851,7 +16851,7 @@
         <v>44992</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16908,7 +16908,7 @@
         <v>44992</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16965,7 +16965,7 @@
         <v>44999</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17027,7 +17027,7 @@
         <v>44999</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17089,7 +17089,7 @@
         <v>45008</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         <v>45015</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>45016</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17260,7 +17260,7 @@
         <v>45016</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17317,7 +17317,7 @@
         <v>45021</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17379,7 +17379,7 @@
         <v>45027</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17436,7 +17436,7 @@
         <v>45036</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17493,7 +17493,7 @@
         <v>45036</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17550,7 +17550,7 @@
         <v>45036</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17607,7 +17607,7 @@
         <v>45036</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17664,7 +17664,7 @@
         <v>45044</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17721,7 +17721,7 @@
         <v>45044</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17778,7 +17778,7 @@
         <v>45049</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17840,7 +17840,7 @@
         <v>45054</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17902,7 +17902,7 @@
         <v>45054</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17964,7 +17964,7 @@
         <v>45054</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18021,7 +18021,7 @@
         <v>45054</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18078,7 +18078,7 @@
         <v>45054</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18135,7 +18135,7 @@
         <v>45056</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18197,7 +18197,7 @@
         <v>45062</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18254,7 +18254,7 @@
         <v>45068</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18311,7 +18311,7 @@
         <v>45076</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18368,7 +18368,7 @@
         <v>45079</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18425,7 +18425,7 @@
         <v>45079</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18482,7 +18482,7 @@
         <v>45096</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18539,7 +18539,7 @@
         <v>45097</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18596,7 +18596,7 @@
         <v>45099</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18653,7 +18653,7 @@
         <v>45099</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18710,7 +18710,7 @@
         <v>45105</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18772,7 +18772,7 @@
         <v>45110</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18829,7 +18829,7 @@
         <v>45110</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18886,7 +18886,7 @@
         <v>45110</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18943,7 +18943,7 @@
         <v>45116</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19000,7 +19000,7 @@
         <v>45117</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19057,7 +19057,7 @@
         <v>45117</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19114,7 +19114,7 @@
         <v>45139</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19171,7 +19171,7 @@
         <v>45140</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19228,7 +19228,7 @@
         <v>45146</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19285,7 +19285,7 @@
         <v>45173</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>

--- a/Översikt BORLÄNGE.xlsx
+++ b/Översikt BORLÄNGE.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y300"/>
+  <dimension ref="A1:Y301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44512</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44887</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>44552</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         <v>44494</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         <v>45069</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
         <v>44274</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>44824</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1222,7 +1222,7 @@
         <v>45028</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>43544</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
         <v>43781</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>44599</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>45072</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         <v>43431</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
         <v>43811</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>44420</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1928,7 +1928,7 @@
         <v>44453</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>44463</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2109,7 +2109,7 @@
         <v>44505</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>44874</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2285,7 +2285,7 @@
         <v>44908</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>44996</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2461,7 +2461,7 @@
         <v>44999</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>45068</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>45074</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>45117</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2809,7 +2809,7 @@
         <v>43409</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>43434</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2979,7 +2979,7 @@
         <v>43441</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
         <v>43544</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3153,7 +3153,7 @@
         <v>43969</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3243,7 +3243,7 @@
         <v>44362</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
         <v>44410</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3413,7 +3413,7 @@
         <v>44426</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3498,7 +3498,7 @@
         <v>44454</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3583,7 +3583,7 @@
         <v>44470</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3668,7 +3668,7 @@
         <v>44473</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
         <v>44603</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
         <v>44705</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>44798</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4017,7 +4017,7 @@
         <v>44798</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>44897</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
         <v>44931</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>45036</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4361,7 +4361,7 @@
         <v>45040</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4446,7 +4446,7 @@
         <v>45061</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4535,7 +4535,7 @@
         <v>45062</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>45072</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4710,7 +4710,7 @@
         <v>45090</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         <v>43432</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>43447</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>43448</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>43452</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>43453</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>43455</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>43461</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5199,7 +5199,7 @@
         <v>43473</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>43473</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>43486</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>43507</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>43544</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         <v>43544</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
         <v>43544</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>43550</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>43556</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>43581</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>43601</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>43606</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43613</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>43614</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>43614</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>43614</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43630</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43642</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>43648</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         <v>43649</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6354,7 +6354,7 @@
         <v>43660</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6411,7 +6411,7 @@
         <v>43704</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>43704</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>43707</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>43739</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>43767</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>43768</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>43783</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>43803</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>43808</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
         <v>43812</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         <v>43893</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7038,7 +7038,7 @@
         <v>43902</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7095,7 +7095,7 @@
         <v>43909</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7152,7 +7152,7 @@
         <v>43918</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>43927</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>43938</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         <v>43941</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>43948</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7442,7 +7442,7 @@
         <v>43957</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7499,7 +7499,7 @@
         <v>43971</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>43991</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7618,7 +7618,7 @@
         <v>44064</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7675,7 +7675,7 @@
         <v>44104</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7732,7 +7732,7 @@
         <v>44105</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7794,7 +7794,7 @@
         <v>44110</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7851,7 +7851,7 @@
         <v>44110</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7908,7 +7908,7 @@
         <v>44110</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7970,7 +7970,7 @@
         <v>44110</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>44118</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8094,7 +8094,7 @@
         <v>44120</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8156,7 +8156,7 @@
         <v>44120</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8218,7 +8218,7 @@
         <v>44132</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8275,7 +8275,7 @@
         <v>44145</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8332,7 +8332,7 @@
         <v>44147</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8389,7 +8389,7 @@
         <v>44154</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8446,7 +8446,7 @@
         <v>44167</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8503,7 +8503,7 @@
         <v>44168</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8560,7 +8560,7 @@
         <v>44172</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8617,7 +8617,7 @@
         <v>44174</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8674,7 +8674,7 @@
         <v>44203</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8736,7 +8736,7 @@
         <v>44222</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8793,7 +8793,7 @@
         <v>44228</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8850,7 +8850,7 @@
         <v>44244</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8907,7 +8907,7 @@
         <v>44274</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8964,7 +8964,7 @@
         <v>44279</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9021,7 +9021,7 @@
         <v>44280</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9078,7 +9078,7 @@
         <v>44280</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9135,7 +9135,7 @@
         <v>44286</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9192,7 +9192,7 @@
         <v>44287</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9254,7 +9254,7 @@
         <v>44293</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9311,7 +9311,7 @@
         <v>44293</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9373,7 +9373,7 @@
         <v>44298</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9430,7 +9430,7 @@
         <v>44299</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9487,7 +9487,7 @@
         <v>44305</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>44306</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>44308</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>44319</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>44337</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>44341</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>44361</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9886,7 +9886,7 @@
         <v>44376</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9943,7 +9943,7 @@
         <v>44377</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10005,7 +10005,7 @@
         <v>44379</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10062,7 +10062,7 @@
         <v>44379</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10119,7 +10119,7 @@
         <v>44384</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10176,7 +10176,7 @@
         <v>44384</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10233,7 +10233,7 @@
         <v>44384</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10290,7 +10290,7 @@
         <v>44389</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10347,7 +10347,7 @@
         <v>44389</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10404,7 +10404,7 @@
         <v>44393</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10461,7 +10461,7 @@
         <v>44393</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10518,7 +10518,7 @@
         <v>44399</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10575,7 +10575,7 @@
         <v>44399</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10637,7 +10637,7 @@
         <v>44417</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10694,7 +10694,7 @@
         <v>44420</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10751,7 +10751,7 @@
         <v>44426</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10808,7 +10808,7 @@
         <v>44427</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10865,7 +10865,7 @@
         <v>44433</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10922,7 +10922,7 @@
         <v>44434</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10979,7 +10979,7 @@
         <v>44438</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11041,7 +11041,7 @@
         <v>44438</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11103,7 +11103,7 @@
         <v>44438</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11165,7 +11165,7 @@
         <v>44439</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11222,7 +11222,7 @@
         <v>44441</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11279,7 +11279,7 @@
         <v>44452</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11336,7 +11336,7 @@
         <v>44452</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11393,7 +11393,7 @@
         <v>44452</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11450,7 +11450,7 @@
         <v>44452</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11507,7 +11507,7 @@
         <v>44454</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11564,7 +11564,7 @@
         <v>44461</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11621,7 +11621,7 @@
         <v>44466</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11678,7 +11678,7 @@
         <v>44466</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11735,7 +11735,7 @@
         <v>44467</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11792,7 +11792,7 @@
         <v>44468</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11849,7 +11849,7 @@
         <v>44475</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11911,7 +11911,7 @@
         <v>44475</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11973,7 +11973,7 @@
         <v>44487</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12030,7 +12030,7 @@
         <v>44487</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>44488</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>44488</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>44493</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>44494</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12315,7 +12315,7 @@
         <v>44494</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         <v>44494</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         <v>44494</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12506,7 +12506,7 @@
         <v>44494</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12563,7 +12563,7 @@
         <v>44495</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         <v>44496</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>44497</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12734,7 +12734,7 @@
         <v>44500</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>44505</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12848,7 +12848,7 @@
         <v>44510</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>44524</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         <v>44529</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         <v>44547</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>44550</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>44550</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44565</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13252,7 +13252,7 @@
         <v>44575</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
         <v>44579</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13366,7 +13366,7 @@
         <v>44587</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13423,7 +13423,7 @@
         <v>44588</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13480,7 +13480,7 @@
         <v>44592</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13537,7 +13537,7 @@
         <v>44601</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13594,7 +13594,7 @@
         <v>44610</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13651,7 +13651,7 @@
         <v>44623</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13708,7 +13708,7 @@
         <v>44624</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13765,7 +13765,7 @@
         <v>44670</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13822,7 +13822,7 @@
         <v>44673</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13879,7 +13879,7 @@
         <v>44675</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13936,7 +13936,7 @@
         <v>44705</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13993,7 +13993,7 @@
         <v>44713</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14055,7 +14055,7 @@
         <v>44717</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14112,7 +14112,7 @@
         <v>44728</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14169,7 +14169,7 @@
         <v>44733</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14226,7 +14226,7 @@
         <v>44733</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14283,7 +14283,7 @@
         <v>44741</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14340,7 +14340,7 @@
         <v>44755</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14397,7 +14397,7 @@
         <v>44755</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14454,7 +14454,7 @@
         <v>44781</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14511,7 +14511,7 @@
         <v>44781</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14568,7 +14568,7 @@
         <v>44788</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14625,7 +14625,7 @@
         <v>44792</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14682,7 +14682,7 @@
         <v>44792</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14739,7 +14739,7 @@
         <v>44798</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14796,7 +14796,7 @@
         <v>44799</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14858,7 +14858,7 @@
         <v>44799</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14915,7 +14915,7 @@
         <v>44799</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14977,7 +14977,7 @@
         <v>44799</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15039,7 +15039,7 @@
         <v>44804</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15096,7 +15096,7 @@
         <v>44805</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15153,7 +15153,7 @@
         <v>44812</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15215,7 +15215,7 @@
         <v>44820</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15272,7 +15272,7 @@
         <v>44820</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15334,7 +15334,7 @@
         <v>44830</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15391,7 +15391,7 @@
         <v>44830</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15448,7 +15448,7 @@
         <v>44832</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15505,7 +15505,7 @@
         <v>44832</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         <v>44837</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15619,7 +15619,7 @@
         <v>44837</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15676,7 +15676,7 @@
         <v>44869</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15733,7 +15733,7 @@
         <v>44879</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15795,7 +15795,7 @@
         <v>44886</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15852,7 +15852,7 @@
         <v>44887</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15909,7 +15909,7 @@
         <v>44889</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15966,7 +15966,7 @@
         <v>44900</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16023,7 +16023,7 @@
         <v>44908</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16080,7 +16080,7 @@
         <v>44911</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16137,7 +16137,7 @@
         <v>44935</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16199,7 +16199,7 @@
         <v>44935</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16256,7 +16256,7 @@
         <v>44950</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16313,7 +16313,7 @@
         <v>44951</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16370,7 +16370,7 @@
         <v>44958</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16432,7 +16432,7 @@
         <v>44972</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16489,7 +16489,7 @@
         <v>44977</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16546,7 +16546,7 @@
         <v>44977</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16603,7 +16603,7 @@
         <v>44981</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16660,7 +16660,7 @@
         <v>44987</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16717,7 +16717,7 @@
         <v>44988</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16794,7 +16794,7 @@
         <v>44992</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16851,7 +16851,7 @@
         <v>44992</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16908,7 +16908,7 @@
         <v>44992</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16965,7 +16965,7 @@
         <v>44999</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17027,7 +17027,7 @@
         <v>44999</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17089,7 +17089,7 @@
         <v>45008</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         <v>45015</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>45016</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17260,7 +17260,7 @@
         <v>45016</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17317,7 +17317,7 @@
         <v>45021</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17379,7 +17379,7 @@
         <v>45027</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17436,7 +17436,7 @@
         <v>45036</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17493,7 +17493,7 @@
         <v>45036</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17550,7 +17550,7 @@
         <v>45036</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17607,7 +17607,7 @@
         <v>45036</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17664,7 +17664,7 @@
         <v>45044</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17721,7 +17721,7 @@
         <v>45044</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17778,7 +17778,7 @@
         <v>45049</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17840,7 +17840,7 @@
         <v>45054</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17902,7 +17902,7 @@
         <v>45054</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17964,7 +17964,7 @@
         <v>45054</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18021,7 +18021,7 @@
         <v>45054</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18078,7 +18078,7 @@
         <v>45054</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18135,7 +18135,7 @@
         <v>45056</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18197,7 +18197,7 @@
         <v>45062</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18254,7 +18254,7 @@
         <v>45068</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18311,7 +18311,7 @@
         <v>45076</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18368,7 +18368,7 @@
         <v>45079</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18425,7 +18425,7 @@
         <v>45079</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18482,7 +18482,7 @@
         <v>45096</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18539,7 +18539,7 @@
         <v>45097</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18596,7 +18596,7 @@
         <v>45099</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18653,7 +18653,7 @@
         <v>45099</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18710,7 +18710,7 @@
         <v>45105</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18772,7 +18772,7 @@
         <v>45110</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18829,7 +18829,7 @@
         <v>45110</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18886,7 +18886,7 @@
         <v>45110</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18943,7 +18943,7 @@
         <v>45116</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19000,7 +19000,7 @@
         <v>45117</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19057,7 +19057,7 @@
         <v>45117</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19114,7 +19114,7 @@
         <v>45139</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19171,7 +19171,7 @@
         <v>45140</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19228,7 +19228,7 @@
         <v>45146</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19275,7 +19275,7 @@
       </c>
       <c r="R299" s="2" t="inlineStr"/>
     </row>
-    <row r="300">
+    <row r="300" ht="15" customHeight="1">
       <c r="A300" t="inlineStr">
         <is>
           <t>A 40954-2023</t>
@@ -19285,7 +19285,7 @@
         <v>45173</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19331,6 +19331,63 @@
         <v>0</v>
       </c>
       <c r="R300" s="2" t="inlineStr"/>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>A 42986-2023</t>
+        </is>
+      </c>
+      <c r="B301" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="C301" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>BORLÄNGE</t>
+        </is>
+      </c>
+      <c r="G301" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H301" t="n">
+        <v>0</v>
+      </c>
+      <c r="I301" t="n">
+        <v>0</v>
+      </c>
+      <c r="J301" t="n">
+        <v>0</v>
+      </c>
+      <c r="K301" t="n">
+        <v>0</v>
+      </c>
+      <c r="L301" t="n">
+        <v>0</v>
+      </c>
+      <c r="M301" t="n">
+        <v>0</v>
+      </c>
+      <c r="N301" t="n">
+        <v>0</v>
+      </c>
+      <c r="O301" t="n">
+        <v>0</v>
+      </c>
+      <c r="P301" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q301" t="n">
+        <v>0</v>
+      </c>
+      <c r="R301" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt BORLÄNGE.xlsx
+++ b/Översikt BORLÄNGE.xlsx
@@ -572,7 +572,7 @@
         <v>44512</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -633,27 +633,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 64675-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 64675-2021.xlsx", "A 64675-2021")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 64675-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 64675-2021.png", "A 64675-2021")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 64675-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 64675-2021.docx", "A 64675-2021")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 64675-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 64675-2021.docx", "A 64675-2021")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 64675-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 64675-2021.docx", "A 64675-2021")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 64675-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 64675-2021.docx", "A 64675-2021")</f>
         <v/>
       </c>
     </row>
@@ -667,7 +667,7 @@
         <v>44887</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -726,31 +726,31 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 55504-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 55504-2022.xlsx", "A 55504-2022")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 55504-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 55504-2022.png", "A 55504-2022")</f>
         <v/>
       </c>
       <c r="U3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/knärot/A 55504-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/knärot/A 55504-2022.png", "A 55504-2022")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 55504-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 55504-2022.docx", "A 55504-2022")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 55504-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 55504-2022.docx", "A 55504-2022")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 55504-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 55504-2022.docx", "A 55504-2022")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 55504-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 55504-2022.docx", "A 55504-2022")</f>
         <v/>
       </c>
     </row>
@@ -764,7 +764,7 @@
         <v>44552</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -822,27 +822,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 73613-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 73613-2021.xlsx", "A 73613-2021")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 73613-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 73613-2021.png", "A 73613-2021")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 73613-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 73613-2021.docx", "A 73613-2021")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 73613-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 73613-2021.docx", "A 73613-2021")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 73613-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 73613-2021.docx", "A 73613-2021")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 73613-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 73613-2021.docx", "A 73613-2021")</f>
         <v/>
       </c>
     </row>
@@ -856,7 +856,7 @@
         <v>44494</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -911,31 +911,31 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 59728-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 59728-2021.xlsx", "A 59728-2021")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 59728-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 59728-2021.png", "A 59728-2021")</f>
         <v/>
       </c>
       <c r="U5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/knärot/A 59728-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/knärot/A 59728-2021.png", "A 59728-2021")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 59728-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 59728-2021.docx", "A 59728-2021")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 59728-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 59728-2021.docx", "A 59728-2021")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 59728-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 59728-2021.docx", "A 59728-2021")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 59728-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 59728-2021.docx", "A 59728-2021")</f>
         <v/>
       </c>
     </row>
@@ -949,7 +949,7 @@
         <v>45069</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1004,31 +1004,31 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 22181-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 22181-2023.xlsx", "A 22181-2023")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 22181-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 22181-2023.png", "A 22181-2023")</f>
         <v/>
       </c>
       <c r="U6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/knärot/A 22181-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/knärot/A 22181-2023.png", "A 22181-2023")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 22181-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 22181-2023.docx", "A 22181-2023")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 22181-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 22181-2023.docx", "A 22181-2023")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 22181-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 22181-2023.docx", "A 22181-2023")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 22181-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 22181-2023.docx", "A 22181-2023")</f>
         <v/>
       </c>
     </row>
@@ -1042,7 +1042,7 @@
         <v>44274</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1096,27 +1096,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 13707-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 13707-2021.xlsx", "A 13707-2021")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 13707-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 13707-2021.png", "A 13707-2021")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 13707-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 13707-2021.docx", "A 13707-2021")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 13707-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 13707-2021.docx", "A 13707-2021")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 13707-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 13707-2021.docx", "A 13707-2021")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 13707-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 13707-2021.docx", "A 13707-2021")</f>
         <v/>
       </c>
     </row>
@@ -1130,7 +1130,7 @@
         <v>44824</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1184,31 +1184,31 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 40633-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 40633-2022.xlsx", "A 40633-2022")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 40633-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 40633-2022.png", "A 40633-2022")</f>
         <v/>
       </c>
       <c r="U8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/knärot/A 40633-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/knärot/A 40633-2022.png", "A 40633-2022")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 40633-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 40633-2022.docx", "A 40633-2022")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 40633-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 40633-2022.docx", "A 40633-2022")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 40633-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 40633-2022.docx", "A 40633-2022")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 40633-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 40633-2022.docx", "A 40633-2022")</f>
         <v/>
       </c>
     </row>
@@ -1222,7 +1222,7 @@
         <v>45028</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1276,31 +1276,31 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 16246-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 16246-2023.xlsx", "A 16246-2023")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 16246-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 16246-2023.png", "A 16246-2023")</f>
         <v/>
       </c>
       <c r="U9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/knärot/A 16246-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/knärot/A 16246-2023.png", "A 16246-2023")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 16246-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 16246-2023.docx", "A 16246-2023")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 16246-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 16246-2023.docx", "A 16246-2023")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 16246-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 16246-2023.docx", "A 16246-2023")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 16246-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 16246-2023.docx", "A 16246-2023")</f>
         <v/>
       </c>
     </row>
@@ -1314,7 +1314,7 @@
         <v>43544</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1367,27 +1367,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 16084-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 16084-2019.xlsx", "A 16084-2019")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 16084-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 16084-2019.png", "A 16084-2019")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 16084-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 16084-2019.docx", "A 16084-2019")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 16084-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 16084-2019.docx", "A 16084-2019")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 16084-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 16084-2019.docx", "A 16084-2019")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 16084-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 16084-2019.docx", "A 16084-2019")</f>
         <v/>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
         <v>43781</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1454,27 +1454,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 66569-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 66569-2019.xlsx", "A 66569-2019")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 66569-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 66569-2019.png", "A 66569-2019")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 66569-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 66569-2019.docx", "A 66569-2019")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 66569-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 66569-2019.docx", "A 66569-2019")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 66569-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 66569-2019.docx", "A 66569-2019")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 66569-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 66569-2019.docx", "A 66569-2019")</f>
         <v/>
       </c>
     </row>
@@ -1488,7 +1488,7 @@
         <v>44599</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1541,27 +1541,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 6094-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 6094-2022.xlsx", "A 6094-2022")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 6094-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 6094-2022.png", "A 6094-2022")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 6094-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 6094-2022.docx", "A 6094-2022")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 6094-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 6094-2022.docx", "A 6094-2022")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 6094-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 6094-2022.docx", "A 6094-2022")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 6094-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 6094-2022.docx", "A 6094-2022")</f>
         <v/>
       </c>
     </row>
@@ -1575,7 +1575,7 @@
         <v>45072</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1628,31 +1628,31 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 22913-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 22913-2023.xlsx", "A 22913-2023")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 22913-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 22913-2023.png", "A 22913-2023")</f>
         <v/>
       </c>
       <c r="U13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/knärot/A 22913-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/knärot/A 22913-2023.png", "A 22913-2023")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 22913-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 22913-2023.docx", "A 22913-2023")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 22913-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 22913-2023.docx", "A 22913-2023")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 22913-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 22913-2023.docx", "A 22913-2023")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 22913-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 22913-2023.docx", "A 22913-2023")</f>
         <v/>
       </c>
     </row>
@@ -1666,7 +1666,7 @@
         <v>43431</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1718,27 +1718,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 66895-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 66895-2018.xlsx", "A 66895-2018")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 66895-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 66895-2018.png", "A 66895-2018")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 66895-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 66895-2018.docx", "A 66895-2018")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 66895-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 66895-2018.docx", "A 66895-2018")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 66895-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 66895-2018.docx", "A 66895-2018")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 66895-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 66895-2018.docx", "A 66895-2018")</f>
         <v/>
       </c>
     </row>
@@ -1752,7 +1752,7 @@
         <v>43811</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1804,27 +1804,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 67989-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 67989-2019.xlsx", "A 67989-2019")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 67989-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 67989-2019.png", "A 67989-2019")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 67989-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 67989-2019.docx", "A 67989-2019")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 67989-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 67989-2019.docx", "A 67989-2019")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 67989-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 67989-2019.docx", "A 67989-2019")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 67989-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 67989-2019.docx", "A 67989-2019")</f>
         <v/>
       </c>
     </row>
@@ -1838,7 +1838,7 @@
         <v>44420</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1890,31 +1890,31 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 40578-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 40578-2021.xlsx", "A 40578-2021")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 40578-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 40578-2021.png", "A 40578-2021")</f>
         <v/>
       </c>
       <c r="U16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/knärot/A 40578-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/knärot/A 40578-2021.png", "A 40578-2021")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 40578-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 40578-2021.docx", "A 40578-2021")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 40578-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 40578-2021.docx", "A 40578-2021")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 40578-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 40578-2021.docx", "A 40578-2021")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 40578-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 40578-2021.docx", "A 40578-2021")</f>
         <v/>
       </c>
     </row>
@@ -1928,7 +1928,7 @@
         <v>44453</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1980,31 +1980,31 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 48937-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 48937-2021.xlsx", "A 48937-2021")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 48937-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 48937-2021.png", "A 48937-2021")</f>
         <v/>
       </c>
       <c r="U17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/knärot/A 48937-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/knärot/A 48937-2021.png", "A 48937-2021")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 48937-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 48937-2021.docx", "A 48937-2021")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 48937-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 48937-2021.docx", "A 48937-2021")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 48937-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 48937-2021.docx", "A 48937-2021")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 48937-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 48937-2021.docx", "A 48937-2021")</f>
         <v/>
       </c>
     </row>
@@ -2018,7 +2018,7 @@
         <v>44463</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2075,27 +2075,27 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 51992-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 51992-2021.xlsx", "A 51992-2021")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 51992-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 51992-2021.png", "A 51992-2021")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 51992-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 51992-2021.docx", "A 51992-2021")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 51992-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 51992-2021.docx", "A 51992-2021")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 51992-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 51992-2021.docx", "A 51992-2021")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 51992-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 51992-2021.docx", "A 51992-2021")</f>
         <v/>
       </c>
     </row>
@@ -2109,7 +2109,7 @@
         <v>44505</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2161,31 +2161,31 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 63118-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 63118-2021.xlsx", "A 63118-2021")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 63118-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 63118-2021.png", "A 63118-2021")</f>
         <v/>
       </c>
       <c r="U19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/knärot/A 63118-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/knärot/A 63118-2021.png", "A 63118-2021")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 63118-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 63118-2021.docx", "A 63118-2021")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 63118-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 63118-2021.docx", "A 63118-2021")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 63118-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 63118-2021.docx", "A 63118-2021")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 63118-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 63118-2021.docx", "A 63118-2021")</f>
         <v/>
       </c>
     </row>
@@ -2199,7 +2199,7 @@
         <v>44874</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2251,27 +2251,27 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 52510-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 52510-2022.xlsx", "A 52510-2022")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 52510-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 52510-2022.png", "A 52510-2022")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 52510-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 52510-2022.docx", "A 52510-2022")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 52510-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 52510-2022.docx", "A 52510-2022")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 52510-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 52510-2022.docx", "A 52510-2022")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 52510-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 52510-2022.docx", "A 52510-2022")</f>
         <v/>
       </c>
     </row>
@@ -2285,7 +2285,7 @@
         <v>44908</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2337,31 +2337,31 @@
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 59665-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 59665-2022.xlsx", "A 59665-2022")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 59665-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 59665-2022.png", "A 59665-2022")</f>
         <v/>
       </c>
       <c r="U21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/knärot/A 59665-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/knärot/A 59665-2022.png", "A 59665-2022")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 59665-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 59665-2022.docx", "A 59665-2022")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 59665-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 59665-2022.docx", "A 59665-2022")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 59665-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 59665-2022.docx", "A 59665-2022")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 59665-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 59665-2022.docx", "A 59665-2022")</f>
         <v/>
       </c>
     </row>
@@ -2375,7 +2375,7 @@
         <v>44996</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2427,27 +2427,27 @@
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 12314-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 12314-2023.xlsx", "A 12314-2023")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 12314-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 12314-2023.png", "A 12314-2023")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 12314-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 12314-2023.docx", "A 12314-2023")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 12314-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 12314-2023.docx", "A 12314-2023")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 12314-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 12314-2023.docx", "A 12314-2023")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 12314-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 12314-2023.docx", "A 12314-2023")</f>
         <v/>
       </c>
     </row>
@@ -2461,7 +2461,7 @@
         <v>44999</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2513,27 +2513,27 @@
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 12444-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 12444-2023.xlsx", "A 12444-2023")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 12444-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 12444-2023.png", "A 12444-2023")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 12444-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 12444-2023.docx", "A 12444-2023")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 12444-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 12444-2023.docx", "A 12444-2023")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 12444-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 12444-2023.docx", "A 12444-2023")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 12444-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 12444-2023.docx", "A 12444-2023")</f>
         <v/>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
         <v>45068</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2599,31 +2599,31 @@
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 21926-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 21926-2023.xlsx", "A 21926-2023")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 21926-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 21926-2023.png", "A 21926-2023")</f>
         <v/>
       </c>
       <c r="U24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/knärot/A 21926-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/knärot/A 21926-2023.png", "A 21926-2023")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 21926-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 21926-2023.docx", "A 21926-2023")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 21926-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 21926-2023.docx", "A 21926-2023")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 21926-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 21926-2023.docx", "A 21926-2023")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 21926-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 21926-2023.docx", "A 21926-2023")</f>
         <v/>
       </c>
     </row>
@@ -2637,7 +2637,7 @@
         <v>45074</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2689,27 +2689,27 @@
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 23652-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 23652-2023.xlsx", "A 23652-2023")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 23652-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 23652-2023.png", "A 23652-2023")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 23652-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 23652-2023.docx", "A 23652-2023")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 23652-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 23652-2023.docx", "A 23652-2023")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 23652-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 23652-2023.docx", "A 23652-2023")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 23652-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 23652-2023.docx", "A 23652-2023")</f>
         <v/>
       </c>
     </row>
@@ -2723,7 +2723,7 @@
         <v>45117</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2775,27 +2775,27 @@
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 31680-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 31680-2023.xlsx", "A 31680-2023")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 31680-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 31680-2023.png", "A 31680-2023")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 31680-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 31680-2023.docx", "A 31680-2023")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 31680-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 31680-2023.docx", "A 31680-2023")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 31680-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 31680-2023.docx", "A 31680-2023")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 31680-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 31680-2023.docx", "A 31680-2023")</f>
         <v/>
       </c>
     </row>
@@ -2809,7 +2809,7 @@
         <v>43409</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2860,27 +2860,27 @@
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 58399-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 58399-2018.xlsx", "A 58399-2018")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 58399-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 58399-2018.png", "A 58399-2018")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 58399-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 58399-2018.docx", "A 58399-2018")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 58399-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 58399-2018.docx", "A 58399-2018")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 58399-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 58399-2018.docx", "A 58399-2018")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 58399-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 58399-2018.docx", "A 58399-2018")</f>
         <v/>
       </c>
     </row>
@@ -2894,7 +2894,7 @@
         <v>43434</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2945,27 +2945,27 @@
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 66079-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 66079-2018.xlsx", "A 66079-2018")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 66079-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 66079-2018.png", "A 66079-2018")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 66079-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 66079-2018.docx", "A 66079-2018")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 66079-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 66079-2018.docx", "A 66079-2018")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 66079-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 66079-2018.docx", "A 66079-2018")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 66079-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 66079-2018.docx", "A 66079-2018")</f>
         <v/>
       </c>
     </row>
@@ -2979,7 +2979,7 @@
         <v>43441</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3030,27 +3030,27 @@
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 68272-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 68272-2018.xlsx", "A 68272-2018")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 68272-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 68272-2018.png", "A 68272-2018")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 68272-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 68272-2018.docx", "A 68272-2018")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 68272-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 68272-2018.docx", "A 68272-2018")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 68272-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 68272-2018.docx", "A 68272-2018")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 68272-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 68272-2018.docx", "A 68272-2018")</f>
         <v/>
       </c>
     </row>
@@ -3064,7 +3064,7 @@
         <v>43544</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3115,31 +3115,31 @@
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 16079-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 16079-2019.xlsx", "A 16079-2019")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 16079-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 16079-2019.png", "A 16079-2019")</f>
         <v/>
       </c>
       <c r="U30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/knärot/A 16079-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/knärot/A 16079-2019.png", "A 16079-2019")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 16079-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 16079-2019.docx", "A 16079-2019")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 16079-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 16079-2019.docx", "A 16079-2019")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 16079-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 16079-2019.docx", "A 16079-2019")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 16079-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 16079-2019.docx", "A 16079-2019")</f>
         <v/>
       </c>
     </row>
@@ -3153,7 +3153,7 @@
         <v>43969</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3209,27 +3209,27 @@
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 23553-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 23553-2020.xlsx", "A 23553-2020")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 23553-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 23553-2020.png", "A 23553-2020")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 23553-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 23553-2020.docx", "A 23553-2020")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 23553-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 23553-2020.docx", "A 23553-2020")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 23553-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 23553-2020.docx", "A 23553-2020")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 23553-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 23553-2020.docx", "A 23553-2020")</f>
         <v/>
       </c>
     </row>
@@ -3243,7 +3243,7 @@
         <v>44362</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3294,27 +3294,27 @@
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 29908-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 29908-2021.xlsx", "A 29908-2021")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 29908-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 29908-2021.png", "A 29908-2021")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 29908-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 29908-2021.docx", "A 29908-2021")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 29908-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 29908-2021.docx", "A 29908-2021")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 29908-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 29908-2021.docx", "A 29908-2021")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 29908-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 29908-2021.docx", "A 29908-2021")</f>
         <v/>
       </c>
     </row>
@@ -3328,7 +3328,7 @@
         <v>44410</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3379,27 +3379,27 @@
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 38708-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 38708-2021.xlsx", "A 38708-2021")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 38708-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 38708-2021.png", "A 38708-2021")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 38708-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 38708-2021.docx", "A 38708-2021")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 38708-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 38708-2021.docx", "A 38708-2021")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 38708-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 38708-2021.docx", "A 38708-2021")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 38708-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 38708-2021.docx", "A 38708-2021")</f>
         <v/>
       </c>
     </row>
@@ -3413,7 +3413,7 @@
         <v>44426</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3464,27 +3464,27 @@
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 41874-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 41874-2021.xlsx", "A 41874-2021")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 41874-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 41874-2021.png", "A 41874-2021")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 41874-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 41874-2021.docx", "A 41874-2021")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 41874-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 41874-2021.docx", "A 41874-2021")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 41874-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 41874-2021.docx", "A 41874-2021")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 41874-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 41874-2021.docx", "A 41874-2021")</f>
         <v/>
       </c>
     </row>
@@ -3498,7 +3498,7 @@
         <v>44454</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3549,27 +3549,27 @@
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 49776-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 49776-2021.xlsx", "A 49776-2021")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 49776-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 49776-2021.png", "A 49776-2021")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 49776-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 49776-2021.docx", "A 49776-2021")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 49776-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 49776-2021.docx", "A 49776-2021")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 49776-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 49776-2021.docx", "A 49776-2021")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 49776-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 49776-2021.docx", "A 49776-2021")</f>
         <v/>
       </c>
     </row>
@@ -3583,7 +3583,7 @@
         <v>44470</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3634,27 +3634,27 @@
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 54045-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 54045-2021.xlsx", "A 54045-2021")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 54045-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 54045-2021.png", "A 54045-2021")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 54045-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 54045-2021.docx", "A 54045-2021")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 54045-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 54045-2021.docx", "A 54045-2021")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 54045-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 54045-2021.docx", "A 54045-2021")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 54045-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 54045-2021.docx", "A 54045-2021")</f>
         <v/>
       </c>
     </row>
@@ -3668,7 +3668,7 @@
         <v>44473</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3724,31 +3724,31 @@
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 54699-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 54699-2021.xlsx", "A 54699-2021")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 54699-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 54699-2021.png", "A 54699-2021")</f>
         <v/>
       </c>
       <c r="U37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/knärot/A 54699-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/knärot/A 54699-2021.png", "A 54699-2021")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 54699-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 54699-2021.docx", "A 54699-2021")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 54699-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 54699-2021.docx", "A 54699-2021")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 54699-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 54699-2021.docx", "A 54699-2021")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 54699-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 54699-2021.docx", "A 54699-2021")</f>
         <v/>
       </c>
     </row>
@@ -3762,7 +3762,7 @@
         <v>44603</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3813,27 +3813,27 @@
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 6972-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 6972-2022.xlsx", "A 6972-2022")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 6972-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 6972-2022.png", "A 6972-2022")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 6972-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 6972-2022.docx", "A 6972-2022")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 6972-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 6972-2022.docx", "A 6972-2022")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 6972-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 6972-2022.docx", "A 6972-2022")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 6972-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 6972-2022.docx", "A 6972-2022")</f>
         <v/>
       </c>
     </row>
@@ -3847,7 +3847,7 @@
         <v>44705</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3898,27 +3898,27 @@
         </is>
       </c>
       <c r="S39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 21302-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 21302-2022.xlsx", "A 21302-2022")</f>
         <v/>
       </c>
       <c r="T39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 21302-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 21302-2022.png", "A 21302-2022")</f>
         <v/>
       </c>
       <c r="V39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 21302-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 21302-2022.docx", "A 21302-2022")</f>
         <v/>
       </c>
       <c r="W39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 21302-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 21302-2022.docx", "A 21302-2022")</f>
         <v/>
       </c>
       <c r="X39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 21302-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 21302-2022.docx", "A 21302-2022")</f>
         <v/>
       </c>
       <c r="Y39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 21302-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 21302-2022.docx", "A 21302-2022")</f>
         <v/>
       </c>
     </row>
@@ -3932,7 +3932,7 @@
         <v>44798</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3983,27 +3983,27 @@
         </is>
       </c>
       <c r="S40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 35370-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 35370-2022.xlsx", "A 35370-2022")</f>
         <v/>
       </c>
       <c r="T40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 35370-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 35370-2022.png", "A 35370-2022")</f>
         <v/>
       </c>
       <c r="V40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 35370-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 35370-2022.docx", "A 35370-2022")</f>
         <v/>
       </c>
       <c r="W40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 35370-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 35370-2022.docx", "A 35370-2022")</f>
         <v/>
       </c>
       <c r="X40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 35370-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 35370-2022.docx", "A 35370-2022")</f>
         <v/>
       </c>
       <c r="Y40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 35370-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 35370-2022.docx", "A 35370-2022")</f>
         <v/>
       </c>
     </row>
@@ -4017,7 +4017,7 @@
         <v>44798</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4068,27 +4068,27 @@
         </is>
       </c>
       <c r="S41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 35389-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 35389-2022.xlsx", "A 35389-2022")</f>
         <v/>
       </c>
       <c r="T41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 35389-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 35389-2022.png", "A 35389-2022")</f>
         <v/>
       </c>
       <c r="V41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 35389-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 35389-2022.docx", "A 35389-2022")</f>
         <v/>
       </c>
       <c r="W41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 35389-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 35389-2022.docx", "A 35389-2022")</f>
         <v/>
       </c>
       <c r="X41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 35389-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 35389-2022.docx", "A 35389-2022")</f>
         <v/>
       </c>
       <c r="Y41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 35389-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 35389-2022.docx", "A 35389-2022")</f>
         <v/>
       </c>
     </row>
@@ -4102,7 +4102,7 @@
         <v>44897</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4153,27 +4153,27 @@
         </is>
       </c>
       <c r="S42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 57693-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 57693-2022.xlsx", "A 57693-2022")</f>
         <v/>
       </c>
       <c r="T42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 57693-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 57693-2022.png", "A 57693-2022")</f>
         <v/>
       </c>
       <c r="V42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 57693-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 57693-2022.docx", "A 57693-2022")</f>
         <v/>
       </c>
       <c r="W42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 57693-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 57693-2022.docx", "A 57693-2022")</f>
         <v/>
       </c>
       <c r="X42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 57693-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 57693-2022.docx", "A 57693-2022")</f>
         <v/>
       </c>
       <c r="Y42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 57693-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 57693-2022.docx", "A 57693-2022")</f>
         <v/>
       </c>
     </row>
@@ -4187,7 +4187,7 @@
         <v>44931</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4238,31 +4238,31 @@
         </is>
       </c>
       <c r="S43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 865-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 865-2023.xlsx", "A 865-2023")</f>
         <v/>
       </c>
       <c r="T43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 865-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 865-2023.png", "A 865-2023")</f>
         <v/>
       </c>
       <c r="U43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/knärot/A 865-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/knärot/A 865-2023.png", "A 865-2023")</f>
         <v/>
       </c>
       <c r="V43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 865-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 865-2023.docx", "A 865-2023")</f>
         <v/>
       </c>
       <c r="W43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 865-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 865-2023.docx", "A 865-2023")</f>
         <v/>
       </c>
       <c r="X43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 865-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 865-2023.docx", "A 865-2023")</f>
         <v/>
       </c>
       <c r="Y43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 865-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 865-2023.docx", "A 865-2023")</f>
         <v/>
       </c>
     </row>
@@ -4276,7 +4276,7 @@
         <v>45036</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4327,27 +4327,27 @@
         </is>
       </c>
       <c r="S44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 17571-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 17571-2023.xlsx", "A 17571-2023")</f>
         <v/>
       </c>
       <c r="T44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 17571-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 17571-2023.png", "A 17571-2023")</f>
         <v/>
       </c>
       <c r="V44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 17571-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 17571-2023.docx", "A 17571-2023")</f>
         <v/>
       </c>
       <c r="W44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 17571-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 17571-2023.docx", "A 17571-2023")</f>
         <v/>
       </c>
       <c r="X44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 17571-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 17571-2023.docx", "A 17571-2023")</f>
         <v/>
       </c>
       <c r="Y44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 17571-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 17571-2023.docx", "A 17571-2023")</f>
         <v/>
       </c>
     </row>
@@ -4361,7 +4361,7 @@
         <v>45040</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4412,27 +4412,27 @@
         </is>
       </c>
       <c r="S45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 17913-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 17913-2023.xlsx", "A 17913-2023")</f>
         <v/>
       </c>
       <c r="T45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 17913-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 17913-2023.png", "A 17913-2023")</f>
         <v/>
       </c>
       <c r="V45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 17913-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 17913-2023.docx", "A 17913-2023")</f>
         <v/>
       </c>
       <c r="W45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 17913-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 17913-2023.docx", "A 17913-2023")</f>
         <v/>
       </c>
       <c r="X45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 17913-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 17913-2023.docx", "A 17913-2023")</f>
         <v/>
       </c>
       <c r="Y45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 17913-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 17913-2023.docx", "A 17913-2023")</f>
         <v/>
       </c>
     </row>
@@ -4446,7 +4446,7 @@
         <v>45061</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4497,31 +4497,31 @@
         </is>
       </c>
       <c r="S46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 20925-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 20925-2023.xlsx", "A 20925-2023")</f>
         <v/>
       </c>
       <c r="T46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 20925-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 20925-2023.png", "A 20925-2023")</f>
         <v/>
       </c>
       <c r="U46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/knärot/A 20925-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/knärot/A 20925-2023.png", "A 20925-2023")</f>
         <v/>
       </c>
       <c r="V46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 20925-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 20925-2023.docx", "A 20925-2023")</f>
         <v/>
       </c>
       <c r="W46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 20925-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 20925-2023.docx", "A 20925-2023")</f>
         <v/>
       </c>
       <c r="X46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 20925-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 20925-2023.docx", "A 20925-2023")</f>
         <v/>
       </c>
       <c r="Y46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 20925-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 20925-2023.docx", "A 20925-2023")</f>
         <v/>
       </c>
     </row>
@@ -4535,7 +4535,7 @@
         <v>45062</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4586,27 +4586,27 @@
         </is>
       </c>
       <c r="S47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 21131-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 21131-2023.xlsx", "A 21131-2023")</f>
         <v/>
       </c>
       <c r="T47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 21131-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 21131-2023.png", "A 21131-2023")</f>
         <v/>
       </c>
       <c r="V47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 21131-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 21131-2023.docx", "A 21131-2023")</f>
         <v/>
       </c>
       <c r="W47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 21131-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 21131-2023.docx", "A 21131-2023")</f>
         <v/>
       </c>
       <c r="X47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 21131-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 21131-2023.docx", "A 21131-2023")</f>
         <v/>
       </c>
       <c r="Y47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 21131-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 21131-2023.docx", "A 21131-2023")</f>
         <v/>
       </c>
     </row>
@@ -4620,7 +4620,7 @@
         <v>45072</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4676,27 +4676,27 @@
         </is>
       </c>
       <c r="S48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 22900-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 22900-2023.xlsx", "A 22900-2023")</f>
         <v/>
       </c>
       <c r="T48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 22900-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 22900-2023.png", "A 22900-2023")</f>
         <v/>
       </c>
       <c r="V48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 22900-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 22900-2023.docx", "A 22900-2023")</f>
         <v/>
       </c>
       <c r="W48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 22900-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 22900-2023.docx", "A 22900-2023")</f>
         <v/>
       </c>
       <c r="X48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 22900-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 22900-2023.docx", "A 22900-2023")</f>
         <v/>
       </c>
       <c r="Y48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 22900-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 22900-2023.docx", "A 22900-2023")</f>
         <v/>
       </c>
     </row>
@@ -4710,7 +4710,7 @@
         <v>45090</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4761,27 +4761,27 @@
         </is>
       </c>
       <c r="S49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 25763-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 25763-2023.xlsx", "A 25763-2023")</f>
         <v/>
       </c>
       <c r="T49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 25763-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 25763-2023.png", "A 25763-2023")</f>
         <v/>
       </c>
       <c r="V49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 25763-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 25763-2023.docx", "A 25763-2023")</f>
         <v/>
       </c>
       <c r="W49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 25763-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 25763-2023.docx", "A 25763-2023")</f>
         <v/>
       </c>
       <c r="X49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 25763-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 25763-2023.docx", "A 25763-2023")</f>
         <v/>
       </c>
       <c r="Y49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 25763-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 25763-2023.docx", "A 25763-2023")</f>
         <v/>
       </c>
     </row>
@@ -4795,7 +4795,7 @@
         <v>43432</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>43447</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>43448</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>43452</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>43453</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>43455</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>43461</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5199,7 +5199,7 @@
         <v>43473</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>43473</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>43486</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>43507</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>43544</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         <v>43544</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
         <v>43544</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>43550</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>43556</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>43581</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>43601</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>43606</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43613</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>43614</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>43614</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>43614</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43630</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43642</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>43648</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         <v>43649</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6354,7 +6354,7 @@
         <v>43660</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6411,7 +6411,7 @@
         <v>43704</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>43704</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>43707</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>43739</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>43767</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>43768</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>43783</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>43803</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>43808</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
         <v>43812</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         <v>43893</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7038,7 +7038,7 @@
         <v>43902</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7095,7 +7095,7 @@
         <v>43909</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7152,7 +7152,7 @@
         <v>43918</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>43927</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>43938</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         <v>43941</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>43948</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7442,7 +7442,7 @@
         <v>43957</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7499,7 +7499,7 @@
         <v>43971</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>43991</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7618,7 +7618,7 @@
         <v>44064</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7675,7 +7675,7 @@
         <v>44104</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7732,7 +7732,7 @@
         <v>44105</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7794,7 +7794,7 @@
         <v>44110</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7851,7 +7851,7 @@
         <v>44110</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7908,7 +7908,7 @@
         <v>44110</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7970,7 +7970,7 @@
         <v>44110</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>44118</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8094,7 +8094,7 @@
         <v>44120</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8156,7 +8156,7 @@
         <v>44120</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8218,7 +8218,7 @@
         <v>44132</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8275,7 +8275,7 @@
         <v>44145</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8332,7 +8332,7 @@
         <v>44147</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8389,7 +8389,7 @@
         <v>44154</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8446,7 +8446,7 @@
         <v>44167</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8503,7 +8503,7 @@
         <v>44168</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8560,7 +8560,7 @@
         <v>44172</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8617,7 +8617,7 @@
         <v>44174</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8674,7 +8674,7 @@
         <v>44203</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8736,7 +8736,7 @@
         <v>44222</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8793,7 +8793,7 @@
         <v>44228</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8850,7 +8850,7 @@
         <v>44244</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8907,7 +8907,7 @@
         <v>44274</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8964,7 +8964,7 @@
         <v>44279</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9021,7 +9021,7 @@
         <v>44280</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9078,7 +9078,7 @@
         <v>44280</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9135,7 +9135,7 @@
         <v>44286</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9192,7 +9192,7 @@
         <v>44287</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9254,7 +9254,7 @@
         <v>44293</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9311,7 +9311,7 @@
         <v>44293</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9373,7 +9373,7 @@
         <v>44298</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9430,7 +9430,7 @@
         <v>44299</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9487,7 +9487,7 @@
         <v>44305</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>44306</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>44308</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>44319</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>44337</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>44341</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>44361</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9886,7 +9886,7 @@
         <v>44376</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9943,7 +9943,7 @@
         <v>44377</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10005,7 +10005,7 @@
         <v>44379</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10062,7 +10062,7 @@
         <v>44379</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10119,7 +10119,7 @@
         <v>44384</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10176,7 +10176,7 @@
         <v>44384</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10233,7 +10233,7 @@
         <v>44384</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10290,7 +10290,7 @@
         <v>44389</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10347,7 +10347,7 @@
         <v>44389</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10404,7 +10404,7 @@
         <v>44393</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10461,7 +10461,7 @@
         <v>44393</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10518,7 +10518,7 @@
         <v>44399</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10575,7 +10575,7 @@
         <v>44399</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10637,7 +10637,7 @@
         <v>44417</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10694,7 +10694,7 @@
         <v>44420</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10751,7 +10751,7 @@
         <v>44426</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10808,7 +10808,7 @@
         <v>44427</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10865,7 +10865,7 @@
         <v>44433</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10922,7 +10922,7 @@
         <v>44434</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10979,7 +10979,7 @@
         <v>44438</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11041,7 +11041,7 @@
         <v>44438</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11103,7 +11103,7 @@
         <v>44438</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11165,7 +11165,7 @@
         <v>44439</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11222,7 +11222,7 @@
         <v>44441</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11279,7 +11279,7 @@
         <v>44452</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11336,7 +11336,7 @@
         <v>44452</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11393,7 +11393,7 @@
         <v>44452</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11450,7 +11450,7 @@
         <v>44452</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11507,7 +11507,7 @@
         <v>44454</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11564,7 +11564,7 @@
         <v>44461</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11621,7 +11621,7 @@
         <v>44466</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11678,7 +11678,7 @@
         <v>44466</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11735,7 +11735,7 @@
         <v>44467</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11792,7 +11792,7 @@
         <v>44468</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11849,7 +11849,7 @@
         <v>44475</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11911,7 +11911,7 @@
         <v>44475</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11973,7 +11973,7 @@
         <v>44487</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12030,7 +12030,7 @@
         <v>44487</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>44488</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>44488</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>44493</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>44494</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12315,7 +12315,7 @@
         <v>44494</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         <v>44494</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         <v>44494</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12476,23 +12476,23 @@
       </c>
       <c r="R182" s="2" t="inlineStr"/>
       <c r="U182">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/knärot/A 59674-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/knärot/A 59674-2021.png", "A 59674-2021")</f>
         <v/>
       </c>
       <c r="V182">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 59674-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 59674-2021.docx", "A 59674-2021")</f>
         <v/>
       </c>
       <c r="W182">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 59674-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 59674-2021.docx", "A 59674-2021")</f>
         <v/>
       </c>
       <c r="X182">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 59674-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 59674-2021.docx", "A 59674-2021")</f>
         <v/>
       </c>
       <c r="Y182">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 59674-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 59674-2021.docx", "A 59674-2021")</f>
         <v/>
       </c>
     </row>
@@ -12506,7 +12506,7 @@
         <v>44494</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12563,7 +12563,7 @@
         <v>44495</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         <v>44496</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>44497</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12734,7 +12734,7 @@
         <v>44500</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>44505</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12848,7 +12848,7 @@
         <v>44510</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>44524</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         <v>44529</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         <v>44547</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>44550</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>44550</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44565</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13252,7 +13252,7 @@
         <v>44575</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
         <v>44579</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13366,7 +13366,7 @@
         <v>44587</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13423,7 +13423,7 @@
         <v>44588</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13480,7 +13480,7 @@
         <v>44592</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13537,7 +13537,7 @@
         <v>44601</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13594,7 +13594,7 @@
         <v>44610</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13651,7 +13651,7 @@
         <v>44623</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13708,7 +13708,7 @@
         <v>44624</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13765,7 +13765,7 @@
         <v>44670</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13822,7 +13822,7 @@
         <v>44673</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13879,7 +13879,7 @@
         <v>44675</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13936,7 +13936,7 @@
         <v>44705</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13993,7 +13993,7 @@
         <v>44713</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14055,7 +14055,7 @@
         <v>44717</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14112,7 +14112,7 @@
         <v>44728</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14169,7 +14169,7 @@
         <v>44733</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14226,7 +14226,7 @@
         <v>44733</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14283,7 +14283,7 @@
         <v>44741</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14340,7 +14340,7 @@
         <v>44755</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14397,7 +14397,7 @@
         <v>44755</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14454,7 +14454,7 @@
         <v>44781</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14511,7 +14511,7 @@
         <v>44781</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14568,7 +14568,7 @@
         <v>44788</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14625,7 +14625,7 @@
         <v>44792</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14682,7 +14682,7 @@
         <v>44792</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14739,7 +14739,7 @@
         <v>44798</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14796,7 +14796,7 @@
         <v>44799</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14858,7 +14858,7 @@
         <v>44799</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14915,7 +14915,7 @@
         <v>44799</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14977,7 +14977,7 @@
         <v>44799</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15039,7 +15039,7 @@
         <v>44804</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15096,7 +15096,7 @@
         <v>44805</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15153,7 +15153,7 @@
         <v>44812</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15215,7 +15215,7 @@
         <v>44820</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15272,7 +15272,7 @@
         <v>44820</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15334,7 +15334,7 @@
         <v>44830</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15391,7 +15391,7 @@
         <v>44830</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15448,7 +15448,7 @@
         <v>44832</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15505,7 +15505,7 @@
         <v>44832</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         <v>44837</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15619,7 +15619,7 @@
         <v>44837</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15676,7 +15676,7 @@
         <v>44869</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15733,7 +15733,7 @@
         <v>44879</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15795,7 +15795,7 @@
         <v>44886</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15852,7 +15852,7 @@
         <v>44887</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15909,7 +15909,7 @@
         <v>44889</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15966,7 +15966,7 @@
         <v>44900</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16023,7 +16023,7 @@
         <v>44908</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16080,7 +16080,7 @@
         <v>44911</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16137,7 +16137,7 @@
         <v>44935</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16199,7 +16199,7 @@
         <v>44935</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16256,7 +16256,7 @@
         <v>44950</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16313,7 +16313,7 @@
         <v>44951</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16370,7 +16370,7 @@
         <v>44958</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16432,7 +16432,7 @@
         <v>44972</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16489,7 +16489,7 @@
         <v>44977</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16546,7 +16546,7 @@
         <v>44977</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16603,7 +16603,7 @@
         <v>44981</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16660,7 +16660,7 @@
         <v>44987</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16717,7 +16717,7 @@
         <v>44988</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16764,23 +16764,23 @@
       </c>
       <c r="R256" s="2" t="inlineStr"/>
       <c r="U256">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/knärot/A 10751-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/knärot/A 10751-2023.png", "A 10751-2023")</f>
         <v/>
       </c>
       <c r="V256">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 10751-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 10751-2023.docx", "A 10751-2023")</f>
         <v/>
       </c>
       <c r="W256">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 10751-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 10751-2023.docx", "A 10751-2023")</f>
         <v/>
       </c>
       <c r="X256">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 10751-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 10751-2023.docx", "A 10751-2023")</f>
         <v/>
       </c>
       <c r="Y256">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 10751-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 10751-2023.docx", "A 10751-2023")</f>
         <v/>
       </c>
     </row>
@@ -16794,7 +16794,7 @@
         <v>44992</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16851,7 +16851,7 @@
         <v>44992</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16908,7 +16908,7 @@
         <v>44992</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16965,7 +16965,7 @@
         <v>44999</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17027,7 +17027,7 @@
         <v>44999</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17089,7 +17089,7 @@
         <v>45008</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         <v>45015</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>45016</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17260,7 +17260,7 @@
         <v>45016</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17317,7 +17317,7 @@
         <v>45021</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17379,7 +17379,7 @@
         <v>45027</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17436,7 +17436,7 @@
         <v>45036</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17493,7 +17493,7 @@
         <v>45036</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17550,7 +17550,7 @@
         <v>45036</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17607,7 +17607,7 @@
         <v>45036</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17664,7 +17664,7 @@
         <v>45044</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17721,7 +17721,7 @@
         <v>45044</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17778,7 +17778,7 @@
         <v>45049</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17840,7 +17840,7 @@
         <v>45054</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17902,7 +17902,7 @@
         <v>45054</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17964,7 +17964,7 @@
         <v>45054</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18021,7 +18021,7 @@
         <v>45054</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18078,7 +18078,7 @@
         <v>45054</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18135,7 +18135,7 @@
         <v>45056</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18197,7 +18197,7 @@
         <v>45062</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18254,7 +18254,7 @@
         <v>45068</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18311,7 +18311,7 @@
         <v>45076</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18368,7 +18368,7 @@
         <v>45079</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18425,7 +18425,7 @@
         <v>45079</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18482,7 +18482,7 @@
         <v>45096</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18539,7 +18539,7 @@
         <v>45097</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18596,7 +18596,7 @@
         <v>45099</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18653,7 +18653,7 @@
         <v>45099</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18710,7 +18710,7 @@
         <v>45105</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18772,7 +18772,7 @@
         <v>45110</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18829,7 +18829,7 @@
         <v>45110</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18886,7 +18886,7 @@
         <v>45110</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18943,7 +18943,7 @@
         <v>45116</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19000,7 +19000,7 @@
         <v>45117</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19057,7 +19057,7 @@
         <v>45117</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19114,7 +19114,7 @@
         <v>45139</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19171,7 +19171,7 @@
         <v>45140</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19228,7 +19228,7 @@
         <v>45146</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19285,7 +19285,7 @@
         <v>45173</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19342,7 +19342,7 @@
         <v>45182</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>

--- a/Översikt BORLÄNGE.xlsx
+++ b/Översikt BORLÄNGE.xlsx
@@ -572,7 +572,7 @@
         <v>44512</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44887</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>44552</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         <v>44494</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         <v>45069</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
         <v>44274</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>44824</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1222,7 +1222,7 @@
         <v>45028</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>43544</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
         <v>43781</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>44599</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>45072</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         <v>43431</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
         <v>43811</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>44420</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1928,7 +1928,7 @@
         <v>44453</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>44463</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2109,7 +2109,7 @@
         <v>44505</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>44874</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2285,7 +2285,7 @@
         <v>44908</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>44996</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2461,7 +2461,7 @@
         <v>44999</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>45068</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>45074</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>45117</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2809,7 +2809,7 @@
         <v>43409</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>43434</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2979,7 +2979,7 @@
         <v>43441</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
         <v>43544</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3153,7 +3153,7 @@
         <v>43969</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3243,7 +3243,7 @@
         <v>44362</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
         <v>44410</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3413,7 +3413,7 @@
         <v>44426</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3498,7 +3498,7 @@
         <v>44454</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3583,7 +3583,7 @@
         <v>44470</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3668,7 +3668,7 @@
         <v>44473</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
         <v>44603</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
         <v>44705</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>44798</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4017,7 +4017,7 @@
         <v>44798</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>44897</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
         <v>44931</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>45036</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4361,7 +4361,7 @@
         <v>45040</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4446,7 +4446,7 @@
         <v>45061</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4535,7 +4535,7 @@
         <v>45062</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>45072</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4710,7 +4710,7 @@
         <v>45090</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         <v>43432</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>43447</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>43448</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>43452</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>43453</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>43455</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>43461</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5199,7 +5199,7 @@
         <v>43473</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>43473</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>43486</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>43507</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>43544</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         <v>43544</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
         <v>43544</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>43550</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>43556</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>43581</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>43601</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>43606</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43613</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>43614</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>43614</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>43614</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43630</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43642</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>43648</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         <v>43649</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6354,7 +6354,7 @@
         <v>43660</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6411,7 +6411,7 @@
         <v>43704</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>43704</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>43707</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>43739</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>43767</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>43768</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>43783</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>43803</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>43808</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
         <v>43812</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         <v>43893</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7038,7 +7038,7 @@
         <v>43902</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7095,7 +7095,7 @@
         <v>43909</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7152,7 +7152,7 @@
         <v>43918</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>43927</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>43938</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         <v>43941</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>43948</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7442,7 +7442,7 @@
         <v>43957</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7499,7 +7499,7 @@
         <v>43971</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>43991</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7618,7 +7618,7 @@
         <v>44064</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7675,7 +7675,7 @@
         <v>44104</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7732,7 +7732,7 @@
         <v>44105</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7794,7 +7794,7 @@
         <v>44110</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7851,7 +7851,7 @@
         <v>44110</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7908,7 +7908,7 @@
         <v>44110</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7970,7 +7970,7 @@
         <v>44110</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>44118</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8094,7 +8094,7 @@
         <v>44120</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8156,7 +8156,7 @@
         <v>44120</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8218,7 +8218,7 @@
         <v>44132</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8275,7 +8275,7 @@
         <v>44145</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8332,7 +8332,7 @@
         <v>44147</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8389,7 +8389,7 @@
         <v>44154</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8446,7 +8446,7 @@
         <v>44167</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8503,7 +8503,7 @@
         <v>44168</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8560,7 +8560,7 @@
         <v>44172</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8617,7 +8617,7 @@
         <v>44174</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8674,7 +8674,7 @@
         <v>44203</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8736,7 +8736,7 @@
         <v>44222</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8793,7 +8793,7 @@
         <v>44228</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8850,7 +8850,7 @@
         <v>44244</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8907,7 +8907,7 @@
         <v>44274</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8964,7 +8964,7 @@
         <v>44279</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9021,7 +9021,7 @@
         <v>44280</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9078,7 +9078,7 @@
         <v>44280</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9135,7 +9135,7 @@
         <v>44286</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9192,7 +9192,7 @@
         <v>44287</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9254,7 +9254,7 @@
         <v>44293</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9311,7 +9311,7 @@
         <v>44293</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9373,7 +9373,7 @@
         <v>44298</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9430,7 +9430,7 @@
         <v>44299</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9487,7 +9487,7 @@
         <v>44305</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>44306</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>44308</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>44319</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>44337</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>44341</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>44361</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9886,7 +9886,7 @@
         <v>44376</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9943,7 +9943,7 @@
         <v>44377</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10005,7 +10005,7 @@
         <v>44379</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10062,7 +10062,7 @@
         <v>44379</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10119,7 +10119,7 @@
         <v>44384</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10176,7 +10176,7 @@
         <v>44384</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10233,7 +10233,7 @@
         <v>44384</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10290,7 +10290,7 @@
         <v>44389</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10347,7 +10347,7 @@
         <v>44389</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10404,7 +10404,7 @@
         <v>44393</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10461,7 +10461,7 @@
         <v>44393</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10518,7 +10518,7 @@
         <v>44399</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10575,7 +10575,7 @@
         <v>44399</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10637,7 +10637,7 @@
         <v>44417</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10694,7 +10694,7 @@
         <v>44420</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10751,7 +10751,7 @@
         <v>44426</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10808,7 +10808,7 @@
         <v>44427</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10865,7 +10865,7 @@
         <v>44433</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10922,7 +10922,7 @@
         <v>44434</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10979,7 +10979,7 @@
         <v>44438</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11041,7 +11041,7 @@
         <v>44438</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11103,7 +11103,7 @@
         <v>44438</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11165,7 +11165,7 @@
         <v>44439</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11222,7 +11222,7 @@
         <v>44441</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11279,7 +11279,7 @@
         <v>44452</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11336,7 +11336,7 @@
         <v>44452</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11393,7 +11393,7 @@
         <v>44452</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11450,7 +11450,7 @@
         <v>44452</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11507,7 +11507,7 @@
         <v>44454</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11564,7 +11564,7 @@
         <v>44461</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11621,7 +11621,7 @@
         <v>44466</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11678,7 +11678,7 @@
         <v>44466</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11735,7 +11735,7 @@
         <v>44467</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11792,7 +11792,7 @@
         <v>44468</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11849,7 +11849,7 @@
         <v>44475</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11911,7 +11911,7 @@
         <v>44475</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11973,7 +11973,7 @@
         <v>44487</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12030,7 +12030,7 @@
         <v>44487</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>44488</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>44488</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>44493</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>44494</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12315,7 +12315,7 @@
         <v>44494</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         <v>44494</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         <v>44494</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12506,7 +12506,7 @@
         <v>44494</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12563,7 +12563,7 @@
         <v>44495</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         <v>44496</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>44497</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12734,7 +12734,7 @@
         <v>44500</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>44505</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12848,7 +12848,7 @@
         <v>44510</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>44524</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         <v>44529</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         <v>44547</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>44550</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>44550</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44565</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13252,7 +13252,7 @@
         <v>44575</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
         <v>44579</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13366,7 +13366,7 @@
         <v>44587</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13423,7 +13423,7 @@
         <v>44588</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13480,7 +13480,7 @@
         <v>44592</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13537,7 +13537,7 @@
         <v>44601</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13594,7 +13594,7 @@
         <v>44610</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13651,7 +13651,7 @@
         <v>44623</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13708,7 +13708,7 @@
         <v>44624</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13765,7 +13765,7 @@
         <v>44670</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13822,7 +13822,7 @@
         <v>44673</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13879,7 +13879,7 @@
         <v>44675</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13936,7 +13936,7 @@
         <v>44705</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13993,7 +13993,7 @@
         <v>44713</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14055,7 +14055,7 @@
         <v>44717</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14112,7 +14112,7 @@
         <v>44728</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14169,7 +14169,7 @@
         <v>44733</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14226,7 +14226,7 @@
         <v>44733</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14283,7 +14283,7 @@
         <v>44741</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14340,7 +14340,7 @@
         <v>44755</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14397,7 +14397,7 @@
         <v>44755</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14454,7 +14454,7 @@
         <v>44781</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14511,7 +14511,7 @@
         <v>44781</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14568,7 +14568,7 @@
         <v>44788</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14625,7 +14625,7 @@
         <v>44792</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14682,7 +14682,7 @@
         <v>44792</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14739,7 +14739,7 @@
         <v>44798</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14796,7 +14796,7 @@
         <v>44799</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14858,7 +14858,7 @@
         <v>44799</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14915,7 +14915,7 @@
         <v>44799</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14977,7 +14977,7 @@
         <v>44799</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15039,7 +15039,7 @@
         <v>44804</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15096,7 +15096,7 @@
         <v>44805</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15153,7 +15153,7 @@
         <v>44812</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15215,7 +15215,7 @@
         <v>44820</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15272,7 +15272,7 @@
         <v>44820</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15334,7 +15334,7 @@
         <v>44830</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15391,7 +15391,7 @@
         <v>44830</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15448,7 +15448,7 @@
         <v>44832</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15505,7 +15505,7 @@
         <v>44832</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         <v>44837</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15619,7 +15619,7 @@
         <v>44837</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15676,7 +15676,7 @@
         <v>44869</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15733,7 +15733,7 @@
         <v>44879</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15795,7 +15795,7 @@
         <v>44886</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15852,7 +15852,7 @@
         <v>44887</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15909,7 +15909,7 @@
         <v>44889</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15966,7 +15966,7 @@
         <v>44900</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16023,7 +16023,7 @@
         <v>44908</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16080,7 +16080,7 @@
         <v>44911</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16137,7 +16137,7 @@
         <v>44935</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16199,7 +16199,7 @@
         <v>44935</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16256,7 +16256,7 @@
         <v>44950</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16313,7 +16313,7 @@
         <v>44951</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16370,7 +16370,7 @@
         <v>44958</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16432,7 +16432,7 @@
         <v>44972</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16489,7 +16489,7 @@
         <v>44977</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16546,7 +16546,7 @@
         <v>44977</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16603,7 +16603,7 @@
         <v>44981</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16660,7 +16660,7 @@
         <v>44987</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16717,7 +16717,7 @@
         <v>44988</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16794,7 +16794,7 @@
         <v>44992</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16851,7 +16851,7 @@
         <v>44992</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16908,7 +16908,7 @@
         <v>44992</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16965,7 +16965,7 @@
         <v>44999</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17027,7 +17027,7 @@
         <v>44999</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17089,7 +17089,7 @@
         <v>45008</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         <v>45015</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>45016</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17260,7 +17260,7 @@
         <v>45016</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17317,7 +17317,7 @@
         <v>45021</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17379,7 +17379,7 @@
         <v>45027</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17436,7 +17436,7 @@
         <v>45036</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17493,7 +17493,7 @@
         <v>45036</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17550,7 +17550,7 @@
         <v>45036</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17607,7 +17607,7 @@
         <v>45036</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17664,7 +17664,7 @@
         <v>45044</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17721,7 +17721,7 @@
         <v>45044</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17778,7 +17778,7 @@
         <v>45049</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17840,7 +17840,7 @@
         <v>45054</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17902,7 +17902,7 @@
         <v>45054</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17964,7 +17964,7 @@
         <v>45054</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18021,7 +18021,7 @@
         <v>45054</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18078,7 +18078,7 @@
         <v>45054</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18135,7 +18135,7 @@
         <v>45056</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18197,7 +18197,7 @@
         <v>45062</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18254,7 +18254,7 @@
         <v>45068</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18311,7 +18311,7 @@
         <v>45076</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18368,7 +18368,7 @@
         <v>45079</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18425,7 +18425,7 @@
         <v>45079</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18482,7 +18482,7 @@
         <v>45096</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18539,7 +18539,7 @@
         <v>45097</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18596,7 +18596,7 @@
         <v>45099</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18653,7 +18653,7 @@
         <v>45099</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18710,7 +18710,7 @@
         <v>45105</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18772,7 +18772,7 @@
         <v>45110</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18829,7 +18829,7 @@
         <v>45110</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18886,7 +18886,7 @@
         <v>45110</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18943,7 +18943,7 @@
         <v>45116</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19000,7 +19000,7 @@
         <v>45117</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19057,7 +19057,7 @@
         <v>45117</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19114,7 +19114,7 @@
         <v>45139</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19171,7 +19171,7 @@
         <v>45140</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19228,7 +19228,7 @@
         <v>45146</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19285,7 +19285,7 @@
         <v>45173</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19342,7 +19342,7 @@
         <v>45182</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>

--- a/Översikt BORLÄNGE.xlsx
+++ b/Översikt BORLÄNGE.xlsx
@@ -572,7 +572,7 @@
         <v>44512</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44887</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>44552</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         <v>44494</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         <v>45069</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
         <v>44274</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>44824</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1222,7 +1222,7 @@
         <v>45028</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>43544</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
         <v>43781</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>44599</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>45072</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         <v>43431</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
         <v>43811</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>44420</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1928,7 +1928,7 @@
         <v>44453</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>44463</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2109,7 +2109,7 @@
         <v>44505</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>44874</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2285,7 +2285,7 @@
         <v>44908</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>44996</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2461,7 +2461,7 @@
         <v>44999</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>45068</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>45074</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>45117</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2809,7 +2809,7 @@
         <v>43409</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>43434</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2979,7 +2979,7 @@
         <v>43441</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
         <v>43544</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3153,7 +3153,7 @@
         <v>43969</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3243,7 +3243,7 @@
         <v>44362</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
         <v>44410</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3413,7 +3413,7 @@
         <v>44426</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3498,7 +3498,7 @@
         <v>44454</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3583,7 +3583,7 @@
         <v>44470</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3668,7 +3668,7 @@
         <v>44473</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
         <v>44603</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
         <v>44705</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>44798</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4017,7 +4017,7 @@
         <v>44798</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>44897</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
         <v>44931</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>45036</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4361,7 +4361,7 @@
         <v>45040</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4446,7 +4446,7 @@
         <v>45061</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4535,7 +4535,7 @@
         <v>45062</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>45072</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4710,7 +4710,7 @@
         <v>45090</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         <v>43432</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>43447</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>43448</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>43452</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>43453</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>43455</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>43461</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5199,7 +5199,7 @@
         <v>43473</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>43473</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>43486</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>43507</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>43544</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         <v>43544</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
         <v>43544</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>43550</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>43556</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>43581</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>43601</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>43606</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43613</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>43614</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>43614</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>43614</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43630</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43642</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>43648</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         <v>43649</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6354,7 +6354,7 @@
         <v>43660</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6411,7 +6411,7 @@
         <v>43704</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>43704</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>43707</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>43739</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>43767</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>43768</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>43783</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>43803</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>43808</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
         <v>43812</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         <v>43893</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7038,7 +7038,7 @@
         <v>43902</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7095,7 +7095,7 @@
         <v>43909</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7152,7 +7152,7 @@
         <v>43918</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>43927</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>43938</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         <v>43941</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>43948</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7442,7 +7442,7 @@
         <v>43957</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7499,7 +7499,7 @@
         <v>43971</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>43991</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7618,7 +7618,7 @@
         <v>44064</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7675,7 +7675,7 @@
         <v>44104</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7732,7 +7732,7 @@
         <v>44105</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7794,7 +7794,7 @@
         <v>44110</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7851,7 +7851,7 @@
         <v>44110</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7908,7 +7908,7 @@
         <v>44110</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7970,7 +7970,7 @@
         <v>44110</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>44118</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8094,7 +8094,7 @@
         <v>44120</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8156,7 +8156,7 @@
         <v>44120</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8218,7 +8218,7 @@
         <v>44132</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8275,7 +8275,7 @@
         <v>44145</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8332,7 +8332,7 @@
         <v>44147</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8389,7 +8389,7 @@
         <v>44154</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8446,7 +8446,7 @@
         <v>44167</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8503,7 +8503,7 @@
         <v>44168</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8560,7 +8560,7 @@
         <v>44172</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8617,7 +8617,7 @@
         <v>44174</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8674,7 +8674,7 @@
         <v>44203</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8736,7 +8736,7 @@
         <v>44222</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8793,7 +8793,7 @@
         <v>44228</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8850,7 +8850,7 @@
         <v>44244</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8907,7 +8907,7 @@
         <v>44274</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8964,7 +8964,7 @@
         <v>44279</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9021,7 +9021,7 @@
         <v>44280</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9078,7 +9078,7 @@
         <v>44280</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9135,7 +9135,7 @@
         <v>44286</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9192,7 +9192,7 @@
         <v>44287</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9254,7 +9254,7 @@
         <v>44293</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9311,7 +9311,7 @@
         <v>44293</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9373,7 +9373,7 @@
         <v>44298</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9430,7 +9430,7 @@
         <v>44299</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9487,7 +9487,7 @@
         <v>44305</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>44306</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>44308</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>44319</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>44337</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>44341</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>44361</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9886,7 +9886,7 @@
         <v>44376</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9943,7 +9943,7 @@
         <v>44377</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10005,7 +10005,7 @@
         <v>44379</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10062,7 +10062,7 @@
         <v>44379</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10119,7 +10119,7 @@
         <v>44384</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10176,7 +10176,7 @@
         <v>44384</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10233,7 +10233,7 @@
         <v>44384</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10290,7 +10290,7 @@
         <v>44389</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10347,7 +10347,7 @@
         <v>44389</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10404,7 +10404,7 @@
         <v>44393</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10461,7 +10461,7 @@
         <v>44393</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10518,7 +10518,7 @@
         <v>44399</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10575,7 +10575,7 @@
         <v>44399</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10637,7 +10637,7 @@
         <v>44417</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10694,7 +10694,7 @@
         <v>44420</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10751,7 +10751,7 @@
         <v>44426</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10808,7 +10808,7 @@
         <v>44427</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10865,7 +10865,7 @@
         <v>44433</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10922,7 +10922,7 @@
         <v>44434</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10979,7 +10979,7 @@
         <v>44438</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11041,7 +11041,7 @@
         <v>44438</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11103,7 +11103,7 @@
         <v>44438</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11165,7 +11165,7 @@
         <v>44439</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11222,7 +11222,7 @@
         <v>44441</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11279,7 +11279,7 @@
         <v>44452</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11336,7 +11336,7 @@
         <v>44452</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11393,7 +11393,7 @@
         <v>44452</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11450,7 +11450,7 @@
         <v>44452</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11507,7 +11507,7 @@
         <v>44454</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11564,7 +11564,7 @@
         <v>44461</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11621,7 +11621,7 @@
         <v>44466</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11678,7 +11678,7 @@
         <v>44466</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11735,7 +11735,7 @@
         <v>44467</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11792,7 +11792,7 @@
         <v>44468</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11849,7 +11849,7 @@
         <v>44475</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11911,7 +11911,7 @@
         <v>44475</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11973,7 +11973,7 @@
         <v>44487</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12030,7 +12030,7 @@
         <v>44487</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>44488</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>44488</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>44493</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>44494</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12315,7 +12315,7 @@
         <v>44494</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         <v>44494</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         <v>44494</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12506,7 +12506,7 @@
         <v>44494</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12563,7 +12563,7 @@
         <v>44495</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         <v>44496</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>44497</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12734,7 +12734,7 @@
         <v>44500</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>44505</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12848,7 +12848,7 @@
         <v>44510</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>44524</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         <v>44529</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         <v>44547</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>44550</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>44550</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44565</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13252,7 +13252,7 @@
         <v>44575</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
         <v>44579</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13366,7 +13366,7 @@
         <v>44587</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13423,7 +13423,7 @@
         <v>44588</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13480,7 +13480,7 @@
         <v>44592</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13537,7 +13537,7 @@
         <v>44601</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13594,7 +13594,7 @@
         <v>44610</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13651,7 +13651,7 @@
         <v>44623</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13708,7 +13708,7 @@
         <v>44624</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13765,7 +13765,7 @@
         <v>44670</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13822,7 +13822,7 @@
         <v>44673</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13879,7 +13879,7 @@
         <v>44675</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13936,7 +13936,7 @@
         <v>44705</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13993,7 +13993,7 @@
         <v>44713</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14055,7 +14055,7 @@
         <v>44717</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14112,7 +14112,7 @@
         <v>44728</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14169,7 +14169,7 @@
         <v>44733</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14226,7 +14226,7 @@
         <v>44733</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14283,7 +14283,7 @@
         <v>44741</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14340,7 +14340,7 @@
         <v>44755</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14397,7 +14397,7 @@
         <v>44755</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14454,7 +14454,7 @@
         <v>44781</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14511,7 +14511,7 @@
         <v>44781</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14568,7 +14568,7 @@
         <v>44788</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14625,7 +14625,7 @@
         <v>44792</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14682,7 +14682,7 @@
         <v>44792</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14739,7 +14739,7 @@
         <v>44798</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14796,7 +14796,7 @@
         <v>44799</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14858,7 +14858,7 @@
         <v>44799</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14915,7 +14915,7 @@
         <v>44799</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14977,7 +14977,7 @@
         <v>44799</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15039,7 +15039,7 @@
         <v>44804</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15096,7 +15096,7 @@
         <v>44805</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15153,7 +15153,7 @@
         <v>44812</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15215,7 +15215,7 @@
         <v>44820</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15272,7 +15272,7 @@
         <v>44820</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15334,7 +15334,7 @@
         <v>44830</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15391,7 +15391,7 @@
         <v>44830</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15448,7 +15448,7 @@
         <v>44832</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15505,7 +15505,7 @@
         <v>44832</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         <v>44837</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15619,7 +15619,7 @@
         <v>44837</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15676,7 +15676,7 @@
         <v>44869</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15733,7 +15733,7 @@
         <v>44879</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15795,7 +15795,7 @@
         <v>44886</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15852,7 +15852,7 @@
         <v>44887</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15909,7 +15909,7 @@
         <v>44889</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15966,7 +15966,7 @@
         <v>44900</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16023,7 +16023,7 @@
         <v>44908</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16080,7 +16080,7 @@
         <v>44911</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16137,7 +16137,7 @@
         <v>44935</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16199,7 +16199,7 @@
         <v>44935</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16256,7 +16256,7 @@
         <v>44950</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16313,7 +16313,7 @@
         <v>44951</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16370,7 +16370,7 @@
         <v>44958</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16432,7 +16432,7 @@
         <v>44972</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16489,7 +16489,7 @@
         <v>44977</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16546,7 +16546,7 @@
         <v>44977</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16603,7 +16603,7 @@
         <v>44981</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16660,7 +16660,7 @@
         <v>44987</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16717,7 +16717,7 @@
         <v>44988</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16794,7 +16794,7 @@
         <v>44992</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16851,7 +16851,7 @@
         <v>44992</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16908,7 +16908,7 @@
         <v>44992</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16965,7 +16965,7 @@
         <v>44999</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17027,7 +17027,7 @@
         <v>44999</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17089,7 +17089,7 @@
         <v>45008</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         <v>45015</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>45016</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17260,7 +17260,7 @@
         <v>45016</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17317,7 +17317,7 @@
         <v>45021</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17379,7 +17379,7 @@
         <v>45027</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17436,7 +17436,7 @@
         <v>45036</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17493,7 +17493,7 @@
         <v>45036</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17550,7 +17550,7 @@
         <v>45036</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17607,7 +17607,7 @@
         <v>45036</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17664,7 +17664,7 @@
         <v>45044</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17721,7 +17721,7 @@
         <v>45044</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17778,7 +17778,7 @@
         <v>45049</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17840,7 +17840,7 @@
         <v>45054</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17902,7 +17902,7 @@
         <v>45054</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17964,7 +17964,7 @@
         <v>45054</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18021,7 +18021,7 @@
         <v>45054</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18078,7 +18078,7 @@
         <v>45054</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18135,7 +18135,7 @@
         <v>45056</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18197,7 +18197,7 @@
         <v>45062</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18254,7 +18254,7 @@
         <v>45068</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18311,7 +18311,7 @@
         <v>45076</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18368,7 +18368,7 @@
         <v>45079</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18425,7 +18425,7 @@
         <v>45079</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18482,7 +18482,7 @@
         <v>45096</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18539,7 +18539,7 @@
         <v>45097</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18596,7 +18596,7 @@
         <v>45099</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18653,7 +18653,7 @@
         <v>45099</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18710,7 +18710,7 @@
         <v>45105</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18772,7 +18772,7 @@
         <v>45110</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18829,7 +18829,7 @@
         <v>45110</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18886,7 +18886,7 @@
         <v>45110</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18943,7 +18943,7 @@
         <v>45116</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19000,7 +19000,7 @@
         <v>45117</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19057,7 +19057,7 @@
         <v>45117</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19114,7 +19114,7 @@
         <v>45139</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19171,7 +19171,7 @@
         <v>45140</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19228,7 +19228,7 @@
         <v>45146</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19285,7 +19285,7 @@
         <v>45173</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19342,7 +19342,7 @@
         <v>45182</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>

--- a/Översikt BORLÄNGE.xlsx
+++ b/Översikt BORLÄNGE.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y301"/>
+  <dimension ref="A1:Y302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44512</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,14 +660,14 @@
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A 55504-2022</t>
+          <t>A 73613-2021</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>44887</v>
+        <v>44552</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -680,19 +680,19 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>15.1</v>
+        <v>28</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -704,15 +704,108 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>9</v>
       </c>
       <c r="R3" s="2" t="inlineStr">
+        <is>
+          <t>Garnlav
+Motaggsvamp
+Svart taggsvamp
+Tallticka
+Tretåig hackspett
+Ullticka
+Dropptaggsvamp
+Rostfläck
+Vedticka</t>
+        </is>
+      </c>
+      <c r="S3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 73613-2021.xlsx", "A 73613-2021")</f>
+        <v/>
+      </c>
+      <c r="T3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 73613-2021.png", "A 73613-2021")</f>
+        <v/>
+      </c>
+      <c r="V3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 73613-2021.docx", "A 73613-2021")</f>
+        <v/>
+      </c>
+      <c r="W3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 73613-2021.docx", "A 73613-2021")</f>
+        <v/>
+      </c>
+      <c r="X3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 73613-2021.docx", "A 73613-2021")</f>
+        <v/>
+      </c>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 73613-2021.docx", "A 73613-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A 55504-2022</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>44887</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>BORLÄNGE</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>7</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>9</v>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Rynkskinn
@@ -725,124 +818,32 @@
 Vedticka</t>
         </is>
       </c>
-      <c r="S3">
+      <c r="S4">
         <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 55504-2022.xlsx", "A 55504-2022")</f>
         <v/>
       </c>
-      <c r="T3">
+      <c r="T4">
         <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 55504-2022.png", "A 55504-2022")</f>
         <v/>
       </c>
-      <c r="U3">
+      <c r="U4">
         <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/knärot/A 55504-2022.png", "A 55504-2022")</f>
         <v/>
       </c>
-      <c r="V3">
+      <c r="V4">
         <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 55504-2022.docx", "A 55504-2022")</f>
         <v/>
       </c>
-      <c r="W3">
+      <c r="W4">
         <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 55504-2022.docx", "A 55504-2022")</f>
         <v/>
       </c>
-      <c r="X3">
+      <c r="X4">
         <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 55504-2022.docx", "A 55504-2022")</f>
         <v/>
       </c>
-      <c r="Y3">
+      <c r="Y4">
         <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 55504-2022.docx", "A 55504-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>A 73613-2021</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>44552</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>45189</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>BORLÄNGE</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>28</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2</v>
-      </c>
-      <c r="J4" t="n">
-        <v>6</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>6</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>8</v>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>Garnlav
-Motaggsvamp
-Svart taggsvamp
-Tallticka
-Tretåig hackspett
-Ullticka
-Dropptaggsvamp
-Rostfläck</t>
-        </is>
-      </c>
-      <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 73613-2021.xlsx", "A 73613-2021")</f>
-        <v/>
-      </c>
-      <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 73613-2021.png", "A 73613-2021")</f>
-        <v/>
-      </c>
-      <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 73613-2021.docx", "A 73613-2021")</f>
-        <v/>
-      </c>
-      <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 73613-2021.docx", "A 73613-2021")</f>
-        <v/>
-      </c>
-      <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 73613-2021.docx", "A 73613-2021")</f>
-        <v/>
-      </c>
-      <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 73613-2021.docx", "A 73613-2021")</f>
         <v/>
       </c>
     </row>
@@ -856,7 +857,7 @@
         <v>44494</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -949,7 +950,7 @@
         <v>45069</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1042,7 +1043,7 @@
         <v>44274</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1130,7 +1131,7 @@
         <v>44824</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1222,7 +1223,7 @@
         <v>45028</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1314,7 +1315,7 @@
         <v>43544</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1401,7 +1402,7 @@
         <v>43781</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1488,7 +1489,7 @@
         <v>44599</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1575,7 +1576,7 @@
         <v>45072</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1666,7 +1667,7 @@
         <v>43431</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1752,7 +1753,7 @@
         <v>43811</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1838,7 +1839,7 @@
         <v>44420</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1928,7 +1929,7 @@
         <v>44453</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2018,7 +2019,7 @@
         <v>44463</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2109,7 +2110,7 @@
         <v>44505</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2199,7 +2200,7 @@
         <v>44874</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2285,7 +2286,7 @@
         <v>44908</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2375,7 +2376,7 @@
         <v>44996</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2461,7 +2462,7 @@
         <v>44999</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2547,7 +2548,7 @@
         <v>45068</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2637,7 +2638,7 @@
         <v>45074</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2723,7 +2724,7 @@
         <v>45117</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2809,7 +2810,7 @@
         <v>43409</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2894,7 +2895,7 @@
         <v>43434</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2979,7 +2980,7 @@
         <v>43441</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3064,7 +3065,7 @@
         <v>43544</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3153,7 +3154,7 @@
         <v>43969</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3243,7 +3244,7 @@
         <v>44362</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3328,7 +3329,7 @@
         <v>44410</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3413,7 +3414,7 @@
         <v>44426</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3498,7 +3499,7 @@
         <v>44454</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3583,7 +3584,7 @@
         <v>44470</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3668,7 +3669,7 @@
         <v>44473</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3762,7 +3763,7 @@
         <v>44603</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3847,7 +3848,7 @@
         <v>44705</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3932,7 +3933,7 @@
         <v>44798</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4017,7 +4018,7 @@
         <v>44798</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4102,7 +4103,7 @@
         <v>44897</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4187,7 +4188,7 @@
         <v>44931</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4276,7 +4277,7 @@
         <v>45036</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4361,7 +4362,7 @@
         <v>45040</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4446,7 +4447,7 @@
         <v>45061</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4535,7 +4536,7 @@
         <v>45062</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4620,7 +4621,7 @@
         <v>45072</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4710,7 +4711,7 @@
         <v>45090</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4795,7 +4796,7 @@
         <v>43432</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4852,7 +4853,7 @@
         <v>43447</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4909,7 +4910,7 @@
         <v>43448</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4966,7 +4967,7 @@
         <v>43452</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5023,7 +5024,7 @@
         <v>43453</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5085,7 +5086,7 @@
         <v>43455</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5142,7 +5143,7 @@
         <v>43461</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5199,7 +5200,7 @@
         <v>43473</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5256,7 +5257,7 @@
         <v>43473</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5313,7 +5314,7 @@
         <v>43486</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5370,7 +5371,7 @@
         <v>43507</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5427,7 +5428,7 @@
         <v>43544</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5484,7 +5485,7 @@
         <v>43544</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5541,7 +5542,7 @@
         <v>43544</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5598,7 +5599,7 @@
         <v>43550</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5655,7 +5656,7 @@
         <v>43556</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5717,7 +5718,7 @@
         <v>43581</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5774,7 +5775,7 @@
         <v>43601</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5831,7 +5832,7 @@
         <v>43606</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5888,7 +5889,7 @@
         <v>43613</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5945,7 +5946,7 @@
         <v>43614</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6002,7 +6003,7 @@
         <v>43614</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6059,7 +6060,7 @@
         <v>43614</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6116,7 +6117,7 @@
         <v>43630</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6173,7 +6174,7 @@
         <v>43642</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6230,7 +6231,7 @@
         <v>43648</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6292,7 +6293,7 @@
         <v>43649</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6354,7 +6355,7 @@
         <v>43660</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6411,7 +6412,7 @@
         <v>43704</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6468,7 +6469,7 @@
         <v>43704</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6525,7 +6526,7 @@
         <v>43707</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6582,7 +6583,7 @@
         <v>43739</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6639,7 +6640,7 @@
         <v>43767</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6696,7 +6697,7 @@
         <v>43768</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6753,7 +6754,7 @@
         <v>43783</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6810,7 +6811,7 @@
         <v>43803</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6867,7 +6868,7 @@
         <v>43808</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6924,7 +6925,7 @@
         <v>43812</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6981,7 +6982,7 @@
         <v>43893</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7038,7 +7039,7 @@
         <v>43902</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7095,7 +7096,7 @@
         <v>43909</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7152,7 +7153,7 @@
         <v>43918</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7214,7 +7215,7 @@
         <v>43927</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7271,7 +7272,7 @@
         <v>43938</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7328,7 +7329,7 @@
         <v>43941</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7385,7 +7386,7 @@
         <v>43948</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7442,7 +7443,7 @@
         <v>43957</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7499,7 +7500,7 @@
         <v>43971</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7561,7 +7562,7 @@
         <v>43991</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7618,7 +7619,7 @@
         <v>44064</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7675,7 +7676,7 @@
         <v>44104</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7732,7 +7733,7 @@
         <v>44105</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7794,7 +7795,7 @@
         <v>44110</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7851,7 +7852,7 @@
         <v>44110</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7908,7 +7909,7 @@
         <v>44110</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7970,7 +7971,7 @@
         <v>44110</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8032,7 +8033,7 @@
         <v>44118</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8094,7 +8095,7 @@
         <v>44120</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8156,7 +8157,7 @@
         <v>44120</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8218,7 +8219,7 @@
         <v>44132</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8275,7 +8276,7 @@
         <v>44145</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8332,7 +8333,7 @@
         <v>44147</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8389,7 +8390,7 @@
         <v>44154</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8446,7 +8447,7 @@
         <v>44167</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8503,7 +8504,7 @@
         <v>44168</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8560,7 +8561,7 @@
         <v>44172</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8617,7 +8618,7 @@
         <v>44174</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8674,7 +8675,7 @@
         <v>44203</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8736,7 +8737,7 @@
         <v>44222</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8793,7 +8794,7 @@
         <v>44228</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8850,7 +8851,7 @@
         <v>44244</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8907,7 +8908,7 @@
         <v>44274</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8964,7 +8965,7 @@
         <v>44279</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9021,7 +9022,7 @@
         <v>44280</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9078,7 +9079,7 @@
         <v>44280</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9135,7 +9136,7 @@
         <v>44286</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9192,7 +9193,7 @@
         <v>44287</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9254,7 +9255,7 @@
         <v>44293</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9311,7 +9312,7 @@
         <v>44293</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9373,7 +9374,7 @@
         <v>44298</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9430,7 +9431,7 @@
         <v>44299</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9487,7 +9488,7 @@
         <v>44305</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9544,7 +9545,7 @@
         <v>44306</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9601,7 +9602,7 @@
         <v>44308</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9658,7 +9659,7 @@
         <v>44319</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9715,7 +9716,7 @@
         <v>44337</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9772,7 +9773,7 @@
         <v>44341</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9829,7 +9830,7 @@
         <v>44361</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9886,7 +9887,7 @@
         <v>44376</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9943,7 +9944,7 @@
         <v>44377</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10005,7 +10006,7 @@
         <v>44379</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10062,7 +10063,7 @@
         <v>44379</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10119,7 +10120,7 @@
         <v>44384</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10176,7 +10177,7 @@
         <v>44384</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10233,7 +10234,7 @@
         <v>44384</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10290,7 +10291,7 @@
         <v>44389</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10347,7 +10348,7 @@
         <v>44389</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10404,7 +10405,7 @@
         <v>44393</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10461,7 +10462,7 @@
         <v>44393</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10518,7 +10519,7 @@
         <v>44399</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10575,7 +10576,7 @@
         <v>44399</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10637,7 +10638,7 @@
         <v>44417</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10694,7 +10695,7 @@
         <v>44420</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10751,7 +10752,7 @@
         <v>44426</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10808,7 +10809,7 @@
         <v>44427</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10865,7 +10866,7 @@
         <v>44433</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10922,7 +10923,7 @@
         <v>44434</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10979,7 +10980,7 @@
         <v>44438</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11041,7 +11042,7 @@
         <v>44438</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11103,7 +11104,7 @@
         <v>44438</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11165,7 +11166,7 @@
         <v>44439</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11222,7 +11223,7 @@
         <v>44441</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11279,7 +11280,7 @@
         <v>44452</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11336,7 +11337,7 @@
         <v>44452</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11393,7 +11394,7 @@
         <v>44452</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11450,7 +11451,7 @@
         <v>44452</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11507,7 +11508,7 @@
         <v>44454</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11564,7 +11565,7 @@
         <v>44461</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11621,7 +11622,7 @@
         <v>44466</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11678,7 +11679,7 @@
         <v>44466</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11735,7 +11736,7 @@
         <v>44467</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11792,7 +11793,7 @@
         <v>44468</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11849,7 +11850,7 @@
         <v>44475</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11911,7 +11912,7 @@
         <v>44475</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11973,7 +11974,7 @@
         <v>44487</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12030,7 +12031,7 @@
         <v>44487</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12087,7 +12088,7 @@
         <v>44488</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12144,7 +12145,7 @@
         <v>44488</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12201,7 +12202,7 @@
         <v>44493</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12258,7 +12259,7 @@
         <v>44494</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12315,7 +12316,7 @@
         <v>44494</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12372,7 +12373,7 @@
         <v>44494</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12429,7 +12430,7 @@
         <v>44494</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12506,7 +12507,7 @@
         <v>44494</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12563,7 +12564,7 @@
         <v>44495</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12620,7 +12621,7 @@
         <v>44496</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12677,7 +12678,7 @@
         <v>44497</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12734,7 +12735,7 @@
         <v>44500</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12791,7 +12792,7 @@
         <v>44505</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12848,7 +12849,7 @@
         <v>44510</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12905,7 +12906,7 @@
         <v>44524</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12967,7 +12968,7 @@
         <v>44529</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13024,7 +13025,7 @@
         <v>44547</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13081,7 +13082,7 @@
         <v>44550</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13138,7 +13139,7 @@
         <v>44550</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13195,7 +13196,7 @@
         <v>44565</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13252,7 +13253,7 @@
         <v>44575</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13309,7 +13310,7 @@
         <v>44579</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13366,7 +13367,7 @@
         <v>44587</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13423,7 +13424,7 @@
         <v>44588</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13480,7 +13481,7 @@
         <v>44592</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13537,7 +13538,7 @@
         <v>44601</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13594,7 +13595,7 @@
         <v>44610</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13651,7 +13652,7 @@
         <v>44623</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13708,7 +13709,7 @@
         <v>44624</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13765,7 +13766,7 @@
         <v>44670</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13822,7 +13823,7 @@
         <v>44673</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13879,7 +13880,7 @@
         <v>44675</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13936,7 +13937,7 @@
         <v>44705</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13993,7 +13994,7 @@
         <v>44713</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14055,7 +14056,7 @@
         <v>44717</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14112,7 +14113,7 @@
         <v>44728</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14169,7 +14170,7 @@
         <v>44733</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14226,7 +14227,7 @@
         <v>44733</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14283,7 +14284,7 @@
         <v>44741</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14340,7 +14341,7 @@
         <v>44755</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14397,7 +14398,7 @@
         <v>44755</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14454,7 +14455,7 @@
         <v>44781</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14511,7 +14512,7 @@
         <v>44781</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14568,7 +14569,7 @@
         <v>44788</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14625,7 +14626,7 @@
         <v>44792</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14682,7 +14683,7 @@
         <v>44792</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14739,7 +14740,7 @@
         <v>44798</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14796,7 +14797,7 @@
         <v>44799</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14858,7 +14859,7 @@
         <v>44799</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14915,7 +14916,7 @@
         <v>44799</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14977,7 +14978,7 @@
         <v>44799</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15039,7 +15040,7 @@
         <v>44804</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15096,7 +15097,7 @@
         <v>44805</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15153,7 +15154,7 @@
         <v>44812</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15215,7 +15216,7 @@
         <v>44820</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15272,7 +15273,7 @@
         <v>44820</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15334,7 +15335,7 @@
         <v>44830</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15391,7 +15392,7 @@
         <v>44830</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15448,7 +15449,7 @@
         <v>44832</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15505,7 +15506,7 @@
         <v>44832</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15562,7 +15563,7 @@
         <v>44837</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15619,7 +15620,7 @@
         <v>44837</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15676,7 +15677,7 @@
         <v>44869</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15733,7 +15734,7 @@
         <v>44879</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15795,7 +15796,7 @@
         <v>44886</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15852,7 +15853,7 @@
         <v>44887</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15909,7 +15910,7 @@
         <v>44889</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15966,7 +15967,7 @@
         <v>44900</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16023,7 +16024,7 @@
         <v>44908</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16080,7 +16081,7 @@
         <v>44911</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16137,7 +16138,7 @@
         <v>44935</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16199,7 +16200,7 @@
         <v>44935</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16256,7 +16257,7 @@
         <v>44950</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16313,7 +16314,7 @@
         <v>44951</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16370,7 +16371,7 @@
         <v>44958</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16432,7 +16433,7 @@
         <v>44972</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16489,7 +16490,7 @@
         <v>44977</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16546,7 +16547,7 @@
         <v>44977</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16603,7 +16604,7 @@
         <v>44981</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16660,7 +16661,7 @@
         <v>44987</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16717,7 +16718,7 @@
         <v>44988</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16794,7 +16795,7 @@
         <v>44992</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16851,7 +16852,7 @@
         <v>44992</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16908,7 +16909,7 @@
         <v>44992</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16965,7 +16966,7 @@
         <v>44999</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17027,7 +17028,7 @@
         <v>44999</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17089,7 +17090,7 @@
         <v>45008</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17146,7 +17147,7 @@
         <v>45015</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17203,7 +17204,7 @@
         <v>45016</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17260,7 +17261,7 @@
         <v>45016</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17317,7 +17318,7 @@
         <v>45021</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17379,7 +17380,7 @@
         <v>45027</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17436,7 +17437,7 @@
         <v>45036</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17493,7 +17494,7 @@
         <v>45036</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17550,7 +17551,7 @@
         <v>45036</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17607,7 +17608,7 @@
         <v>45036</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17664,7 +17665,7 @@
         <v>45044</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17721,7 +17722,7 @@
         <v>45044</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17778,7 +17779,7 @@
         <v>45049</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17840,7 +17841,7 @@
         <v>45054</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17902,7 +17903,7 @@
         <v>45054</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17964,7 +17965,7 @@
         <v>45054</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18021,7 +18022,7 @@
         <v>45054</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18078,7 +18079,7 @@
         <v>45054</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18135,7 +18136,7 @@
         <v>45056</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18197,7 +18198,7 @@
         <v>45062</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18254,7 +18255,7 @@
         <v>45068</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18311,7 +18312,7 @@
         <v>45076</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18368,7 +18369,7 @@
         <v>45079</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18425,7 +18426,7 @@
         <v>45079</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18482,7 +18483,7 @@
         <v>45096</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18539,7 +18540,7 @@
         <v>45097</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18596,7 +18597,7 @@
         <v>45099</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18653,7 +18654,7 @@
         <v>45099</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18710,7 +18711,7 @@
         <v>45105</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18772,7 +18773,7 @@
         <v>45110</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18829,7 +18830,7 @@
         <v>45110</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18886,7 +18887,7 @@
         <v>45110</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18943,7 +18944,7 @@
         <v>45116</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19000,7 +19001,7 @@
         <v>45117</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19057,7 +19058,7 @@
         <v>45117</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19114,7 +19115,7 @@
         <v>45139</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19171,7 +19172,7 @@
         <v>45140</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19228,7 +19229,7 @@
         <v>45146</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19285,7 +19286,7 @@
         <v>45173</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19332,7 +19333,7 @@
       </c>
       <c r="R300" s="2" t="inlineStr"/>
     </row>
-    <row r="301">
+    <row r="301" ht="15" customHeight="1">
       <c r="A301" t="inlineStr">
         <is>
           <t>A 42986-2023</t>
@@ -19342,7 +19343,7 @@
         <v>45182</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19388,6 +19389,63 @@
         <v>0</v>
       </c>
       <c r="R301" s="2" t="inlineStr"/>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>A 44240-2023</t>
+        </is>
+      </c>
+      <c r="B302" s="1" t="n">
+        <v>45188</v>
+      </c>
+      <c r="C302" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>BORLÄNGE</t>
+        </is>
+      </c>
+      <c r="G302" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H302" t="n">
+        <v>0</v>
+      </c>
+      <c r="I302" t="n">
+        <v>0</v>
+      </c>
+      <c r="J302" t="n">
+        <v>0</v>
+      </c>
+      <c r="K302" t="n">
+        <v>0</v>
+      </c>
+      <c r="L302" t="n">
+        <v>0</v>
+      </c>
+      <c r="M302" t="n">
+        <v>0</v>
+      </c>
+      <c r="N302" t="n">
+        <v>0</v>
+      </c>
+      <c r="O302" t="n">
+        <v>0</v>
+      </c>
+      <c r="P302" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q302" t="n">
+        <v>0</v>
+      </c>
+      <c r="R302" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt BORLÄNGE.xlsx
+++ b/Översikt BORLÄNGE.xlsx
@@ -572,7 +572,7 @@
         <v>44512</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44552</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44887</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44494</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -950,7 +950,7 @@
         <v>45069</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1043,7 +1043,7 @@
         <v>44274</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1131,7 +1131,7 @@
         <v>44824</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1223,7 +1223,7 @@
         <v>45028</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         <v>43544</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1402,7 +1402,7 @@
         <v>43781</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>44599</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>45072</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>43431</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
         <v>43811</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>44420</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1929,7 +1929,7 @@
         <v>44453</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2019,7 +2019,7 @@
         <v>44463</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>44505</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>44874</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2286,7 +2286,7 @@
         <v>44908</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>44996</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>44999</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>45068</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
         <v>45074</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         <v>45117</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2810,7 +2810,7 @@
         <v>43409</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2895,7 +2895,7 @@
         <v>43434</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2980,7 +2980,7 @@
         <v>43441</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v>43544</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3154,7 +3154,7 @@
         <v>43969</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3244,7 +3244,7 @@
         <v>44362</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3329,7 +3329,7 @@
         <v>44410</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3414,7 +3414,7 @@
         <v>44426</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3499,7 +3499,7 @@
         <v>44454</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3584,7 +3584,7 @@
         <v>44470</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3669,7 +3669,7 @@
         <v>44473</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>44603</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>44705</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>44798</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>44798</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>44897</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4188,7 +4188,7 @@
         <v>44931</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
         <v>45036</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4362,7 +4362,7 @@
         <v>45040</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>45061</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>45062</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         <v>45072</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>45090</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>43432</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>43447</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4910,7 +4910,7 @@
         <v>43448</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4967,7 +4967,7 @@
         <v>43452</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5024,7 +5024,7 @@
         <v>43453</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5086,7 +5086,7 @@
         <v>43455</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5143,7 +5143,7 @@
         <v>43461</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5200,7 +5200,7 @@
         <v>43473</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5257,7 +5257,7 @@
         <v>43473</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5314,7 +5314,7 @@
         <v>43486</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5371,7 +5371,7 @@
         <v>43507</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5428,7 +5428,7 @@
         <v>43544</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5485,7 +5485,7 @@
         <v>43544</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5542,7 +5542,7 @@
         <v>43544</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5599,7 +5599,7 @@
         <v>43550</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5656,7 +5656,7 @@
         <v>43556</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5718,7 +5718,7 @@
         <v>43581</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         <v>43601</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5832,7 +5832,7 @@
         <v>43606</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5889,7 +5889,7 @@
         <v>43613</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43614</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         <v>43614</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         <v>43614</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>43630</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6174,7 +6174,7 @@
         <v>43642</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
         <v>43648</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6293,7 +6293,7 @@
         <v>43649</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         <v>43660</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6412,7 +6412,7 @@
         <v>43704</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         <v>43704</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         <v>43707</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>43739</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         <v>43767</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>43768</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         <v>43783</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6811,7 +6811,7 @@
         <v>43803</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         <v>43808</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6925,7 +6925,7 @@
         <v>43812</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6982,7 +6982,7 @@
         <v>43893</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7039,7 +7039,7 @@
         <v>43902</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7096,7 +7096,7 @@
         <v>43909</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7153,7 +7153,7 @@
         <v>43918</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7215,7 +7215,7 @@
         <v>43927</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7272,7 +7272,7 @@
         <v>43938</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7329,7 +7329,7 @@
         <v>43941</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7386,7 +7386,7 @@
         <v>43948</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7443,7 +7443,7 @@
         <v>43957</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7500,7 +7500,7 @@
         <v>43971</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7562,7 +7562,7 @@
         <v>43991</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7619,7 +7619,7 @@
         <v>44064</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7676,7 +7676,7 @@
         <v>44104</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7733,7 +7733,7 @@
         <v>44105</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         <v>44110</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7852,7 +7852,7 @@
         <v>44110</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7909,7 +7909,7 @@
         <v>44110</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7971,7 +7971,7 @@
         <v>44110</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>44118</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>44120</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>44120</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8219,7 +8219,7 @@
         <v>44132</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8276,7 +8276,7 @@
         <v>44145</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8333,7 +8333,7 @@
         <v>44147</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8390,7 +8390,7 @@
         <v>44154</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8447,7 +8447,7 @@
         <v>44167</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8504,7 +8504,7 @@
         <v>44168</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8561,7 +8561,7 @@
         <v>44172</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8618,7 +8618,7 @@
         <v>44174</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8675,7 +8675,7 @@
         <v>44203</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8737,7 +8737,7 @@
         <v>44222</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>44228</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>44244</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>44274</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>44279</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>44280</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>44280</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         <v>44286</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>44287</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9255,7 +9255,7 @@
         <v>44293</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9312,7 +9312,7 @@
         <v>44293</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9374,7 +9374,7 @@
         <v>44298</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9431,7 +9431,7 @@
         <v>44299</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9488,7 +9488,7 @@
         <v>44305</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9545,7 +9545,7 @@
         <v>44306</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9602,7 +9602,7 @@
         <v>44308</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9659,7 +9659,7 @@
         <v>44319</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9716,7 +9716,7 @@
         <v>44337</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9773,7 +9773,7 @@
         <v>44341</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9830,7 +9830,7 @@
         <v>44361</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9887,7 +9887,7 @@
         <v>44376</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9944,7 +9944,7 @@
         <v>44377</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10006,7 +10006,7 @@
         <v>44379</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10063,7 +10063,7 @@
         <v>44379</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10120,7 +10120,7 @@
         <v>44384</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10177,7 +10177,7 @@
         <v>44384</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10234,7 +10234,7 @@
         <v>44384</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10291,7 +10291,7 @@
         <v>44389</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10348,7 +10348,7 @@
         <v>44389</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10405,7 +10405,7 @@
         <v>44393</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10462,7 +10462,7 @@
         <v>44393</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10519,7 +10519,7 @@
         <v>44399</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         <v>44399</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10638,7 +10638,7 @@
         <v>44417</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10695,7 +10695,7 @@
         <v>44420</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10752,7 +10752,7 @@
         <v>44426</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10809,7 +10809,7 @@
         <v>44427</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10866,7 +10866,7 @@
         <v>44433</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10923,7 +10923,7 @@
         <v>44434</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10980,7 +10980,7 @@
         <v>44438</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11042,7 +11042,7 @@
         <v>44438</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11104,7 +11104,7 @@
         <v>44438</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11166,7 +11166,7 @@
         <v>44439</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11223,7 +11223,7 @@
         <v>44441</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11280,7 +11280,7 @@
         <v>44452</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11337,7 +11337,7 @@
         <v>44452</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11394,7 +11394,7 @@
         <v>44452</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11451,7 +11451,7 @@
         <v>44452</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11508,7 +11508,7 @@
         <v>44454</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         <v>44461</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>44466</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11679,7 +11679,7 @@
         <v>44466</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         <v>44467</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11793,7 +11793,7 @@
         <v>44468</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11850,7 +11850,7 @@
         <v>44475</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11912,7 +11912,7 @@
         <v>44475</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11974,7 +11974,7 @@
         <v>44487</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12031,7 +12031,7 @@
         <v>44487</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12088,7 +12088,7 @@
         <v>44488</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>44488</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12202,7 +12202,7 @@
         <v>44493</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         <v>44494</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12316,7 +12316,7 @@
         <v>44494</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12373,7 +12373,7 @@
         <v>44494</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12430,7 +12430,7 @@
         <v>44494</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12507,7 +12507,7 @@
         <v>44494</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12564,7 +12564,7 @@
         <v>44495</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12621,7 +12621,7 @@
         <v>44496</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12678,7 +12678,7 @@
         <v>44497</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12735,7 +12735,7 @@
         <v>44500</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12792,7 +12792,7 @@
         <v>44505</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12849,7 +12849,7 @@
         <v>44510</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12906,7 +12906,7 @@
         <v>44524</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12968,7 +12968,7 @@
         <v>44529</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13025,7 +13025,7 @@
         <v>44547</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13082,7 +13082,7 @@
         <v>44550</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13139,7 +13139,7 @@
         <v>44550</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13196,7 +13196,7 @@
         <v>44565</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13253,7 +13253,7 @@
         <v>44575</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13310,7 +13310,7 @@
         <v>44579</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13367,7 +13367,7 @@
         <v>44587</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13424,7 +13424,7 @@
         <v>44588</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13481,7 +13481,7 @@
         <v>44592</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13538,7 +13538,7 @@
         <v>44601</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13595,7 +13595,7 @@
         <v>44610</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13652,7 +13652,7 @@
         <v>44623</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13709,7 +13709,7 @@
         <v>44624</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13766,7 +13766,7 @@
         <v>44670</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13823,7 +13823,7 @@
         <v>44673</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13880,7 +13880,7 @@
         <v>44675</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13937,7 +13937,7 @@
         <v>44705</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13994,7 +13994,7 @@
         <v>44713</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14056,7 +14056,7 @@
         <v>44717</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14113,7 +14113,7 @@
         <v>44728</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14170,7 +14170,7 @@
         <v>44733</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14227,7 +14227,7 @@
         <v>44733</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14284,7 +14284,7 @@
         <v>44741</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14341,7 +14341,7 @@
         <v>44755</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14398,7 +14398,7 @@
         <v>44755</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14455,7 +14455,7 @@
         <v>44781</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14512,7 +14512,7 @@
         <v>44781</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14569,7 +14569,7 @@
         <v>44788</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         <v>44792</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14683,7 +14683,7 @@
         <v>44792</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14740,7 +14740,7 @@
         <v>44798</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14797,7 +14797,7 @@
         <v>44799</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14859,7 +14859,7 @@
         <v>44799</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14916,7 +14916,7 @@
         <v>44799</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14978,7 +14978,7 @@
         <v>44799</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15040,7 +15040,7 @@
         <v>44804</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15097,7 +15097,7 @@
         <v>44805</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15154,7 +15154,7 @@
         <v>44812</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15216,7 +15216,7 @@
         <v>44820</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15273,7 +15273,7 @@
         <v>44820</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15335,7 +15335,7 @@
         <v>44830</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15392,7 +15392,7 @@
         <v>44830</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15449,7 +15449,7 @@
         <v>44832</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15506,7 +15506,7 @@
         <v>44832</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15563,7 +15563,7 @@
         <v>44837</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15620,7 +15620,7 @@
         <v>44837</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15677,7 +15677,7 @@
         <v>44869</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15734,7 +15734,7 @@
         <v>44879</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15796,7 +15796,7 @@
         <v>44886</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15853,7 +15853,7 @@
         <v>44887</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15910,7 +15910,7 @@
         <v>44889</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15967,7 +15967,7 @@
         <v>44900</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>44908</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16081,7 +16081,7 @@
         <v>44911</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16138,7 +16138,7 @@
         <v>44935</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16200,7 +16200,7 @@
         <v>44935</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16257,7 +16257,7 @@
         <v>44950</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16314,7 +16314,7 @@
         <v>44951</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16371,7 +16371,7 @@
         <v>44958</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16433,7 +16433,7 @@
         <v>44972</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16490,7 +16490,7 @@
         <v>44977</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16547,7 +16547,7 @@
         <v>44977</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16604,7 +16604,7 @@
         <v>44981</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16661,7 +16661,7 @@
         <v>44987</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16718,7 +16718,7 @@
         <v>44988</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16795,7 +16795,7 @@
         <v>44992</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16852,7 +16852,7 @@
         <v>44992</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16909,7 +16909,7 @@
         <v>44992</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16966,7 +16966,7 @@
         <v>44999</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17028,7 +17028,7 @@
         <v>44999</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17090,7 +17090,7 @@
         <v>45008</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17147,7 +17147,7 @@
         <v>45015</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17204,7 +17204,7 @@
         <v>45016</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17261,7 +17261,7 @@
         <v>45016</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17318,7 +17318,7 @@
         <v>45021</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17380,7 +17380,7 @@
         <v>45027</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17437,7 +17437,7 @@
         <v>45036</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17494,7 +17494,7 @@
         <v>45036</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17551,7 +17551,7 @@
         <v>45036</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17608,7 +17608,7 @@
         <v>45036</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17665,7 +17665,7 @@
         <v>45044</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17722,7 +17722,7 @@
         <v>45044</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17779,7 +17779,7 @@
         <v>45049</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17841,7 +17841,7 @@
         <v>45054</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17903,7 +17903,7 @@
         <v>45054</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17965,7 +17965,7 @@
         <v>45054</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18022,7 +18022,7 @@
         <v>45054</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18079,7 +18079,7 @@
         <v>45054</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18136,7 +18136,7 @@
         <v>45056</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18198,7 +18198,7 @@
         <v>45062</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18255,7 +18255,7 @@
         <v>45068</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18312,7 +18312,7 @@
         <v>45076</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18369,7 +18369,7 @@
         <v>45079</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18426,7 +18426,7 @@
         <v>45079</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18483,7 +18483,7 @@
         <v>45096</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18540,7 +18540,7 @@
         <v>45097</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18597,7 +18597,7 @@
         <v>45099</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18654,7 +18654,7 @@
         <v>45099</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18711,7 +18711,7 @@
         <v>45105</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18773,7 +18773,7 @@
         <v>45110</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18830,7 +18830,7 @@
         <v>45110</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18887,7 +18887,7 @@
         <v>45110</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18944,7 +18944,7 @@
         <v>45116</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19001,7 +19001,7 @@
         <v>45117</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19058,7 +19058,7 @@
         <v>45117</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19115,7 +19115,7 @@
         <v>45139</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19172,7 +19172,7 @@
         <v>45140</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19229,7 +19229,7 @@
         <v>45146</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19286,7 +19286,7 @@
         <v>45173</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19343,7 +19343,7 @@
         <v>45182</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19400,7 +19400,7 @@
         <v>45188</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>

--- a/Översikt BORLÄNGE.xlsx
+++ b/Översikt BORLÄNGE.xlsx
@@ -572,7 +572,7 @@
         <v>44512</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,14 +660,14 @@
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A 73613-2021</t>
+          <t>A 59728-2021</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>44552</v>
+        <v>44494</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -680,39 +680,136 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>28</v>
+        <v>6.7</v>
       </c>
       <c r="H3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3</v>
+      </c>
+      <c r="K3" t="n">
         <v>1</v>
       </c>
-      <c r="I3" t="n">
-        <v>3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>6</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q3" t="n">
         <v>9</v>
       </c>
       <c r="R3" s="2" t="inlineStr">
+        <is>
+          <t>Citronporing
+Knärot
+Gransotdyna
+Ullticka
+Vedtrappmossa
+Bronshjon
+Fjällig taggsvamp s.str.
+Blåsippa
+Lopplummer</t>
+        </is>
+      </c>
+      <c r="S3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 59728-2021.xlsx", "A 59728-2021")</f>
+        <v/>
+      </c>
+      <c r="T3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 59728-2021.png", "A 59728-2021")</f>
+        <v/>
+      </c>
+      <c r="U3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/knärot/A 59728-2021.png", "A 59728-2021")</f>
+        <v/>
+      </c>
+      <c r="V3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 59728-2021.docx", "A 59728-2021")</f>
+        <v/>
+      </c>
+      <c r="W3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 59728-2021.docx", "A 59728-2021")</f>
+        <v/>
+      </c>
+      <c r="X3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 59728-2021.docx", "A 59728-2021")</f>
+        <v/>
+      </c>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 59728-2021.docx", "A 59728-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A 73613-2021</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>44552</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>BORLÄNGE</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>28</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>6</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>9</v>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>Garnlav
 Motaggsvamp
@@ -725,87 +822,87 @@
 Vedticka</t>
         </is>
       </c>
-      <c r="S3">
+      <c r="S4">
         <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 73613-2021.xlsx", "A 73613-2021")</f>
         <v/>
       </c>
-      <c r="T3">
+      <c r="T4">
         <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 73613-2021.png", "A 73613-2021")</f>
         <v/>
       </c>
-      <c r="V3">
+      <c r="V4">
         <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 73613-2021.docx", "A 73613-2021")</f>
         <v/>
       </c>
-      <c r="W3">
+      <c r="W4">
         <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 73613-2021.docx", "A 73613-2021")</f>
         <v/>
       </c>
-      <c r="X3">
+      <c r="X4">
         <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 73613-2021.docx", "A 73613-2021")</f>
         <v/>
       </c>
-      <c r="Y3">
+      <c r="Y4">
         <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 73613-2021.docx", "A 73613-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>A 55504-2022</t>
         </is>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B5" s="1" t="n">
         <v>44887</v>
       </c>
-      <c r="C4" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>BORLÄNGE</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
+      <c r="C5" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>BORLÄNGE</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
         <v>15.1</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H5" t="n">
         <v>1</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I5" t="n">
         <v>2</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J5" t="n">
         <v>5</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K5" t="n">
         <v>2</v>
       </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>7</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P5" t="n">
         <v>2</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q5" t="n">
         <v>9</v>
       </c>
-      <c r="R4" s="2" t="inlineStr">
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Rynkskinn
@@ -818,125 +915,32 @@
 Vedticka</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 55504-2022.xlsx", "A 55504-2022")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 55504-2022.png", "A 55504-2022")</f>
         <v/>
       </c>
-      <c r="U4">
+      <c r="U5">
         <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/knärot/A 55504-2022.png", "A 55504-2022")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 55504-2022.docx", "A 55504-2022")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 55504-2022.docx", "A 55504-2022")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 55504-2022.docx", "A 55504-2022")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 55504-2022.docx", "A 55504-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 59728-2021</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>44494</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>BORLÄNGE</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>2</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>5</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Citronporing
-Knärot
-Bronshjon
-Blåsippa
-Lopplummer</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 59728-2021.xlsx", "A 59728-2021")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 59728-2021.png", "A 59728-2021")</f>
-        <v/>
-      </c>
-      <c r="U5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/knärot/A 59728-2021.png", "A 59728-2021")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 59728-2021.docx", "A 59728-2021")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 59728-2021.docx", "A 59728-2021")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 59728-2021.docx", "A 59728-2021")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 59728-2021.docx", "A 59728-2021")</f>
         <v/>
       </c>
     </row>
@@ -950,7 +954,7 @@
         <v>45069</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1043,7 +1047,7 @@
         <v>44274</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1131,7 +1135,7 @@
         <v>44824</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1223,7 +1227,7 @@
         <v>45028</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1315,7 +1319,7 @@
         <v>43544</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1402,7 +1406,7 @@
         <v>43781</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1489,7 +1493,7 @@
         <v>44599</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1576,7 +1580,7 @@
         <v>45072</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1667,7 +1671,7 @@
         <v>43431</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1753,7 +1757,7 @@
         <v>43811</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1839,7 +1843,7 @@
         <v>44420</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1929,7 +1933,7 @@
         <v>44453</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2019,7 +2023,7 @@
         <v>44463</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2103,14 +2107,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 63118-2021</t>
+          <t>A 59701-2021</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44505</v>
+        <v>44494</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2123,19 +2127,19 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>11.9</v>
+        <v>3.9</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -2150,752 +2154,753 @@
         <v>1</v>
       </c>
       <c r="P19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>2</v>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
+          <t>Ullticka
+Svavelriska</t>
+        </is>
+      </c>
+      <c r="S19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 59701-2021.xlsx", "A 59701-2021")</f>
+        <v/>
+      </c>
+      <c r="T19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 59701-2021.png", "A 59701-2021")</f>
+        <v/>
+      </c>
+      <c r="V19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 59701-2021.docx", "A 59701-2021")</f>
+        <v/>
+      </c>
+      <c r="W19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 59701-2021.docx", "A 59701-2021")</f>
+        <v/>
+      </c>
+      <c r="X19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 59701-2021.docx", "A 59701-2021")</f>
+        <v/>
+      </c>
+      <c r="Y19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 59701-2021.docx", "A 59701-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>A 63118-2021</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>44505</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>BORLÄNGE</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2</v>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
           <t>Knärot
 Dropptaggsvamp</t>
         </is>
       </c>
-      <c r="S19">
+      <c r="S20">
         <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 63118-2021.xlsx", "A 63118-2021")</f>
         <v/>
       </c>
-      <c r="T19">
+      <c r="T20">
         <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 63118-2021.png", "A 63118-2021")</f>
         <v/>
       </c>
-      <c r="U19">
+      <c r="U20">
         <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/knärot/A 63118-2021.png", "A 63118-2021")</f>
         <v/>
       </c>
-      <c r="V19">
+      <c r="V20">
         <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 63118-2021.docx", "A 63118-2021")</f>
         <v/>
       </c>
-      <c r="W19">
+      <c r="W20">
         <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 63118-2021.docx", "A 63118-2021")</f>
         <v/>
       </c>
-      <c r="X19">
+      <c r="X20">
         <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 63118-2021.docx", "A 63118-2021")</f>
         <v/>
       </c>
-      <c r="Y19">
+      <c r="Y20">
         <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 63118-2021.docx", "A 63118-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="inlineStr">
+    <row r="21" ht="15" customHeight="1">
+      <c r="A21" t="inlineStr">
         <is>
           <t>A 52510-2022</t>
         </is>
       </c>
-      <c r="B20" s="1" t="n">
+      <c r="B21" s="1" t="n">
         <v>44874</v>
       </c>
-      <c r="C20" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>BORLÄNGE</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
+      <c r="C21" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>BORLÄNGE</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
         <v>1</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>1</v>
       </c>
-      <c r="J20" t="n">
+      <c r="J21" t="n">
         <v>1</v>
       </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
         <v>1</v>
       </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
         <v>2</v>
       </c>
-      <c r="R20" s="2" t="inlineStr">
+      <c r="R21" s="2" t="inlineStr">
         <is>
           <t>Gränsticka
 Vedticka</t>
         </is>
       </c>
-      <c r="S20">
+      <c r="S21">
         <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 52510-2022.xlsx", "A 52510-2022")</f>
         <v/>
       </c>
-      <c r="T20">
+      <c r="T21">
         <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 52510-2022.png", "A 52510-2022")</f>
         <v/>
       </c>
-      <c r="V20">
+      <c r="V21">
         <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 52510-2022.docx", "A 52510-2022")</f>
         <v/>
       </c>
-      <c r="W20">
+      <c r="W21">
         <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 52510-2022.docx", "A 52510-2022")</f>
         <v/>
       </c>
-      <c r="X20">
+      <c r="X21">
         <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 52510-2022.docx", "A 52510-2022")</f>
         <v/>
       </c>
-      <c r="Y20">
+      <c r="Y21">
         <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 52510-2022.docx", "A 52510-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" t="inlineStr">
+    <row r="22" ht="15" customHeight="1">
+      <c r="A22" t="inlineStr">
         <is>
           <t>A 59665-2022</t>
         </is>
       </c>
-      <c r="B21" s="1" t="n">
+      <c r="B22" s="1" t="n">
         <v>44908</v>
       </c>
-      <c r="C21" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>BORLÄNGE</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
+      <c r="C22" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>BORLÄNGE</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
         <v>16.1</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H22" t="n">
         <v>2</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
         <v>1</v>
       </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
         <v>1</v>
       </c>
-      <c r="P21" t="n">
+      <c r="P22" t="n">
         <v>1</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="Q22" t="n">
         <v>2</v>
       </c>
-      <c r="R21" s="2" t="inlineStr">
+      <c r="R22" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Fläcknycklar</t>
         </is>
       </c>
-      <c r="S21">
+      <c r="S22">
         <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 59665-2022.xlsx", "A 59665-2022")</f>
         <v/>
       </c>
-      <c r="T21">
+      <c r="T22">
         <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 59665-2022.png", "A 59665-2022")</f>
         <v/>
       </c>
-      <c r="U21">
+      <c r="U22">
         <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/knärot/A 59665-2022.png", "A 59665-2022")</f>
         <v/>
       </c>
-      <c r="V21">
+      <c r="V22">
         <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 59665-2022.docx", "A 59665-2022")</f>
         <v/>
       </c>
-      <c r="W21">
+      <c r="W22">
         <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 59665-2022.docx", "A 59665-2022")</f>
         <v/>
       </c>
-      <c r="X21">
+      <c r="X22">
         <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 59665-2022.docx", "A 59665-2022")</f>
         <v/>
       </c>
-      <c r="Y21">
+      <c r="Y22">
         <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 59665-2022.docx", "A 59665-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" t="inlineStr">
+    <row r="23" ht="15" customHeight="1">
+      <c r="A23" t="inlineStr">
         <is>
           <t>A 12314-2023</t>
         </is>
       </c>
-      <c r="B22" s="1" t="n">
+      <c r="B23" s="1" t="n">
         <v>44996</v>
       </c>
-      <c r="C22" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>BORLÄNGE</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
+      <c r="C23" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>BORLÄNGE</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
         <v>22.7</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>1</v>
       </c>
-      <c r="J22" t="n">
+      <c r="J23" t="n">
         <v>1</v>
       </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
         <v>1</v>
       </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
         <v>2</v>
       </c>
-      <c r="R22" s="2" t="inlineStr">
+      <c r="R23" s="2" t="inlineStr">
         <is>
           <t>Skrovlig taggsvamp
 Dropptaggsvamp</t>
         </is>
       </c>
-      <c r="S22">
+      <c r="S23">
         <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 12314-2023.xlsx", "A 12314-2023")</f>
         <v/>
       </c>
-      <c r="T22">
+      <c r="T23">
         <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 12314-2023.png", "A 12314-2023")</f>
         <v/>
       </c>
-      <c r="V22">
+      <c r="V23">
         <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 12314-2023.docx", "A 12314-2023")</f>
         <v/>
       </c>
-      <c r="W22">
+      <c r="W23">
         <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 12314-2023.docx", "A 12314-2023")</f>
         <v/>
       </c>
-      <c r="X22">
+      <c r="X23">
         <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 12314-2023.docx", "A 12314-2023")</f>
         <v/>
       </c>
-      <c r="Y22">
+      <c r="Y23">
         <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 12314-2023.docx", "A 12314-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="inlineStr">
+    <row r="24" ht="15" customHeight="1">
+      <c r="A24" t="inlineStr">
         <is>
           <t>A 12444-2023</t>
         </is>
       </c>
-      <c r="B23" s="1" t="n">
+      <c r="B24" s="1" t="n">
         <v>44999</v>
       </c>
-      <c r="C23" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>BORLÄNGE</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
+      <c r="C24" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>BORLÄNGE</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
         <v>7.5</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H24" t="n">
         <v>1</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
         <v>2</v>
       </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
         <v>2</v>
       </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
         <v>2</v>
       </c>
-      <c r="R23" s="2" t="inlineStr">
+      <c r="R24" s="2" t="inlineStr">
         <is>
           <t>Dofttaggsvamp
 Talltita</t>
         </is>
       </c>
-      <c r="S23">
+      <c r="S24">
         <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 12444-2023.xlsx", "A 12444-2023")</f>
         <v/>
       </c>
-      <c r="T23">
+      <c r="T24">
         <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 12444-2023.png", "A 12444-2023")</f>
         <v/>
       </c>
-      <c r="V23">
+      <c r="V24">
         <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 12444-2023.docx", "A 12444-2023")</f>
         <v/>
       </c>
-      <c r="W23">
+      <c r="W24">
         <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 12444-2023.docx", "A 12444-2023")</f>
         <v/>
       </c>
-      <c r="X23">
+      <c r="X24">
         <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 12444-2023.docx", "A 12444-2023")</f>
         <v/>
       </c>
-      <c r="Y23">
+      <c r="Y24">
         <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 12444-2023.docx", "A 12444-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" t="inlineStr">
+    <row r="25" ht="15" customHeight="1">
+      <c r="A25" t="inlineStr">
         <is>
           <t>A 21926-2023</t>
         </is>
       </c>
-      <c r="B24" s="1" t="n">
+      <c r="B25" s="1" t="n">
         <v>45068</v>
       </c>
-      <c r="C24" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>BORLÄNGE</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
+      <c r="C25" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>BORLÄNGE</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
         <v>1.4</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H25" t="n">
         <v>1</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I25" t="n">
         <v>1</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
         <v>1</v>
       </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
         <v>1</v>
       </c>
-      <c r="P24" t="n">
+      <c r="P25" t="n">
         <v>1</v>
       </c>
-      <c r="Q24" t="n">
+      <c r="Q25" t="n">
         <v>2</v>
       </c>
-      <c r="R24" s="2" t="inlineStr">
+      <c r="R25" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Vedticka</t>
         </is>
       </c>
-      <c r="S24">
+      <c r="S25">
         <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 21926-2023.xlsx", "A 21926-2023")</f>
         <v/>
       </c>
-      <c r="T24">
+      <c r="T25">
         <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 21926-2023.png", "A 21926-2023")</f>
         <v/>
       </c>
-      <c r="U24">
+      <c r="U25">
         <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/knärot/A 21926-2023.png", "A 21926-2023")</f>
         <v/>
       </c>
-      <c r="V24">
+      <c r="V25">
         <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 21926-2023.docx", "A 21926-2023")</f>
         <v/>
       </c>
-      <c r="W24">
+      <c r="W25">
         <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 21926-2023.docx", "A 21926-2023")</f>
         <v/>
       </c>
-      <c r="X24">
+      <c r="X25">
         <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 21926-2023.docx", "A 21926-2023")</f>
         <v/>
       </c>
-      <c r="Y24">
+      <c r="Y25">
         <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 21926-2023.docx", "A 21926-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="1">
-      <c r="A25" t="inlineStr">
+    <row r="26" ht="15" customHeight="1">
+      <c r="A26" t="inlineStr">
         <is>
           <t>A 23652-2023</t>
         </is>
       </c>
-      <c r="B25" s="1" t="n">
+      <c r="B26" s="1" t="n">
         <v>45074</v>
       </c>
-      <c r="C25" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>BORLÄNGE</t>
-        </is>
-      </c>
-      <c r="G25" t="n">
+      <c r="C26" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>BORLÄNGE</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
         <v>1.4</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H26" t="n">
         <v>1</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I26" t="n">
         <v>1</v>
       </c>
-      <c r="J25" t="n">
+      <c r="J26" t="n">
         <v>1</v>
       </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
         <v>1</v>
       </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
         <v>2</v>
       </c>
-      <c r="R25" s="2" t="inlineStr">
+      <c r="R26" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Tibast</t>
         </is>
       </c>
-      <c r="S25">
+      <c r="S26">
         <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 23652-2023.xlsx", "A 23652-2023")</f>
         <v/>
       </c>
-      <c r="T25">
+      <c r="T26">
         <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 23652-2023.png", "A 23652-2023")</f>
         <v/>
       </c>
-      <c r="V25">
+      <c r="V26">
         <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 23652-2023.docx", "A 23652-2023")</f>
         <v/>
       </c>
-      <c r="W25">
+      <c r="W26">
         <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 23652-2023.docx", "A 23652-2023")</f>
         <v/>
       </c>
-      <c r="X25">
+      <c r="X26">
         <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 23652-2023.docx", "A 23652-2023")</f>
         <v/>
       </c>
-      <c r="Y25">
+      <c r="Y26">
         <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 23652-2023.docx", "A 23652-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1">
-      <c r="A26" t="inlineStr">
+    <row r="27" ht="15" customHeight="1">
+      <c r="A27" t="inlineStr">
         <is>
           <t>A 31680-2023</t>
         </is>
       </c>
-      <c r="B26" s="1" t="n">
+      <c r="B27" s="1" t="n">
         <v>45117</v>
       </c>
-      <c r="C26" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>BORLÄNGE</t>
-        </is>
-      </c>
-      <c r="G26" t="n">
+      <c r="C27" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>BORLÄNGE</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
         <v>2.8</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H27" t="n">
         <v>1</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I27" t="n">
         <v>1</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
         <v>2</v>
       </c>
-      <c r="R26" s="2" t="inlineStr">
+      <c r="R27" s="2" t="inlineStr">
         <is>
           <t>Vågbandad barkbock
 Blåsippa</t>
         </is>
       </c>
-      <c r="S26">
+      <c r="S27">
         <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 31680-2023.xlsx", "A 31680-2023")</f>
         <v/>
       </c>
-      <c r="T26">
+      <c r="T27">
         <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 31680-2023.png", "A 31680-2023")</f>
         <v/>
       </c>
-      <c r="V26">
+      <c r="V27">
         <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 31680-2023.docx", "A 31680-2023")</f>
         <v/>
       </c>
-      <c r="W26">
+      <c r="W27">
         <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 31680-2023.docx", "A 31680-2023")</f>
         <v/>
       </c>
-      <c r="X26">
+      <c r="X27">
         <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 31680-2023.docx", "A 31680-2023")</f>
         <v/>
       </c>
-      <c r="Y26">
+      <c r="Y27">
         <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 31680-2023.docx", "A 31680-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" ht="15" customHeight="1">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>A 58399-2018</t>
-        </is>
-      </c>
-      <c r="B27" s="1" t="n">
-        <v>43409</v>
-      </c>
-      <c r="C27" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>BORLÄNGE</t>
-        </is>
-      </c>
-      <c r="G27" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>1</v>
-      </c>
-      <c r="R27" s="2" t="inlineStr">
-        <is>
-          <t>Skarp dropptaggsvamp</t>
-        </is>
-      </c>
-      <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 58399-2018.xlsx", "A 58399-2018")</f>
-        <v/>
-      </c>
-      <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 58399-2018.png", "A 58399-2018")</f>
-        <v/>
-      </c>
-      <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 58399-2018.docx", "A 58399-2018")</f>
-        <v/>
-      </c>
-      <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 58399-2018.docx", "A 58399-2018")</f>
-        <v/>
-      </c>
-      <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 58399-2018.docx", "A 58399-2018")</f>
-        <v/>
-      </c>
-      <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 58399-2018.docx", "A 58399-2018")</f>
         <v/>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 66079-2018</t>
+          <t>A 58399-2018</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>43434</v>
+        <v>43409</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2908,7 +2913,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>5.8</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2942,45 +2947,45 @@
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 66079-2018.xlsx", "A 66079-2018")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 58399-2018.xlsx", "A 58399-2018")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 66079-2018.png", "A 66079-2018")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 58399-2018.png", "A 58399-2018")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 66079-2018.docx", "A 66079-2018")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 58399-2018.docx", "A 58399-2018")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 66079-2018.docx", "A 66079-2018")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 58399-2018.docx", "A 58399-2018")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 66079-2018.docx", "A 66079-2018")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 58399-2018.docx", "A 58399-2018")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 66079-2018.docx", "A 66079-2018")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 58399-2018.docx", "A 58399-2018")</f>
         <v/>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 68272-2018</t>
+          <t>A 66079-2018</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>43441</v>
+        <v>43434</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2993,13 +2998,13 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>7.2</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -3011,61 +3016,61 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>1</v>
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>Skogsalm</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 68272-2018.xlsx", "A 68272-2018")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 66079-2018.xlsx", "A 66079-2018")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 68272-2018.png", "A 68272-2018")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 66079-2018.png", "A 66079-2018")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 68272-2018.docx", "A 68272-2018")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 66079-2018.docx", "A 66079-2018")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 68272-2018.docx", "A 68272-2018")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 66079-2018.docx", "A 66079-2018")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 68272-2018.docx", "A 68272-2018")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 66079-2018.docx", "A 66079-2018")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 68272-2018.docx", "A 68272-2018")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 66079-2018.docx", "A 66079-2018")</f>
         <v/>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 16079-2019</t>
+          <t>A 68272-2018</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>43544</v>
+        <v>43441</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3078,25 +3083,25 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3.3</v>
+        <v>7.2</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
         <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
-        <v>1</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -3112,49 +3117,45 @@
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Skogsalm</t>
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 16079-2019.xlsx", "A 16079-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 68272-2018.xlsx", "A 68272-2018")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 16079-2019.png", "A 16079-2019")</f>
-        <v/>
-      </c>
-      <c r="U30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/knärot/A 16079-2019.png", "A 16079-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 68272-2018.png", "A 68272-2018")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 16079-2019.docx", "A 16079-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 68272-2018.docx", "A 68272-2018")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 16079-2019.docx", "A 16079-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 68272-2018.docx", "A 68272-2018")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 16079-2019.docx", "A 16079-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 68272-2018.docx", "A 68272-2018")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 16079-2019.docx", "A 16079-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 68272-2018.docx", "A 68272-2018")</f>
         <v/>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 23553-2020</t>
+          <t>A 16079-2019</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>43969</v>
+        <v>43544</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3166,13 +3167,8 @@
           <t>BORLÄNGE</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G31" t="n">
-        <v>13</v>
+        <v>3.3</v>
       </c>
       <c r="H31" t="n">
         <v>1</v>
@@ -3184,7 +3180,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -3196,55 +3192,59 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31" t="n">
         <v>1</v>
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 23553-2020.xlsx", "A 23553-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 16079-2019.xlsx", "A 16079-2019")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 23553-2020.png", "A 23553-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 16079-2019.png", "A 16079-2019")</f>
+        <v/>
+      </c>
+      <c r="U31">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/knärot/A 16079-2019.png", "A 16079-2019")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 23553-2020.docx", "A 23553-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 16079-2019.docx", "A 16079-2019")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 23553-2020.docx", "A 23553-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 16079-2019.docx", "A 16079-2019")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 23553-2020.docx", "A 23553-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 16079-2019.docx", "A 16079-2019")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 23553-2020.docx", "A 23553-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 16079-2019.docx", "A 16079-2019")</f>
         <v/>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 29908-2021</t>
+          <t>A 23553-2020</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44362</v>
+        <v>43969</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3256,14 +3256,19 @@
           <t>BORLÄNGE</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G32" t="n">
-        <v>4.6</v>
+        <v>13</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3291,45 +3296,45 @@
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 29908-2021.xlsx", "A 29908-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 23553-2020.xlsx", "A 23553-2020")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 29908-2021.png", "A 29908-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 23553-2020.png", "A 23553-2020")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 29908-2021.docx", "A 29908-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 23553-2020.docx", "A 23553-2020")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 29908-2021.docx", "A 29908-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 23553-2020.docx", "A 23553-2020")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 29908-2021.docx", "A 29908-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 23553-2020.docx", "A 23553-2020")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 29908-2021.docx", "A 29908-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 23553-2020.docx", "A 23553-2020")</f>
         <v/>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 38708-2021</t>
+          <t>A 29908-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44410</v>
+        <v>44362</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3342,16 +3347,16 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.1</v>
+        <v>4.6</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3366,7 +3371,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -3376,45 +3381,45 @@
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 38708-2021.xlsx", "A 38708-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 29908-2021.xlsx", "A 29908-2021")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 38708-2021.png", "A 38708-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 29908-2021.png", "A 29908-2021")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 38708-2021.docx", "A 38708-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 29908-2021.docx", "A 29908-2021")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 38708-2021.docx", "A 38708-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 29908-2021.docx", "A 29908-2021")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 38708-2021.docx", "A 38708-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 29908-2021.docx", "A 29908-2021")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 38708-2021.docx", "A 38708-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 29908-2021.docx", "A 29908-2021")</f>
         <v/>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 41874-2021</t>
+          <t>A 38708-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44426</v>
+        <v>44410</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3427,17 +3432,17 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>13</v>
+        <v>1.1</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
         <v>1</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
@@ -3451,7 +3456,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -3461,45 +3466,45 @@
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 41874-2021.xlsx", "A 41874-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 38708-2021.xlsx", "A 38708-2021")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 41874-2021.png", "A 41874-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 38708-2021.png", "A 38708-2021")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 41874-2021.docx", "A 41874-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 38708-2021.docx", "A 38708-2021")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 41874-2021.docx", "A 41874-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 38708-2021.docx", "A 38708-2021")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 41874-2021.docx", "A 41874-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 38708-2021.docx", "A 38708-2021")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 41874-2021.docx", "A 41874-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 38708-2021.docx", "A 38708-2021")</f>
         <v/>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 49776-2021</t>
+          <t>A 41874-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44454</v>
+        <v>44426</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3512,16 +3517,16 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.9</v>
+        <v>13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3536,7 +3541,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -3546,45 +3551,45 @@
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 49776-2021.xlsx", "A 49776-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 41874-2021.xlsx", "A 41874-2021")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 49776-2021.png", "A 49776-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 41874-2021.png", "A 41874-2021")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 49776-2021.docx", "A 49776-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 41874-2021.docx", "A 41874-2021")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 49776-2021.docx", "A 49776-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 41874-2021.docx", "A 41874-2021")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 49776-2021.docx", "A 49776-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 41874-2021.docx", "A 41874-2021")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 49776-2021.docx", "A 49776-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 41874-2021.docx", "A 41874-2021")</f>
         <v/>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 54045-2021</t>
+          <t>A 49776-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44470</v>
+        <v>44454</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3597,17 +3602,17 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
         <v>1</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
@@ -3621,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -3631,45 +3636,45 @@
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 54045-2021.xlsx", "A 54045-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 49776-2021.xlsx", "A 49776-2021")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 54045-2021.png", "A 54045-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 49776-2021.png", "A 49776-2021")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 54045-2021.docx", "A 54045-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 49776-2021.docx", "A 49776-2021")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 54045-2021.docx", "A 54045-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 49776-2021.docx", "A 49776-2021")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 54045-2021.docx", "A 54045-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 49776-2021.docx", "A 49776-2021")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 54045-2021.docx", "A 54045-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 49776-2021.docx", "A 49776-2021")</f>
         <v/>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 54699-2021</t>
+          <t>A 54045-2021</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44473</v>
+        <v>44470</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3681,13 +3686,8 @@
           <t>BORLÄNGE</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Naturvårdsverket</t>
-        </is>
-      </c>
       <c r="G37" t="n">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="H37" t="n">
         <v>1</v>
@@ -3699,7 +3699,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -3711,59 +3711,55 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>1</v>
       </c>
       <c r="R37" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 54699-2021.xlsx", "A 54699-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 54045-2021.xlsx", "A 54045-2021")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 54699-2021.png", "A 54699-2021")</f>
-        <v/>
-      </c>
-      <c r="U37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/knärot/A 54699-2021.png", "A 54699-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 54045-2021.png", "A 54045-2021")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 54699-2021.docx", "A 54699-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 54045-2021.docx", "A 54045-2021")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 54699-2021.docx", "A 54699-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 54045-2021.docx", "A 54045-2021")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 54699-2021.docx", "A 54699-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 54045-2021.docx", "A 54045-2021")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 54699-2021.docx", "A 54699-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 54045-2021.docx", "A 54045-2021")</f>
         <v/>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 6972-2022</t>
+          <t>A 54699-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44603</v>
+        <v>44473</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3775,20 +3771,25 @@
           <t>BORLÄNGE</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Naturvårdsverket</t>
+        </is>
+      </c>
       <c r="G38" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
         <v>1</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -3803,52 +3804,56 @@
         <v>1</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38" t="n">
         <v>1</v>
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>Leptoporus mollis</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 6972-2022.xlsx", "A 6972-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 54699-2021.xlsx", "A 54699-2021")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 6972-2022.png", "A 6972-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 54699-2021.png", "A 54699-2021")</f>
+        <v/>
+      </c>
+      <c r="U38">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/knärot/A 54699-2021.png", "A 54699-2021")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 6972-2022.docx", "A 6972-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 54699-2021.docx", "A 54699-2021")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 6972-2022.docx", "A 6972-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 54699-2021.docx", "A 54699-2021")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 6972-2022.docx", "A 6972-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 54699-2021.docx", "A 54699-2021")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 6972-2022.docx", "A 6972-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 54699-2021.docx", "A 54699-2021")</f>
         <v/>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 21302-2022</t>
+          <t>A 6972-2022</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44705</v>
+        <v>44603</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3861,10 +3866,10 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.9</v>
+        <v>3.5</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3895,45 +3900,45 @@
       </c>
       <c r="R39" s="2" t="inlineStr">
         <is>
-          <t>Brun gräsfjäril</t>
+          <t>Leptoporus mollis</t>
         </is>
       </c>
       <c r="S39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 21302-2022.xlsx", "A 21302-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 6972-2022.xlsx", "A 6972-2022")</f>
         <v/>
       </c>
       <c r="T39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 21302-2022.png", "A 21302-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 6972-2022.png", "A 6972-2022")</f>
         <v/>
       </c>
       <c r="V39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 21302-2022.docx", "A 21302-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 6972-2022.docx", "A 6972-2022")</f>
         <v/>
       </c>
       <c r="W39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 21302-2022.docx", "A 21302-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 6972-2022.docx", "A 6972-2022")</f>
         <v/>
       </c>
       <c r="X39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 21302-2022.docx", "A 21302-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 6972-2022.docx", "A 6972-2022")</f>
         <v/>
       </c>
       <c r="Y39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 21302-2022.docx", "A 21302-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 6972-2022.docx", "A 6972-2022")</f>
         <v/>
       </c>
     </row>
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 35370-2022</t>
+          <t>A 21302-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44798</v>
+        <v>44705</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3946,10 +3951,10 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3980,45 +3985,45 @@
       </c>
       <c r="R40" s="2" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Brun gräsfjäril</t>
         </is>
       </c>
       <c r="S40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 35370-2022.xlsx", "A 35370-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 21302-2022.xlsx", "A 21302-2022")</f>
         <v/>
       </c>
       <c r="T40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 35370-2022.png", "A 35370-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 21302-2022.png", "A 21302-2022")</f>
         <v/>
       </c>
       <c r="V40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 35370-2022.docx", "A 35370-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 21302-2022.docx", "A 21302-2022")</f>
         <v/>
       </c>
       <c r="W40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 35370-2022.docx", "A 35370-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 21302-2022.docx", "A 21302-2022")</f>
         <v/>
       </c>
       <c r="X40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 35370-2022.docx", "A 35370-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 21302-2022.docx", "A 21302-2022")</f>
         <v/>
       </c>
       <c r="Y40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 35370-2022.docx", "A 35370-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 21302-2022.docx", "A 21302-2022")</f>
         <v/>
       </c>
     </row>
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 35389-2022</t>
+          <t>A 35370-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
         <v>44798</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4031,7 +4036,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -4069,41 +4074,41 @@
         </is>
       </c>
       <c r="S41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 35389-2022.xlsx", "A 35389-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 35370-2022.xlsx", "A 35370-2022")</f>
         <v/>
       </c>
       <c r="T41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 35389-2022.png", "A 35389-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 35370-2022.png", "A 35370-2022")</f>
         <v/>
       </c>
       <c r="V41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 35389-2022.docx", "A 35389-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 35370-2022.docx", "A 35370-2022")</f>
         <v/>
       </c>
       <c r="W41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 35389-2022.docx", "A 35389-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 35370-2022.docx", "A 35370-2022")</f>
         <v/>
       </c>
       <c r="X41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 35389-2022.docx", "A 35389-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 35370-2022.docx", "A 35370-2022")</f>
         <v/>
       </c>
       <c r="Y41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 35389-2022.docx", "A 35389-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 35370-2022.docx", "A 35370-2022")</f>
         <v/>
       </c>
     </row>
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 57693-2022</t>
+          <t>A 35389-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44897</v>
+        <v>44798</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4116,17 +4121,17 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>8.6</v>
+        <v>0.5</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
         <v>1</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
@@ -4140,7 +4145,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -4150,45 +4155,45 @@
       </c>
       <c r="R42" s="2" t="inlineStr">
         <is>
-          <t>Nästlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="S42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 57693-2022.xlsx", "A 57693-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 35389-2022.xlsx", "A 35389-2022")</f>
         <v/>
       </c>
       <c r="T42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 57693-2022.png", "A 57693-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 35389-2022.png", "A 35389-2022")</f>
         <v/>
       </c>
       <c r="V42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 57693-2022.docx", "A 57693-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 35389-2022.docx", "A 35389-2022")</f>
         <v/>
       </c>
       <c r="W42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 57693-2022.docx", "A 57693-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 35389-2022.docx", "A 35389-2022")</f>
         <v/>
       </c>
       <c r="X42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 57693-2022.docx", "A 57693-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 35389-2022.docx", "A 35389-2022")</f>
         <v/>
       </c>
       <c r="Y42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 57693-2022.docx", "A 57693-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 35389-2022.docx", "A 35389-2022")</f>
         <v/>
       </c>
     </row>
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 865-2023</t>
+          <t>A 57693-2022</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44931</v>
+        <v>44897</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4201,19 +4206,19 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>3.1</v>
+        <v>8.6</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>1</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
       <c r="J43" t="n">
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -4225,59 +4230,55 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>1</v>
       </c>
       <c r="R43" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Nästlav</t>
         </is>
       </c>
       <c r="S43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 865-2023.xlsx", "A 865-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 57693-2022.xlsx", "A 57693-2022")</f>
         <v/>
       </c>
       <c r="T43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 865-2023.png", "A 865-2023")</f>
-        <v/>
-      </c>
-      <c r="U43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/knärot/A 865-2023.png", "A 865-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 57693-2022.png", "A 57693-2022")</f>
         <v/>
       </c>
       <c r="V43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 865-2023.docx", "A 865-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 57693-2022.docx", "A 57693-2022")</f>
         <v/>
       </c>
       <c r="W43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 865-2023.docx", "A 865-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 57693-2022.docx", "A 57693-2022")</f>
         <v/>
       </c>
       <c r="X43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 865-2023.docx", "A 865-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 57693-2022.docx", "A 57693-2022")</f>
         <v/>
       </c>
       <c r="Y43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 865-2023.docx", "A 865-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 57693-2022.docx", "A 57693-2022")</f>
         <v/>
       </c>
     </row>
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 17571-2023</t>
+          <t>A 865-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45036</v>
+        <v>44931</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4290,7 +4291,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="H44" t="n">
         <v>1</v>
@@ -4299,10 +4300,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
         <v>1</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -4317,52 +4318,56 @@
         <v>1</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44" t="n">
         <v>1</v>
       </c>
       <c r="R44" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 17571-2023.xlsx", "A 17571-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 865-2023.xlsx", "A 865-2023")</f>
         <v/>
       </c>
       <c r="T44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 17571-2023.png", "A 17571-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 865-2023.png", "A 865-2023")</f>
+        <v/>
+      </c>
+      <c r="U44">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/knärot/A 865-2023.png", "A 865-2023")</f>
         <v/>
       </c>
       <c r="V44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 17571-2023.docx", "A 17571-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 865-2023.docx", "A 865-2023")</f>
         <v/>
       </c>
       <c r="W44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 17571-2023.docx", "A 17571-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 865-2023.docx", "A 865-2023")</f>
         <v/>
       </c>
       <c r="X44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 17571-2023.docx", "A 17571-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 865-2023.docx", "A 865-2023")</f>
         <v/>
       </c>
       <c r="Y44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 17571-2023.docx", "A 17571-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 865-2023.docx", "A 865-2023")</f>
         <v/>
       </c>
     </row>
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 17913-2023</t>
+          <t>A 17571-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45040</v>
+        <v>45036</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4375,7 +4380,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>8.800000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="H45" t="n">
         <v>1</v>
@@ -4384,7 +4389,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4399,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -4409,45 +4414,45 @@
       </c>
       <c r="R45" s="2" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 17913-2023.xlsx", "A 17913-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 17571-2023.xlsx", "A 17571-2023")</f>
         <v/>
       </c>
       <c r="T45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 17913-2023.png", "A 17913-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 17571-2023.png", "A 17571-2023")</f>
         <v/>
       </c>
       <c r="V45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 17913-2023.docx", "A 17913-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 17571-2023.docx", "A 17571-2023")</f>
         <v/>
       </c>
       <c r="W45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 17913-2023.docx", "A 17913-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 17571-2023.docx", "A 17571-2023")</f>
         <v/>
       </c>
       <c r="X45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 17913-2023.docx", "A 17913-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 17571-2023.docx", "A 17571-2023")</f>
         <v/>
       </c>
       <c r="Y45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 17913-2023.docx", "A 17913-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 17571-2023.docx", "A 17571-2023")</f>
         <v/>
       </c>
     </row>
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 20925-2023</t>
+          <t>A 17913-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45061</v>
+        <v>45040</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4460,7 +4465,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>4.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H46" t="n">
         <v>1</v>
@@ -4472,7 +4477,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -4484,59 +4489,55 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>1</v>
       </c>
       <c r="R46" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="S46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 20925-2023.xlsx", "A 20925-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 17913-2023.xlsx", "A 17913-2023")</f>
         <v/>
       </c>
       <c r="T46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 20925-2023.png", "A 20925-2023")</f>
-        <v/>
-      </c>
-      <c r="U46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/knärot/A 20925-2023.png", "A 20925-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 17913-2023.png", "A 17913-2023")</f>
         <v/>
       </c>
       <c r="V46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 20925-2023.docx", "A 20925-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 17913-2023.docx", "A 17913-2023")</f>
         <v/>
       </c>
       <c r="W46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 20925-2023.docx", "A 20925-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 17913-2023.docx", "A 17913-2023")</f>
         <v/>
       </c>
       <c r="X46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 20925-2023.docx", "A 20925-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 17913-2023.docx", "A 17913-2023")</f>
         <v/>
       </c>
       <c r="Y46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 20925-2023.docx", "A 20925-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 17913-2023.docx", "A 17913-2023")</f>
         <v/>
       </c>
     </row>
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 21131-2023</t>
+          <t>A 20925-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45062</v>
+        <v>45061</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4549,19 +4550,19 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
       <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
         <v>1</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
@@ -4576,52 +4577,56 @@
         <v>1</v>
       </c>
       <c r="P47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47" t="n">
         <v>1</v>
       </c>
       <c r="R47" s="2" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 21131-2023.xlsx", "A 21131-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 20925-2023.xlsx", "A 20925-2023")</f>
         <v/>
       </c>
       <c r="T47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 21131-2023.png", "A 21131-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 20925-2023.png", "A 20925-2023")</f>
+        <v/>
+      </c>
+      <c r="U47">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/knärot/A 20925-2023.png", "A 20925-2023")</f>
         <v/>
       </c>
       <c r="V47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 21131-2023.docx", "A 21131-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 20925-2023.docx", "A 20925-2023")</f>
         <v/>
       </c>
       <c r="W47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 21131-2023.docx", "A 21131-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 20925-2023.docx", "A 20925-2023")</f>
         <v/>
       </c>
       <c r="X47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 21131-2023.docx", "A 21131-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 20925-2023.docx", "A 20925-2023")</f>
         <v/>
       </c>
       <c r="Y47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 21131-2023.docx", "A 21131-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 20925-2023.docx", "A 20925-2023")</f>
         <v/>
       </c>
     </row>
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 22900-2023</t>
+          <t>A 21131-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45072</v>
+        <v>45062</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4633,16 +4638,11 @@
           <t>BORLÄNGE</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G48" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -4673,45 +4673,45 @@
       </c>
       <c r="R48" s="2" t="inlineStr">
         <is>
-          <t>Brun gräsfjäril</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="S48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 22900-2023.xlsx", "A 22900-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 21131-2023.xlsx", "A 21131-2023")</f>
         <v/>
       </c>
       <c r="T48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 22900-2023.png", "A 22900-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 21131-2023.png", "A 21131-2023")</f>
         <v/>
       </c>
       <c r="V48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 22900-2023.docx", "A 22900-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 21131-2023.docx", "A 21131-2023")</f>
         <v/>
       </c>
       <c r="W48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 22900-2023.docx", "A 22900-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 21131-2023.docx", "A 21131-2023")</f>
         <v/>
       </c>
       <c r="X48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 22900-2023.docx", "A 22900-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 21131-2023.docx", "A 21131-2023")</f>
         <v/>
       </c>
       <c r="Y48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 22900-2023.docx", "A 22900-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 21131-2023.docx", "A 21131-2023")</f>
         <v/>
       </c>
     </row>
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 25763-2023</t>
+          <t>A 22900-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45090</v>
+        <v>45072</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4723,8 +4723,13 @@
           <t>BORLÄNGE</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G49" t="n">
-        <v>2.9</v>
+        <v>4.8</v>
       </c>
       <c r="H49" t="n">
         <v>1</v>
@@ -4733,7 +4738,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49" t="n">
         <v>0</v>
@@ -4748,7 +4753,7 @@
         <v>0</v>
       </c>
       <c r="O49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P49" t="n">
         <v>0</v>
@@ -4758,45 +4763,45 @@
       </c>
       <c r="R49" s="2" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Brun gräsfjäril</t>
         </is>
       </c>
       <c r="S49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 25763-2023.xlsx", "A 25763-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 22900-2023.xlsx", "A 22900-2023")</f>
         <v/>
       </c>
       <c r="T49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 25763-2023.png", "A 25763-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 22900-2023.png", "A 22900-2023")</f>
         <v/>
       </c>
       <c r="V49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 25763-2023.docx", "A 25763-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 22900-2023.docx", "A 22900-2023")</f>
         <v/>
       </c>
       <c r="W49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 25763-2023.docx", "A 25763-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 22900-2023.docx", "A 22900-2023")</f>
         <v/>
       </c>
       <c r="X49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 25763-2023.docx", "A 25763-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 22900-2023.docx", "A 22900-2023")</f>
         <v/>
       </c>
       <c r="Y49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 25763-2023.docx", "A 25763-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 22900-2023.docx", "A 22900-2023")</f>
         <v/>
       </c>
     </row>
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 65139-2018</t>
+          <t>A 25763-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>43432</v>
+        <v>45090</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4809,10 +4814,10 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4839,21 +4844,49 @@
         <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>0</v>
-      </c>
-      <c r="R50" s="2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="R50" s="2" t="inlineStr">
+        <is>
+          <t>Fläcknycklar</t>
+        </is>
+      </c>
+      <c r="S50">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/artfynd/A 25763-2023.xlsx", "A 25763-2023")</f>
+        <v/>
+      </c>
+      <c r="T50">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/kartor/A 25763-2023.png", "A 25763-2023")</f>
+        <v/>
+      </c>
+      <c r="V50">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 25763-2023.docx", "A 25763-2023")</f>
+        <v/>
+      </c>
+      <c r="W50">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 25763-2023.docx", "A 25763-2023")</f>
+        <v/>
+      </c>
+      <c r="X50">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 25763-2023.docx", "A 25763-2023")</f>
+        <v/>
+      </c>
+      <c r="Y50">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 25763-2023.docx", "A 25763-2023")</f>
+        <v/>
+      </c>
     </row>
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 69942-2018</t>
+          <t>A 65139-2018</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>43447</v>
+        <v>43432</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4866,7 +4899,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4903,14 +4936,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 70110-2018</t>
+          <t>A 69942-2018</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>43448</v>
+        <v>43447</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4923,7 +4956,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>11.9</v>
+        <v>0.7</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4960,14 +4993,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 71069-2018</t>
+          <t>A 70110-2018</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>43452</v>
+        <v>43448</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4980,7 +5013,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>11.9</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -5017,14 +5050,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 71411-2018</t>
+          <t>A 71069-2018</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>43453</v>
+        <v>43452</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5036,13 +5069,8 @@
           <t>BORLÄNGE</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G54" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -5079,14 +5107,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 71969-2018</t>
+          <t>A 71411-2018</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>43455</v>
+        <v>43453</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5098,8 +5126,13 @@
           <t>BORLÄNGE</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G55" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -5136,14 +5169,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 72393-2018</t>
+          <t>A 71969-2018</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>43461</v>
+        <v>43455</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5156,7 +5189,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -5193,14 +5226,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 1374-2019</t>
+          <t>A 72393-2018</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>43473</v>
+        <v>43461</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5213,7 +5246,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -5250,14 +5283,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 1382-2019</t>
+          <t>A 1374-2019</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
         <v>43473</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5270,7 +5303,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -5307,14 +5340,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 6261-2019</t>
+          <t>A 1382-2019</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>43486</v>
+        <v>43473</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5327,7 +5360,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>8</v>
+        <v>2.1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -5364,14 +5397,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 9264-2019</t>
+          <t>A 6261-2019</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>43507</v>
+        <v>43486</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5384,7 +5417,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.9</v>
+        <v>8</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -5421,14 +5454,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 16089-2019</t>
+          <t>A 9264-2019</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>43544</v>
+        <v>43507</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5441,7 +5474,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>3.2</v>
+        <v>0.9</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -5478,14 +5511,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 16087-2019</t>
+          <t>A 16089-2019</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
         <v>43544</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5498,7 +5531,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5535,14 +5568,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 16081-2019</t>
+          <t>A 16087-2019</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
         <v>43544</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5555,7 +5588,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5592,14 +5625,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 16954-2019</t>
+          <t>A 16081-2019</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>43550</v>
+        <v>43544</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5612,7 +5645,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5649,14 +5682,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 17996-2019</t>
+          <t>A 16954-2019</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>43556</v>
+        <v>43550</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5668,13 +5701,8 @@
           <t>BORLÄNGE</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G65" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5711,14 +5739,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 21707-2019</t>
+          <t>A 17996-2019</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>43581</v>
+        <v>43556</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5730,8 +5758,13 @@
           <t>BORLÄNGE</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G66" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5768,14 +5801,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 24586-2019</t>
+          <t>A 21707-2019</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>43601</v>
+        <v>43581</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5788,7 +5821,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5825,14 +5858,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 25421-2019</t>
+          <t>A 24586-2019</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>43606</v>
+        <v>43601</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5845,7 +5878,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5882,14 +5915,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 26874-2019</t>
+          <t>A 25421-2019</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>43613</v>
+        <v>43606</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5902,7 +5935,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5939,14 +5972,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 27009-2019</t>
+          <t>A 26874-2019</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>43614</v>
+        <v>43613</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5959,7 +5992,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5996,14 +6029,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 27062-2019</t>
+          <t>A 27009-2019</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
         <v>43614</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6016,7 +6049,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -6053,14 +6086,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 27008-2019</t>
+          <t>A 27062-2019</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
         <v>43614</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6073,7 +6106,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -6110,14 +6143,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 29697-2019</t>
+          <t>A 27008-2019</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>43630</v>
+        <v>43614</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6130,7 +6163,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -6167,14 +6200,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 31833-2019</t>
+          <t>A 29697-2019</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>43642</v>
+        <v>43630</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6187,7 +6220,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -6224,14 +6257,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 32826-2019</t>
+          <t>A 31833-2019</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>43648</v>
+        <v>43642</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6243,13 +6276,8 @@
           <t>BORLÄNGE</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G75" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -6286,14 +6314,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 33003-2019</t>
+          <t>A 32826-2019</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>43649</v>
+        <v>43648</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6311,7 +6339,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -6348,14 +6376,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 34992-2019</t>
+          <t>A 33003-2019</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>43660</v>
+        <v>43649</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6367,8 +6395,13 @@
           <t>BORLÄNGE</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G77" t="n">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -6405,14 +6438,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 42531-2019</t>
+          <t>A 34992-2019</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>43704</v>
+        <v>43660</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6425,7 +6458,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>6.6</v>
+        <v>2.9</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -6462,14 +6495,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 42540-2019</t>
+          <t>A 42531-2019</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
         <v>43704</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6482,7 +6515,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.3</v>
+        <v>6.6</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6519,14 +6552,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 43835-2019</t>
+          <t>A 42540-2019</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>43707</v>
+        <v>43704</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6539,7 +6572,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6576,14 +6609,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 51019-2019</t>
+          <t>A 43835-2019</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>43739</v>
+        <v>43707</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6596,7 +6629,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6633,14 +6666,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 57297-2019</t>
+          <t>A 51019-2019</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>43767</v>
+        <v>43739</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6653,7 +6686,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6690,14 +6723,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 57618-2019</t>
+          <t>A 57297-2019</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>43768</v>
+        <v>43767</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6710,7 +6743,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6747,14 +6780,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 61288-2019</t>
+          <t>A 57618-2019</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>43783</v>
+        <v>43768</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6767,7 +6800,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6804,14 +6837,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 66563-2019</t>
+          <t>A 61288-2019</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>43803</v>
+        <v>43783</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6824,7 +6857,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6861,14 +6894,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 66159-2019</t>
+          <t>A 66563-2019</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>43808</v>
+        <v>43803</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6881,7 +6914,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6918,14 +6951,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 67435-2019</t>
+          <t>A 66159-2019</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>43812</v>
+        <v>43808</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6938,7 +6971,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6975,14 +7008,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 11590-2020</t>
+          <t>A 67435-2019</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>43893</v>
+        <v>43812</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6995,7 +7028,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>3</v>
+        <v>0.7</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -7032,14 +7065,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 13404-2020</t>
+          <t>A 11590-2020</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>43902</v>
+        <v>43893</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7052,7 +7085,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -7089,14 +7122,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 14736-2020</t>
+          <t>A 13404-2020</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>43909</v>
+        <v>43902</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7109,7 +7142,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -7146,14 +7179,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 16404-2020</t>
+          <t>A 14736-2020</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>43918</v>
+        <v>43909</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7165,13 +7198,8 @@
           <t>BORLÄNGE</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G91" t="n">
-        <v>15.2</v>
+        <v>2.4</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -7208,14 +7236,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 18108-2020</t>
+          <t>A 16404-2020</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>43927</v>
+        <v>43918</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7227,8 +7255,13 @@
           <t>BORLÄNGE</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G92" t="n">
-        <v>3.4</v>
+        <v>15.2</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -7265,14 +7298,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 19446-2020</t>
+          <t>A 18108-2020</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>43938</v>
+        <v>43927</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7285,7 +7318,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0.6</v>
+        <v>3.4</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -7322,14 +7355,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 19667-2020</t>
+          <t>A 19446-2020</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>43941</v>
+        <v>43938</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7342,7 +7375,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -7379,14 +7412,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 20501-2020</t>
+          <t>A 19667-2020</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>43948</v>
+        <v>43941</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7399,7 +7432,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -7436,14 +7469,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 21684-2020</t>
+          <t>A 20501-2020</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>43957</v>
+        <v>43948</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7456,7 +7489,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.2</v>
+        <v>2.7</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7493,14 +7526,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 23998-2020</t>
+          <t>A 21684-2020</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>43971</v>
+        <v>43957</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7512,13 +7545,8 @@
           <t>BORLÄNGE</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G97" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7555,14 +7583,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 27064-2020</t>
+          <t>A 23998-2020</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>43991</v>
+        <v>43971</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7574,8 +7602,13 @@
           <t>BORLÄNGE</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G98" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7612,14 +7645,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 39449-2020</t>
+          <t>A 27064-2020</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44064</v>
+        <v>43991</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7632,7 +7665,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7669,14 +7702,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 50164-2020</t>
+          <t>A 39449-2020</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44104</v>
+        <v>44064</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7689,7 +7722,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>3.8</v>
+        <v>0.9</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7726,14 +7759,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 49348-2020</t>
+          <t>A 50164-2020</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44105</v>
+        <v>44104</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7743,11 +7776,6 @@
       <c r="E101" t="inlineStr">
         <is>
           <t>BORLÄNGE</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G101" t="n">
@@ -7788,14 +7816,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 50437-2020</t>
+          <t>A 49348-2020</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44110</v>
+        <v>44105</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7807,8 +7835,13 @@
           <t>BORLÄNGE</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G102" t="n">
-        <v>1.5</v>
+        <v>3.8</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7845,14 +7878,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 50441-2020</t>
+          <t>A 50437-2020</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
         <v>44110</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7865,7 +7898,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7902,14 +7935,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 50459-2020</t>
+          <t>A 50441-2020</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
         <v>44110</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7921,13 +7954,8 @@
           <t>BORLÄNGE</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G104" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7964,14 +7992,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 50496-2020</t>
+          <t>A 50459-2020</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
         <v>44110</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7989,7 +8017,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -8026,14 +8054,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 52515-2020</t>
+          <t>A 50496-2020</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44118</v>
+        <v>44110</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8051,7 +8079,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>8.300000000000001</v>
+        <v>2.9</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -8088,14 +8116,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 52943-2020</t>
+          <t>A 52515-2020</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44120</v>
+        <v>44118</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8109,11 +8137,11 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>3.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -8150,14 +8178,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 52957-2020</t>
+          <t>A 52943-2020</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
         <v>44120</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8175,7 +8203,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.2</v>
+        <v>3.1</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -8212,14 +8240,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 55730-2020</t>
+          <t>A 52957-2020</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44132</v>
+        <v>44120</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8231,8 +8259,13 @@
           <t>BORLÄNGE</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G109" t="n">
-        <v>4.1</v>
+        <v>1.2</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -8269,14 +8302,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 58625-2020</t>
+          <t>A 55730-2020</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44145</v>
+        <v>44132</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8289,7 +8322,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.8</v>
+        <v>4.1</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -8326,14 +8359,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 59228-2020</t>
+          <t>A 58625-2020</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44147</v>
+        <v>44145</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8346,7 +8379,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -8383,14 +8416,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 60899-2020</t>
+          <t>A 59228-2020</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44154</v>
+        <v>44147</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8403,7 +8436,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8440,14 +8473,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 64036-2020</t>
+          <t>A 60899-2020</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44167</v>
+        <v>44154</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8460,7 +8493,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8497,14 +8530,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 64260-2020</t>
+          <t>A 64036-2020</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44168</v>
+        <v>44167</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8554,14 +8587,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 64934-2020</t>
+          <t>A 64260-2020</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44172</v>
+        <v>44168</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8574,7 +8607,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8611,14 +8644,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 65908-2020</t>
+          <t>A 64934-2020</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44174</v>
+        <v>44172</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8631,7 +8664,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8668,14 +8701,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 599-2021</t>
+          <t>A 65908-2020</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44203</v>
+        <v>44174</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8685,11 +8718,6 @@
       <c r="E117" t="inlineStr">
         <is>
           <t>BORLÄNGE</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
         </is>
       </c>
       <c r="G117" t="n">
@@ -8730,14 +8758,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 3964-2021</t>
+          <t>A 599-2021</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44222</v>
+        <v>44203</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8749,8 +8777,13 @@
           <t>BORLÄNGE</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G118" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8787,14 +8820,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 5058-2021</t>
+          <t>A 3964-2021</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>44228</v>
+        <v>44222</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8807,7 +8840,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>4.2</v>
+        <v>0.6</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8844,14 +8877,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 8208-2021</t>
+          <t>A 5058-2021</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>44244</v>
+        <v>44228</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8864,7 +8897,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8901,14 +8934,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 13702-2021</t>
+          <t>A 8208-2021</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44274</v>
+        <v>44244</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8921,7 +8954,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0.5</v>
+        <v>4.8</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8958,14 +8991,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 14432-2021</t>
+          <t>A 13702-2021</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44279</v>
+        <v>44274</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8978,7 +9011,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -9015,14 +9048,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 14691-2021</t>
+          <t>A 14432-2021</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44280</v>
+        <v>44279</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9035,7 +9068,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>11.7</v>
+        <v>2</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -9072,14 +9105,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 14622-2021</t>
+          <t>A 14691-2021</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
         <v>44280</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9092,7 +9125,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>0.8</v>
+        <v>11.7</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -9129,14 +9162,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 15786-2021</t>
+          <t>A 14622-2021</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>44286</v>
+        <v>44280</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9149,7 +9182,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>3</v>
+        <v>0.8</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -9186,14 +9219,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 15979-2021</t>
+          <t>A 15786-2021</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44287</v>
+        <v>44286</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9205,13 +9238,8 @@
           <t>BORLÄNGE</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G126" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -9248,14 +9276,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 16377-2021</t>
+          <t>A 15979-2021</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44293</v>
+        <v>44287</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9267,8 +9295,13 @@
           <t>BORLÄNGE</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G127" t="n">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -9305,14 +9338,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 16413-2021</t>
+          <t>A 16377-2021</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
         <v>44293</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9324,13 +9357,8 @@
           <t>BORLÄNGE</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G128" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -9367,14 +9395,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 17204-2021</t>
+          <t>A 16413-2021</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>44298</v>
+        <v>44293</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9386,8 +9414,13 @@
           <t>BORLÄNGE</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G129" t="n">
-        <v>16.7</v>
+        <v>1.9</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -9424,14 +9457,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 17572-2021</t>
+          <t>A 17204-2021</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44299</v>
+        <v>44298</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9444,7 +9477,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>4.5</v>
+        <v>16.7</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -9481,14 +9514,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 18393-2021</t>
+          <t>A 17572-2021</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>44305</v>
+        <v>44299</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9501,7 +9534,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>0.5</v>
+        <v>4.5</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -9538,14 +9571,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 18481-2021</t>
+          <t>A 18393-2021</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44306</v>
+        <v>44305</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9558,7 +9591,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -9595,14 +9628,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 19096-2021</t>
+          <t>A 18481-2021</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>44308</v>
+        <v>44306</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9615,7 +9648,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9652,14 +9685,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 20865-2021</t>
+          <t>A 19096-2021</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>44319</v>
+        <v>44308</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9672,7 +9705,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>0.2</v>
+        <v>1.2</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9709,14 +9742,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 24350-2021</t>
+          <t>A 20865-2021</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44337</v>
+        <v>44319</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9766,14 +9799,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 24992-2021</t>
+          <t>A 24350-2021</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44341</v>
+        <v>44337</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9786,7 +9819,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.6</v>
+        <v>0.2</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9823,14 +9856,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 29305-2021</t>
+          <t>A 24992-2021</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44361</v>
+        <v>44341</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9843,7 +9876,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>6.4</v>
+        <v>1.6</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9880,14 +9913,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 32977-2021</t>
+          <t>A 29305-2021</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44376</v>
+        <v>44361</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9900,7 +9933,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.6</v>
+        <v>6.4</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9937,14 +9970,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 33460-2021</t>
+          <t>A 32977-2021</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>44377</v>
+        <v>44376</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9956,13 +9989,8 @@
           <t>BORLÄNGE</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G139" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9999,14 +10027,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 34087-2021</t>
+          <t>A 33460-2021</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>44379</v>
+        <v>44377</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10018,8 +10046,13 @@
           <t>BORLÄNGE</t>
         </is>
       </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G140" t="n">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -10056,14 +10089,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 34107-2021</t>
+          <t>A 34087-2021</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
         <v>44379</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10076,7 +10109,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.1</v>
+        <v>3.3</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -10113,14 +10146,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 36356-2021</t>
+          <t>A 34107-2021</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44384</v>
+        <v>44379</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10133,7 +10166,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -10170,14 +10203,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 36349-2021</t>
+          <t>A 36356-2021</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
         <v>44384</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10190,7 +10223,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -10227,14 +10260,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 35237-2021</t>
+          <t>A 36349-2021</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
         <v>44384</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10247,7 +10280,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>2.3</v>
+        <v>0.8</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -10284,14 +10317,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 36269-2021</t>
+          <t>A 35237-2021</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>44389</v>
+        <v>44384</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10304,7 +10337,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -10341,14 +10374,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 36261-2021</t>
+          <t>A 36269-2021</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
         <v>44389</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10361,7 +10394,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>3.9</v>
+        <v>1.2</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -10398,14 +10431,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 36863-2021</t>
+          <t>A 36261-2021</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>44393</v>
+        <v>44389</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10418,7 +10451,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>5.5</v>
+        <v>3.9</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -10455,14 +10488,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 36860-2021</t>
+          <t>A 36863-2021</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
         <v>44393</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10475,7 +10508,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>2.9</v>
+        <v>5.5</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -10512,14 +10545,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 37535-2021</t>
+          <t>A 36860-2021</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>44399</v>
+        <v>44393</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10532,7 +10565,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>0.4</v>
+        <v>2.9</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -10569,14 +10602,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 37534-2021</t>
+          <t>A 37535-2021</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
         <v>44399</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10588,13 +10621,8 @@
           <t>BORLÄNGE</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G150" t="n">
-        <v>2.1</v>
+        <v>0.4</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -10631,14 +10659,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 39970-2021</t>
+          <t>A 37534-2021</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44417</v>
+        <v>44399</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10650,8 +10678,13 @@
           <t>BORLÄNGE</t>
         </is>
       </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G151" t="n">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -10688,14 +10721,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 40570-2021</t>
+          <t>A 39970-2021</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>44420</v>
+        <v>44417</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10708,7 +10741,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10745,14 +10778,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 41857-2021</t>
+          <t>A 40570-2021</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>44426</v>
+        <v>44420</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10765,7 +10798,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>5.3</v>
+        <v>0.9</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10802,14 +10835,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 42478-2021</t>
+          <t>A 41857-2021</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>44427</v>
+        <v>44426</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10822,7 +10855,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>0.8</v>
+        <v>5.3</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10859,14 +10892,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 43531-2021</t>
+          <t>A 42478-2021</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>44433</v>
+        <v>44427</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10879,7 +10912,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>6.8</v>
+        <v>0.8</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10916,14 +10949,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 43944-2021</t>
+          <t>A 43531-2021</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>44434</v>
+        <v>44433</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10936,7 +10969,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>0.5</v>
+        <v>6.8</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10973,14 +11006,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 50325-2021</t>
+          <t>A 43944-2021</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>44438</v>
+        <v>44434</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10992,13 +11025,8 @@
           <t>BORLÄNGE</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G157" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -11035,14 +11063,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 50418-2021</t>
+          <t>A 50325-2021</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
         <v>44438</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11060,7 +11088,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -11097,14 +11125,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 45083-2021</t>
+          <t>A 50418-2021</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
         <v>44438</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11122,7 +11150,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>3.2</v>
+        <v>0.5</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -11159,14 +11187,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 45085-2021</t>
+          <t>A 45083-2021</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>44439</v>
+        <v>44438</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11178,8 +11206,13 @@
           <t>BORLÄNGE</t>
         </is>
       </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G160" t="n">
-        <v>7.5</v>
+        <v>3.2</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -11216,14 +11249,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 45755-2021</t>
+          <t>A 45085-2021</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>44441</v>
+        <v>44439</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11236,7 +11269,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>2.7</v>
+        <v>7.5</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -11273,14 +11306,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 48524-2021</t>
+          <t>A 45755-2021</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>44452</v>
+        <v>44441</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11293,7 +11326,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>3.7</v>
+        <v>2.7</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -11330,14 +11363,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 48450-2021</t>
+          <t>A 48524-2021</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
         <v>44452</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11350,7 +11383,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>5.2</v>
+        <v>3.7</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -11387,14 +11420,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 48493-2021</t>
+          <t>A 48450-2021</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
         <v>44452</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11407,7 +11440,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>10.3</v>
+        <v>5.2</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -11444,14 +11477,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 48511-2021</t>
+          <t>A 48493-2021</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
         <v>44452</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11464,7 +11497,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1.3</v>
+        <v>10.3</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -11501,14 +11534,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 49737-2021</t>
+          <t>A 48511-2021</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>44454</v>
+        <v>44452</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11521,7 +11554,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -11558,14 +11591,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 51308-2021</t>
+          <t>A 49737-2021</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>44461</v>
+        <v>44454</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11578,7 +11611,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -11615,14 +11648,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 52634-2021</t>
+          <t>A 51308-2021</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>44466</v>
+        <v>44461</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11635,7 +11668,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>10.9</v>
+        <v>3.2</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -11672,14 +11705,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 52681-2021</t>
+          <t>A 52634-2021</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
         <v>44466</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11692,7 +11725,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>3.5</v>
+        <v>10.9</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11729,14 +11762,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 53092-2021</t>
+          <t>A 52681-2021</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44467</v>
+        <v>44466</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11749,7 +11782,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>0.4</v>
+        <v>3.5</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11786,14 +11819,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 53455-2021</t>
+          <t>A 53092-2021</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>44468</v>
+        <v>44467</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11806,7 +11839,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11843,14 +11876,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 55525-2021</t>
+          <t>A 53455-2021</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>44475</v>
+        <v>44468</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11862,13 +11895,8 @@
           <t>BORLÄNGE</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G172" t="n">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11905,14 +11933,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 55707-2021</t>
+          <t>A 55525-2021</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
         <v>44475</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11926,7 +11954,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G173" t="n">
@@ -11967,14 +11995,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 58237-2021</t>
+          <t>A 55707-2021</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>44487</v>
+        <v>44475</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11986,8 +12014,13 @@
           <t>BORLÄNGE</t>
         </is>
       </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G174" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -12024,14 +12057,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 58242-2021</t>
+          <t>A 58237-2021</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
         <v>44487</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12044,7 +12077,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -12081,14 +12114,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 58556-2021</t>
+          <t>A 58242-2021</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>44488</v>
+        <v>44487</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12101,7 +12134,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -12138,14 +12171,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 58747-2021</t>
+          <t>A 58556-2021</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
         <v>44488</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12195,14 +12228,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 59633-2021</t>
+          <t>A 58747-2021</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>44493</v>
+        <v>44488</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12215,7 +12248,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>3.6</v>
+        <v>1</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -12252,14 +12285,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 59764-2021</t>
+          <t>A 59633-2021</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>44494</v>
+        <v>44493</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12272,7 +12305,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1</v>
+        <v>3.6</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -12309,14 +12342,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 59772-2021</t>
+          <t>A 59764-2021</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
         <v>44494</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12329,7 +12362,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -12366,14 +12399,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 59759-2021</t>
+          <t>A 59772-2021</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
         <v>44494</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12386,7 +12419,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -12423,14 +12456,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 59674-2021</t>
+          <t>A 59759-2021</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
         <v>44494</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12443,7 +12476,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -12476,38 +12509,18 @@
         <v>0</v>
       </c>
       <c r="R182" s="2" t="inlineStr"/>
-      <c r="U182">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/knärot/A 59674-2021.png", "A 59674-2021")</f>
-        <v/>
-      </c>
-      <c r="V182">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 59674-2021.docx", "A 59674-2021")</f>
-        <v/>
-      </c>
-      <c r="W182">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 59674-2021.docx", "A 59674-2021")</f>
-        <v/>
-      </c>
-      <c r="X182">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 59674-2021.docx", "A 59674-2021")</f>
-        <v/>
-      </c>
-      <c r="Y182">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 59674-2021.docx", "A 59674-2021")</f>
-        <v/>
-      </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 59701-2021</t>
+          <t>A 59674-2021</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
         <v>44494</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12520,7 +12533,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>3.9</v>
+        <v>1</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -12553,6 +12566,26 @@
         <v>0</v>
       </c>
       <c r="R183" s="2" t="inlineStr"/>
+      <c r="U183">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/knärot/A 59674-2021.png", "A 59674-2021")</f>
+        <v/>
+      </c>
+      <c r="V183">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomål/A 59674-2021.docx", "A 59674-2021")</f>
+        <v/>
+      </c>
+      <c r="W183">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/klagomålsmail/A 59674-2021.docx", "A 59674-2021")</f>
+        <v/>
+      </c>
+      <c r="X183">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsyn/A 59674-2021.docx", "A 59674-2021")</f>
+        <v/>
+      </c>
+      <c r="Y183">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORLANGE/tillsynsmail/A 59674-2021.docx", "A 59674-2021")</f>
+        <v/>
+      </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
@@ -12564,7 +12597,7 @@
         <v>44495</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12621,7 +12654,7 @@
         <v>44496</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12678,7 +12711,7 @@
         <v>44497</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12735,7 +12768,7 @@
         <v>44500</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12792,7 +12825,7 @@
         <v>44505</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12849,7 +12882,7 @@
         <v>44510</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12906,7 +12939,7 @@
         <v>44524</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12968,7 +13001,7 @@
         <v>44529</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13025,7 +13058,7 @@
         <v>44547</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13082,7 +13115,7 @@
         <v>44550</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13139,7 +13172,7 @@
         <v>44550</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13196,7 +13229,7 @@
         <v>44565</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13253,7 +13286,7 @@
         <v>44575</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13310,7 +13343,7 @@
         <v>44579</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13367,7 +13400,7 @@
         <v>44587</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13424,7 +13457,7 @@
         <v>44588</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13481,7 +13514,7 @@
         <v>44592</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13538,7 +13571,7 @@
         <v>44601</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13595,7 +13628,7 @@
         <v>44610</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13652,7 +13685,7 @@
         <v>44623</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13709,7 +13742,7 @@
         <v>44624</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13766,7 +13799,7 @@
         <v>44670</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13823,7 +13856,7 @@
         <v>44673</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13880,7 +13913,7 @@
         <v>44675</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13937,7 +13970,7 @@
         <v>44705</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13994,7 +14027,7 @@
         <v>44713</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14056,7 +14089,7 @@
         <v>44717</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14113,7 +14146,7 @@
         <v>44728</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14170,7 +14203,7 @@
         <v>44733</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14227,7 +14260,7 @@
         <v>44733</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14284,7 +14317,7 @@
         <v>44741</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14341,7 +14374,7 @@
         <v>44755</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14398,7 +14431,7 @@
         <v>44755</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14455,7 +14488,7 @@
         <v>44781</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14512,7 +14545,7 @@
         <v>44781</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14569,7 +14602,7 @@
         <v>44788</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14626,7 +14659,7 @@
         <v>44792</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14683,7 +14716,7 @@
         <v>44792</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14740,7 +14773,7 @@
         <v>44798</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14797,7 +14830,7 @@
         <v>44799</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14859,7 +14892,7 @@
         <v>44799</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14916,7 +14949,7 @@
         <v>44799</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14978,7 +15011,7 @@
         <v>44799</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15040,7 +15073,7 @@
         <v>44804</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15097,7 +15130,7 @@
         <v>44805</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15154,7 +15187,7 @@
         <v>44812</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15216,7 +15249,7 @@
         <v>44820</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15273,7 +15306,7 @@
         <v>44820</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15335,7 +15368,7 @@
         <v>44830</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15392,7 +15425,7 @@
         <v>44830</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15449,7 +15482,7 @@
         <v>44832</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15506,7 +15539,7 @@
         <v>44832</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15563,7 +15596,7 @@
         <v>44837</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15620,7 +15653,7 @@
         <v>44837</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15677,7 +15710,7 @@
         <v>44869</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15734,7 +15767,7 @@
         <v>44879</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15796,7 +15829,7 @@
         <v>44886</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15853,7 +15886,7 @@
         <v>44887</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15910,7 +15943,7 @@
         <v>44889</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15967,7 +16000,7 @@
         <v>44900</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16024,7 +16057,7 @@
         <v>44908</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16081,7 +16114,7 @@
         <v>44911</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16138,7 +16171,7 @@
         <v>44935</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16200,7 +16233,7 @@
         <v>44935</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16257,7 +16290,7 @@
         <v>44950</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16314,7 +16347,7 @@
         <v>44951</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16371,7 +16404,7 @@
         <v>44958</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16433,7 +16466,7 @@
         <v>44972</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16490,7 +16523,7 @@
         <v>44977</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16547,7 +16580,7 @@
         <v>44977</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16604,7 +16637,7 @@
         <v>44981</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16661,7 +16694,7 @@
         <v>44987</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16718,7 +16751,7 @@
         <v>44988</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16795,7 +16828,7 @@
         <v>44992</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16852,7 +16885,7 @@
         <v>44992</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16909,7 +16942,7 @@
         <v>44992</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16966,7 +16999,7 @@
         <v>44999</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17028,7 +17061,7 @@
         <v>44999</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17090,7 +17123,7 @@
         <v>45008</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17147,7 +17180,7 @@
         <v>45015</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17204,7 +17237,7 @@
         <v>45016</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17261,7 +17294,7 @@
         <v>45016</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17318,7 +17351,7 @@
         <v>45021</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17380,7 +17413,7 @@
         <v>45027</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17437,7 +17470,7 @@
         <v>45036</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17494,7 +17527,7 @@
         <v>45036</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17551,7 +17584,7 @@
         <v>45036</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17608,7 +17641,7 @@
         <v>45036</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17665,7 +17698,7 @@
         <v>45044</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17722,7 +17755,7 @@
         <v>45044</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17779,7 +17812,7 @@
         <v>45049</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17841,7 +17874,7 @@
         <v>45054</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17903,7 +17936,7 @@
         <v>45054</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17965,7 +17998,7 @@
         <v>45054</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18022,7 +18055,7 @@
         <v>45054</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18079,7 +18112,7 @@
         <v>45054</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18136,7 +18169,7 @@
         <v>45056</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18198,7 +18231,7 @@
         <v>45062</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18255,7 +18288,7 @@
         <v>45068</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18312,7 +18345,7 @@
         <v>45076</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18369,7 +18402,7 @@
         <v>45079</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18426,7 +18459,7 @@
         <v>45079</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18483,7 +18516,7 @@
         <v>45096</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18540,7 +18573,7 @@
         <v>45097</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18597,7 +18630,7 @@
         <v>45099</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18654,7 +18687,7 @@
         <v>45099</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18711,7 +18744,7 @@
         <v>45105</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18773,7 +18806,7 @@
         <v>45110</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18830,7 +18863,7 @@
         <v>45110</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18887,7 +18920,7 @@
         <v>45110</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18944,7 +18977,7 @@
         <v>45116</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19001,7 +19034,7 @@
         <v>45117</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19058,7 +19091,7 @@
         <v>45117</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19115,7 +19148,7 @@
         <v>45139</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19172,7 +19205,7 @@
         <v>45140</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19229,7 +19262,7 @@
         <v>45146</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19286,7 +19319,7 @@
         <v>45173</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19343,7 +19376,7 @@
         <v>45182</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19400,7 +19433,7 @@
         <v>45188</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>

--- a/Översikt BORLÄNGE.xlsx
+++ b/Översikt BORLÄNGE.xlsx
@@ -572,7 +572,7 @@
         <v>44512</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44494</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>44552</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44887</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -954,7 +954,7 @@
         <v>45069</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
         <v>44274</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1135,7 +1135,7 @@
         <v>44824</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>45028</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1319,7 +1319,7 @@
         <v>43544</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1406,7 +1406,7 @@
         <v>43781</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1493,7 +1493,7 @@
         <v>44599</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1580,7 +1580,7 @@
         <v>45072</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
         <v>43431</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1757,7 +1757,7 @@
         <v>43811</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1843,7 +1843,7 @@
         <v>44420</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1933,7 +1933,7 @@
         <v>44453</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2023,7 +2023,7 @@
         <v>44463</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         <v>44494</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>44505</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2290,7 +2290,7 @@
         <v>44874</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>44908</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>44996</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>44999</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
         <v>45068</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
         <v>45074</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2814,7 +2814,7 @@
         <v>45117</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
         <v>43409</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>43434</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
         <v>43441</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3155,7 +3155,7 @@
         <v>43544</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3244,7 +3244,7 @@
         <v>43969</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3334,7 +3334,7 @@
         <v>44362</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         <v>44410</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3504,7 +3504,7 @@
         <v>44426</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>44454</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3674,7 +3674,7 @@
         <v>44470</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3759,7 +3759,7 @@
         <v>44473</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>44603</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3938,7 +3938,7 @@
         <v>44705</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4023,7 +4023,7 @@
         <v>44798</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4108,7 +4108,7 @@
         <v>44798</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4193,7 +4193,7 @@
         <v>44897</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>44931</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4367,7 +4367,7 @@
         <v>45036</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         <v>45040</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>45061</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         <v>45062</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>45072</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4801,7 +4801,7 @@
         <v>45090</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4886,7 +4886,7 @@
         <v>43432</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4943,7 +4943,7 @@
         <v>43447</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5000,7 +5000,7 @@
         <v>43448</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5057,7 +5057,7 @@
         <v>43452</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5114,7 +5114,7 @@
         <v>43453</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>43455</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         <v>43461</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>43473</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         <v>43473</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
         <v>43486</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>43507</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         <v>43544</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>43544</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>43544</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>43550</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>43556</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5808,7 +5808,7 @@
         <v>43581</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
         <v>43601</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5922,7 +5922,7 @@
         <v>43606</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5979,7 +5979,7 @@
         <v>43613</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6036,7 +6036,7 @@
         <v>43614</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6093,7 +6093,7 @@
         <v>43614</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6150,7 +6150,7 @@
         <v>43614</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6207,7 +6207,7 @@
         <v>43630</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6264,7 +6264,7 @@
         <v>43642</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6321,7 +6321,7 @@
         <v>43648</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6383,7 +6383,7 @@
         <v>43649</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6445,7 +6445,7 @@
         <v>43660</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6502,7 +6502,7 @@
         <v>43704</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         <v>43704</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         <v>43707</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>43739</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6730,7 +6730,7 @@
         <v>43767</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         <v>43768</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>43783</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6901,7 +6901,7 @@
         <v>43803</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         <v>43808</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>43812</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>43893</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>43902</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>43909</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>43918</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7305,7 +7305,7 @@
         <v>43927</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>43938</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7419,7 +7419,7 @@
         <v>43941</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7476,7 +7476,7 @@
         <v>43948</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         <v>43957</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7590,7 +7590,7 @@
         <v>43971</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7652,7 +7652,7 @@
         <v>43991</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7709,7 +7709,7 @@
         <v>44064</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>44104</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7823,7 +7823,7 @@
         <v>44105</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>44110</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7942,7 +7942,7 @@
         <v>44110</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7999,7 +7999,7 @@
         <v>44110</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8061,7 +8061,7 @@
         <v>44110</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>44118</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
         <v>44120</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8247,7 +8247,7 @@
         <v>44120</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8309,7 +8309,7 @@
         <v>44132</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8366,7 +8366,7 @@
         <v>44145</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8423,7 +8423,7 @@
         <v>44147</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8480,7 +8480,7 @@
         <v>44154</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8537,7 +8537,7 @@
         <v>44167</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>44168</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>44172</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>44174</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>44203</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8827,7 +8827,7 @@
         <v>44222</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         <v>44228</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>44244</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>44274</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9055,7 +9055,7 @@
         <v>44279</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9112,7 +9112,7 @@
         <v>44280</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9169,7 +9169,7 @@
         <v>44280</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>44286</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9283,7 +9283,7 @@
         <v>44287</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>44293</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9402,7 +9402,7 @@
         <v>44293</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>44298</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>44299</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>44305</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>44306</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>44308</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         <v>44319</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9806,7 +9806,7 @@
         <v>44337</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9863,7 +9863,7 @@
         <v>44341</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9920,7 +9920,7 @@
         <v>44361</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9977,7 +9977,7 @@
         <v>44376</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10034,7 +10034,7 @@
         <v>44377</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10096,7 +10096,7 @@
         <v>44379</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
         <v>44379</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10210,7 +10210,7 @@
         <v>44384</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10267,7 +10267,7 @@
         <v>44384</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10324,7 +10324,7 @@
         <v>44384</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10381,7 +10381,7 @@
         <v>44389</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10438,7 +10438,7 @@
         <v>44389</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10495,7 +10495,7 @@
         <v>44393</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10552,7 +10552,7 @@
         <v>44393</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10609,7 +10609,7 @@
         <v>44399</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10666,7 +10666,7 @@
         <v>44399</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10728,7 +10728,7 @@
         <v>44417</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10785,7 +10785,7 @@
         <v>44420</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10842,7 +10842,7 @@
         <v>44426</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>44427</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10956,7 +10956,7 @@
         <v>44433</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11013,7 +11013,7 @@
         <v>44434</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>44438</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         <v>44438</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11194,7 +11194,7 @@
         <v>44438</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11256,7 +11256,7 @@
         <v>44439</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11313,7 +11313,7 @@
         <v>44441</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11370,7 +11370,7 @@
         <v>44452</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11427,7 +11427,7 @@
         <v>44452</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11484,7 +11484,7 @@
         <v>44452</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11541,7 +11541,7 @@
         <v>44452</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11598,7 +11598,7 @@
         <v>44454</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11655,7 +11655,7 @@
         <v>44461</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11712,7 +11712,7 @@
         <v>44466</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11769,7 +11769,7 @@
         <v>44466</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11826,7 +11826,7 @@
         <v>44467</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11883,7 +11883,7 @@
         <v>44468</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11940,7 +11940,7 @@
         <v>44475</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12002,7 +12002,7 @@
         <v>44475</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12064,7 +12064,7 @@
         <v>44487</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12121,7 +12121,7 @@
         <v>44487</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12178,7 +12178,7 @@
         <v>44488</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12235,7 +12235,7 @@
         <v>44488</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12292,7 +12292,7 @@
         <v>44493</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12349,7 +12349,7 @@
         <v>44494</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12406,7 +12406,7 @@
         <v>44494</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12463,7 +12463,7 @@
         <v>44494</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12520,7 +12520,7 @@
         <v>44494</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12597,7 +12597,7 @@
         <v>44495</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12654,7 +12654,7 @@
         <v>44496</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12711,7 +12711,7 @@
         <v>44497</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12768,7 +12768,7 @@
         <v>44500</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12825,7 +12825,7 @@
         <v>44505</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12882,7 +12882,7 @@
         <v>44510</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12939,7 +12939,7 @@
         <v>44524</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13001,7 +13001,7 @@
         <v>44529</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13058,7 +13058,7 @@
         <v>44547</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13115,7 +13115,7 @@
         <v>44550</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13172,7 +13172,7 @@
         <v>44550</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13229,7 +13229,7 @@
         <v>44565</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13286,7 +13286,7 @@
         <v>44575</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13343,7 +13343,7 @@
         <v>44579</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13400,7 +13400,7 @@
         <v>44587</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13457,7 +13457,7 @@
         <v>44588</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13514,7 +13514,7 @@
         <v>44592</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13571,7 +13571,7 @@
         <v>44601</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13628,7 +13628,7 @@
         <v>44610</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13685,7 +13685,7 @@
         <v>44623</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13742,7 +13742,7 @@
         <v>44624</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13799,7 +13799,7 @@
         <v>44670</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13856,7 +13856,7 @@
         <v>44673</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13913,7 +13913,7 @@
         <v>44675</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13970,7 +13970,7 @@
         <v>44705</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14027,7 +14027,7 @@
         <v>44713</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14089,7 +14089,7 @@
         <v>44717</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14146,7 +14146,7 @@
         <v>44728</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         <v>44733</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14260,7 +14260,7 @@
         <v>44733</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14317,7 +14317,7 @@
         <v>44741</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14374,7 +14374,7 @@
         <v>44755</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14431,7 +14431,7 @@
         <v>44755</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14488,7 +14488,7 @@
         <v>44781</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14545,7 +14545,7 @@
         <v>44781</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14602,7 +14602,7 @@
         <v>44788</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14659,7 +14659,7 @@
         <v>44792</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14716,7 +14716,7 @@
         <v>44792</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14773,7 +14773,7 @@
         <v>44798</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14830,7 +14830,7 @@
         <v>44799</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14892,7 +14892,7 @@
         <v>44799</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14949,7 +14949,7 @@
         <v>44799</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15011,7 +15011,7 @@
         <v>44799</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15073,7 +15073,7 @@
         <v>44804</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15130,7 +15130,7 @@
         <v>44805</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15187,7 +15187,7 @@
         <v>44812</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15249,7 +15249,7 @@
         <v>44820</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15306,7 +15306,7 @@
         <v>44820</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15368,7 +15368,7 @@
         <v>44830</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15425,7 +15425,7 @@
         <v>44830</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15482,7 +15482,7 @@
         <v>44832</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15539,7 +15539,7 @@
         <v>44832</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15596,7 +15596,7 @@
         <v>44837</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15653,7 +15653,7 @@
         <v>44837</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15710,7 +15710,7 @@
         <v>44869</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15767,7 +15767,7 @@
         <v>44879</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15829,7 +15829,7 @@
         <v>44886</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>44887</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15943,7 +15943,7 @@
         <v>44889</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16000,7 +16000,7 @@
         <v>44900</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16057,7 +16057,7 @@
         <v>44908</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16114,7 +16114,7 @@
         <v>44911</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16171,7 +16171,7 @@
         <v>44935</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16233,7 +16233,7 @@
         <v>44935</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16290,7 +16290,7 @@
         <v>44950</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16347,7 +16347,7 @@
         <v>44951</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16404,7 +16404,7 @@
         <v>44958</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         <v>44972</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16523,7 +16523,7 @@
         <v>44977</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16580,7 +16580,7 @@
         <v>44977</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44981</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16694,7 +16694,7 @@
         <v>44987</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>44988</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16828,7 +16828,7 @@
         <v>44992</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16885,7 +16885,7 @@
         <v>44992</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16942,7 +16942,7 @@
         <v>44992</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16999,7 +16999,7 @@
         <v>44999</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17061,7 +17061,7 @@
         <v>44999</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17123,7 +17123,7 @@
         <v>45008</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17180,7 +17180,7 @@
         <v>45015</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17237,7 +17237,7 @@
         <v>45016</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17294,7 +17294,7 @@
         <v>45016</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17351,7 +17351,7 @@
         <v>45021</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17413,7 +17413,7 @@
         <v>45027</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17470,7 +17470,7 @@
         <v>45036</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17527,7 +17527,7 @@
         <v>45036</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17584,7 +17584,7 @@
         <v>45036</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
         <v>45036</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17698,7 +17698,7 @@
         <v>45044</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17755,7 +17755,7 @@
         <v>45044</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17812,7 +17812,7 @@
         <v>45049</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17874,7 +17874,7 @@
         <v>45054</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17936,7 +17936,7 @@
         <v>45054</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17998,7 +17998,7 @@
         <v>45054</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18055,7 +18055,7 @@
         <v>45054</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18112,7 +18112,7 @@
         <v>45054</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18169,7 +18169,7 @@
         <v>45056</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18231,7 +18231,7 @@
         <v>45062</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18288,7 +18288,7 @@
         <v>45068</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18345,7 +18345,7 @@
         <v>45076</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18402,7 +18402,7 @@
         <v>45079</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18459,7 +18459,7 @@
         <v>45079</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18516,7 +18516,7 @@
         <v>45096</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18573,7 +18573,7 @@
         <v>45097</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18630,7 +18630,7 @@
         <v>45099</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18687,7 +18687,7 @@
         <v>45099</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18744,7 +18744,7 @@
         <v>45105</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18806,7 +18806,7 @@
         <v>45110</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18863,7 +18863,7 @@
         <v>45110</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18920,7 +18920,7 @@
         <v>45110</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18977,7 +18977,7 @@
         <v>45116</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19034,7 +19034,7 @@
         <v>45117</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19091,7 +19091,7 @@
         <v>45117</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19148,7 +19148,7 @@
         <v>45139</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19205,7 +19205,7 @@
         <v>45140</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19262,7 +19262,7 @@
         <v>45146</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19319,7 +19319,7 @@
         <v>45173</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19376,7 +19376,7 @@
         <v>45182</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19433,7 +19433,7 @@
         <v>45188</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>

--- a/Översikt BORLÄNGE.xlsx
+++ b/Översikt BORLÄNGE.xlsx
@@ -572,7 +572,7 @@
         <v>44512</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44494</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>44552</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44887</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -954,7 +954,7 @@
         <v>45069</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
         <v>44274</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1135,7 +1135,7 @@
         <v>44824</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>45028</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1319,7 +1319,7 @@
         <v>43544</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1406,7 +1406,7 @@
         <v>43781</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1493,7 +1493,7 @@
         <v>44599</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1580,7 +1580,7 @@
         <v>45072</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
         <v>43431</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1757,7 +1757,7 @@
         <v>43811</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1843,7 +1843,7 @@
         <v>44420</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1933,7 +1933,7 @@
         <v>44453</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2023,7 +2023,7 @@
         <v>44463</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         <v>44494</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>44505</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2290,7 +2290,7 @@
         <v>44874</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>44908</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>44996</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>44999</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
         <v>45068</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
         <v>45074</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2814,7 +2814,7 @@
         <v>45117</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
         <v>43409</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>43434</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
         <v>43441</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3155,7 +3155,7 @@
         <v>43544</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3244,7 +3244,7 @@
         <v>43969</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3334,7 +3334,7 @@
         <v>44362</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         <v>44410</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3504,7 +3504,7 @@
         <v>44426</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>44454</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3674,7 +3674,7 @@
         <v>44470</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3759,7 +3759,7 @@
         <v>44473</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>44603</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3938,7 +3938,7 @@
         <v>44705</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4023,7 +4023,7 @@
         <v>44798</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4108,7 +4108,7 @@
         <v>44798</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4193,7 +4193,7 @@
         <v>44897</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>44931</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4367,7 +4367,7 @@
         <v>45036</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         <v>45040</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>45061</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         <v>45062</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>45072</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4801,7 +4801,7 @@
         <v>45090</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4886,7 +4886,7 @@
         <v>43432</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4943,7 +4943,7 @@
         <v>43447</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5000,7 +5000,7 @@
         <v>43448</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5057,7 +5057,7 @@
         <v>43452</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5114,7 +5114,7 @@
         <v>43453</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>43455</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         <v>43461</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>43473</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         <v>43473</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
         <v>43486</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>43507</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         <v>43544</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>43544</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>43544</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>43550</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>43556</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5808,7 +5808,7 @@
         <v>43581</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
         <v>43601</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5922,7 +5922,7 @@
         <v>43606</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5979,7 +5979,7 @@
         <v>43613</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6036,7 +6036,7 @@
         <v>43614</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6093,7 +6093,7 @@
         <v>43614</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6150,7 +6150,7 @@
         <v>43614</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6207,7 +6207,7 @@
         <v>43630</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6264,7 +6264,7 @@
         <v>43642</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6321,7 +6321,7 @@
         <v>43648</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6383,7 +6383,7 @@
         <v>43649</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6445,7 +6445,7 @@
         <v>43660</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6502,7 +6502,7 @@
         <v>43704</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         <v>43704</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         <v>43707</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>43739</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6730,7 +6730,7 @@
         <v>43767</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         <v>43768</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>43783</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6901,7 +6901,7 @@
         <v>43803</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         <v>43808</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>43812</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>43893</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>43902</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>43909</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>43918</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7305,7 +7305,7 @@
         <v>43927</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>43938</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7419,7 +7419,7 @@
         <v>43941</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7476,7 +7476,7 @@
         <v>43948</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         <v>43957</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7590,7 +7590,7 @@
         <v>43971</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7652,7 +7652,7 @@
         <v>43991</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7709,7 +7709,7 @@
         <v>44064</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>44104</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7823,7 +7823,7 @@
         <v>44105</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>44110</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7942,7 +7942,7 @@
         <v>44110</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7999,7 +7999,7 @@
         <v>44110</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8061,7 +8061,7 @@
         <v>44110</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>44118</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
         <v>44120</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8247,7 +8247,7 @@
         <v>44120</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8309,7 +8309,7 @@
         <v>44132</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8366,7 +8366,7 @@
         <v>44145</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8423,7 +8423,7 @@
         <v>44147</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8480,7 +8480,7 @@
         <v>44154</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8537,7 +8537,7 @@
         <v>44167</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>44168</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>44172</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>44174</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>44203</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8827,7 +8827,7 @@
         <v>44222</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         <v>44228</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>44244</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>44274</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9055,7 +9055,7 @@
         <v>44279</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9112,7 +9112,7 @@
         <v>44280</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9169,7 +9169,7 @@
         <v>44280</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>44286</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9283,7 +9283,7 @@
         <v>44287</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>44293</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9402,7 +9402,7 @@
         <v>44293</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>44298</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>44299</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>44305</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>44306</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>44308</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         <v>44319</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9806,7 +9806,7 @@
         <v>44337</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9863,7 +9863,7 @@
         <v>44341</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9920,7 +9920,7 @@
         <v>44361</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9977,7 +9977,7 @@
         <v>44376</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10034,7 +10034,7 @@
         <v>44377</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10096,7 +10096,7 @@
         <v>44379</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
         <v>44379</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10210,7 +10210,7 @@
         <v>44384</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10267,7 +10267,7 @@
         <v>44384</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10324,7 +10324,7 @@
         <v>44384</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10381,7 +10381,7 @@
         <v>44389</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10438,7 +10438,7 @@
         <v>44389</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10495,7 +10495,7 @@
         <v>44393</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10552,7 +10552,7 @@
         <v>44393</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10609,7 +10609,7 @@
         <v>44399</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10666,7 +10666,7 @@
         <v>44399</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10728,7 +10728,7 @@
         <v>44417</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10785,7 +10785,7 @@
         <v>44420</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10842,7 +10842,7 @@
         <v>44426</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>44427</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10956,7 +10956,7 @@
         <v>44433</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11013,7 +11013,7 @@
         <v>44434</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>44438</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         <v>44438</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11194,7 +11194,7 @@
         <v>44438</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11256,7 +11256,7 @@
         <v>44439</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11313,7 +11313,7 @@
         <v>44441</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11370,7 +11370,7 @@
         <v>44452</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11427,7 +11427,7 @@
         <v>44452</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11484,7 +11484,7 @@
         <v>44452</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11541,7 +11541,7 @@
         <v>44452</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11598,7 +11598,7 @@
         <v>44454</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11655,7 +11655,7 @@
         <v>44461</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11712,7 +11712,7 @@
         <v>44466</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11769,7 +11769,7 @@
         <v>44466</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11826,7 +11826,7 @@
         <v>44467</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11883,7 +11883,7 @@
         <v>44468</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11940,7 +11940,7 @@
         <v>44475</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12002,7 +12002,7 @@
         <v>44475</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12064,7 +12064,7 @@
         <v>44487</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12121,7 +12121,7 @@
         <v>44487</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12178,7 +12178,7 @@
         <v>44488</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12235,7 +12235,7 @@
         <v>44488</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12292,7 +12292,7 @@
         <v>44493</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12349,7 +12349,7 @@
         <v>44494</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12406,7 +12406,7 @@
         <v>44494</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12463,7 +12463,7 @@
         <v>44494</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12520,7 +12520,7 @@
         <v>44494</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12597,7 +12597,7 @@
         <v>44495</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12654,7 +12654,7 @@
         <v>44496</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12711,7 +12711,7 @@
         <v>44497</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12768,7 +12768,7 @@
         <v>44500</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12825,7 +12825,7 @@
         <v>44505</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12882,7 +12882,7 @@
         <v>44510</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12939,7 +12939,7 @@
         <v>44524</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13001,7 +13001,7 @@
         <v>44529</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13058,7 +13058,7 @@
         <v>44547</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13115,7 +13115,7 @@
         <v>44550</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13172,7 +13172,7 @@
         <v>44550</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13229,7 +13229,7 @@
         <v>44565</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13286,7 +13286,7 @@
         <v>44575</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13343,7 +13343,7 @@
         <v>44579</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13400,7 +13400,7 @@
         <v>44587</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13457,7 +13457,7 @@
         <v>44588</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13514,7 +13514,7 @@
         <v>44592</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13571,7 +13571,7 @@
         <v>44601</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13628,7 +13628,7 @@
         <v>44610</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13685,7 +13685,7 @@
         <v>44623</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13742,7 +13742,7 @@
         <v>44624</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13799,7 +13799,7 @@
         <v>44670</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13856,7 +13856,7 @@
         <v>44673</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13913,7 +13913,7 @@
         <v>44675</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13970,7 +13970,7 @@
         <v>44705</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14027,7 +14027,7 @@
         <v>44713</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14089,7 +14089,7 @@
         <v>44717</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14146,7 +14146,7 @@
         <v>44728</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         <v>44733</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14260,7 +14260,7 @@
         <v>44733</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14317,7 +14317,7 @@
         <v>44741</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14374,7 +14374,7 @@
         <v>44755</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14431,7 +14431,7 @@
         <v>44755</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14488,7 +14488,7 @@
         <v>44781</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14545,7 +14545,7 @@
         <v>44781</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14602,7 +14602,7 @@
         <v>44788</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14659,7 +14659,7 @@
         <v>44792</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14716,7 +14716,7 @@
         <v>44792</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14773,7 +14773,7 @@
         <v>44798</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14830,7 +14830,7 @@
         <v>44799</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14892,7 +14892,7 @@
         <v>44799</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14949,7 +14949,7 @@
         <v>44799</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15011,7 +15011,7 @@
         <v>44799</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15073,7 +15073,7 @@
         <v>44804</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15130,7 +15130,7 @@
         <v>44805</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15187,7 +15187,7 @@
         <v>44812</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15249,7 +15249,7 @@
         <v>44820</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15306,7 +15306,7 @@
         <v>44820</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15368,7 +15368,7 @@
         <v>44830</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15425,7 +15425,7 @@
         <v>44830</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15482,7 +15482,7 @@
         <v>44832</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15539,7 +15539,7 @@
         <v>44832</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15596,7 +15596,7 @@
         <v>44837</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15653,7 +15653,7 @@
         <v>44837</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15710,7 +15710,7 @@
         <v>44869</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15767,7 +15767,7 @@
         <v>44879</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15829,7 +15829,7 @@
         <v>44886</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>44887</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15943,7 +15943,7 @@
         <v>44889</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16000,7 +16000,7 @@
         <v>44900</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16057,7 +16057,7 @@
         <v>44908</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16114,7 +16114,7 @@
         <v>44911</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16171,7 +16171,7 @@
         <v>44935</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16233,7 +16233,7 @@
         <v>44935</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16290,7 +16290,7 @@
         <v>44950</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16347,7 +16347,7 @@
         <v>44951</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16404,7 +16404,7 @@
         <v>44958</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         <v>44972</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16523,7 +16523,7 @@
         <v>44977</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16580,7 +16580,7 @@
         <v>44977</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44981</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16694,7 +16694,7 @@
         <v>44987</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>44988</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16828,7 +16828,7 @@
         <v>44992</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16885,7 +16885,7 @@
         <v>44992</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16942,7 +16942,7 @@
         <v>44992</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16999,7 +16999,7 @@
         <v>44999</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17061,7 +17061,7 @@
         <v>44999</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17123,7 +17123,7 @@
         <v>45008</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17180,7 +17180,7 @@
         <v>45015</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17237,7 +17237,7 @@
         <v>45016</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17294,7 +17294,7 @@
         <v>45016</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17351,7 +17351,7 @@
         <v>45021</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17413,7 +17413,7 @@
         <v>45027</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17470,7 +17470,7 @@
         <v>45036</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17527,7 +17527,7 @@
         <v>45036</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17584,7 +17584,7 @@
         <v>45036</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
         <v>45036</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17698,7 +17698,7 @@
         <v>45044</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17755,7 +17755,7 @@
         <v>45044</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17812,7 +17812,7 @@
         <v>45049</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17874,7 +17874,7 @@
         <v>45054</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17936,7 +17936,7 @@
         <v>45054</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17998,7 +17998,7 @@
         <v>45054</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18055,7 +18055,7 @@
         <v>45054</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18112,7 +18112,7 @@
         <v>45054</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18169,7 +18169,7 @@
         <v>45056</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18231,7 +18231,7 @@
         <v>45062</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18288,7 +18288,7 @@
         <v>45068</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18345,7 +18345,7 @@
         <v>45076</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18402,7 +18402,7 @@
         <v>45079</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18459,7 +18459,7 @@
         <v>45079</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18516,7 +18516,7 @@
         <v>45096</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18573,7 +18573,7 @@
         <v>45097</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18630,7 +18630,7 @@
         <v>45099</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18687,7 +18687,7 @@
         <v>45099</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18744,7 +18744,7 @@
         <v>45105</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18806,7 +18806,7 @@
         <v>45110</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18863,7 +18863,7 @@
         <v>45110</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18920,7 +18920,7 @@
         <v>45110</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18977,7 +18977,7 @@
         <v>45116</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19034,7 +19034,7 @@
         <v>45117</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19091,7 +19091,7 @@
         <v>45117</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19148,7 +19148,7 @@
         <v>45139</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19205,7 +19205,7 @@
         <v>45140</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19262,7 +19262,7 @@
         <v>45146</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19319,7 +19319,7 @@
         <v>45173</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19376,7 +19376,7 @@
         <v>45182</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19433,7 +19433,7 @@
         <v>45188</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>

--- a/Översikt BORLÄNGE.xlsx
+++ b/Översikt BORLÄNGE.xlsx
@@ -572,7 +572,7 @@
         <v>44512</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44494</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>44552</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44887</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -954,7 +954,7 @@
         <v>45069</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
         <v>44274</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1135,7 +1135,7 @@
         <v>44824</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>45028</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1319,7 +1319,7 @@
         <v>43544</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1406,7 +1406,7 @@
         <v>43781</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1493,7 +1493,7 @@
         <v>44599</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1580,7 +1580,7 @@
         <v>45072</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
         <v>43431</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1757,7 +1757,7 @@
         <v>43811</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1843,7 +1843,7 @@
         <v>44420</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1933,7 +1933,7 @@
         <v>44453</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2023,7 +2023,7 @@
         <v>44463</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         <v>44494</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>44505</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2290,7 +2290,7 @@
         <v>44874</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>44908</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>44996</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>44999</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
         <v>45068</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
         <v>45074</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2814,7 +2814,7 @@
         <v>45117</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
         <v>43409</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>43434</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
         <v>43441</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3155,7 +3155,7 @@
         <v>43544</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3244,7 +3244,7 @@
         <v>43969</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3334,7 +3334,7 @@
         <v>44362</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         <v>44410</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3504,7 +3504,7 @@
         <v>44426</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>44454</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3674,7 +3674,7 @@
         <v>44470</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3759,7 +3759,7 @@
         <v>44473</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>44603</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3938,7 +3938,7 @@
         <v>44705</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4023,7 +4023,7 @@
         <v>44798</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4108,7 +4108,7 @@
         <v>44798</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4193,7 +4193,7 @@
         <v>44897</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>44931</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4367,7 +4367,7 @@
         <v>45036</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         <v>45040</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>45061</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         <v>45062</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>45072</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4801,7 +4801,7 @@
         <v>45090</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4886,7 +4886,7 @@
         <v>43432</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4943,7 +4943,7 @@
         <v>43447</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5000,7 +5000,7 @@
         <v>43448</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5057,7 +5057,7 @@
         <v>43452</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5114,7 +5114,7 @@
         <v>43453</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>43455</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         <v>43461</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>43473</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         <v>43473</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
         <v>43486</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>43507</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         <v>43544</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>43544</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>43544</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>43550</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>43556</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5808,7 +5808,7 @@
         <v>43581</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
         <v>43601</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5922,7 +5922,7 @@
         <v>43606</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5979,7 +5979,7 @@
         <v>43613</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6036,7 +6036,7 @@
         <v>43614</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6093,7 +6093,7 @@
         <v>43614</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6150,7 +6150,7 @@
         <v>43614</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6207,7 +6207,7 @@
         <v>43630</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6264,7 +6264,7 @@
         <v>43642</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6321,7 +6321,7 @@
         <v>43648</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6383,7 +6383,7 @@
         <v>43649</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6445,7 +6445,7 @@
         <v>43660</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6502,7 +6502,7 @@
         <v>43704</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         <v>43704</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         <v>43707</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>43739</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6730,7 +6730,7 @@
         <v>43767</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         <v>43768</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>43783</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6901,7 +6901,7 @@
         <v>43803</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         <v>43808</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>43812</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>43893</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>43902</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>43909</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>43918</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7305,7 +7305,7 @@
         <v>43927</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>43938</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7419,7 +7419,7 @@
         <v>43941</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7476,7 +7476,7 @@
         <v>43948</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         <v>43957</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7590,7 +7590,7 @@
         <v>43971</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7652,7 +7652,7 @@
         <v>43991</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7709,7 +7709,7 @@
         <v>44064</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>44104</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7823,7 +7823,7 @@
         <v>44105</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>44110</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7942,7 +7942,7 @@
         <v>44110</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7999,7 +7999,7 @@
         <v>44110</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8061,7 +8061,7 @@
         <v>44110</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>44118</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
         <v>44120</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8247,7 +8247,7 @@
         <v>44120</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8309,7 +8309,7 @@
         <v>44132</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8366,7 +8366,7 @@
         <v>44145</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8423,7 +8423,7 @@
         <v>44147</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8480,7 +8480,7 @@
         <v>44154</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8537,7 +8537,7 @@
         <v>44167</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>44168</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>44172</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>44174</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>44203</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8827,7 +8827,7 @@
         <v>44222</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         <v>44228</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>44244</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>44274</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9055,7 +9055,7 @@
         <v>44279</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9112,7 +9112,7 @@
         <v>44280</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9169,7 +9169,7 @@
         <v>44280</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>44286</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9283,7 +9283,7 @@
         <v>44287</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>44293</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9402,7 +9402,7 @@
         <v>44293</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>44298</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>44299</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>44305</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>44306</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>44308</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         <v>44319</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9806,7 +9806,7 @@
         <v>44337</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9863,7 +9863,7 @@
         <v>44341</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9920,7 +9920,7 @@
         <v>44361</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9977,7 +9977,7 @@
         <v>44376</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10034,7 +10034,7 @@
         <v>44377</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10096,7 +10096,7 @@
         <v>44379</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
         <v>44379</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10210,7 +10210,7 @@
         <v>44384</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10267,7 +10267,7 @@
         <v>44384</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10324,7 +10324,7 @@
         <v>44384</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10381,7 +10381,7 @@
         <v>44389</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10438,7 +10438,7 @@
         <v>44389</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10495,7 +10495,7 @@
         <v>44393</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10552,7 +10552,7 @@
         <v>44393</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10609,7 +10609,7 @@
         <v>44399</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10666,7 +10666,7 @@
         <v>44399</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10728,7 +10728,7 @@
         <v>44417</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10785,7 +10785,7 @@
         <v>44420</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10842,7 +10842,7 @@
         <v>44426</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>44427</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10956,7 +10956,7 @@
         <v>44433</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11013,7 +11013,7 @@
         <v>44434</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>44438</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         <v>44438</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11194,7 +11194,7 @@
         <v>44438</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11256,7 +11256,7 @@
         <v>44439</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11313,7 +11313,7 @@
         <v>44441</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11370,7 +11370,7 @@
         <v>44452</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11427,7 +11427,7 @@
         <v>44452</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11484,7 +11484,7 @@
         <v>44452</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11541,7 +11541,7 @@
         <v>44452</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11598,7 +11598,7 @@
         <v>44454</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11655,7 +11655,7 @@
         <v>44461</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11712,7 +11712,7 @@
         <v>44466</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11769,7 +11769,7 @@
         <v>44466</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11826,7 +11826,7 @@
         <v>44467</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11883,7 +11883,7 @@
         <v>44468</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11940,7 +11940,7 @@
         <v>44475</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12002,7 +12002,7 @@
         <v>44475</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12064,7 +12064,7 @@
         <v>44487</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12121,7 +12121,7 @@
         <v>44487</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12178,7 +12178,7 @@
         <v>44488</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12235,7 +12235,7 @@
         <v>44488</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12292,7 +12292,7 @@
         <v>44493</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12349,7 +12349,7 @@
         <v>44494</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12406,7 +12406,7 @@
         <v>44494</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12463,7 +12463,7 @@
         <v>44494</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12520,7 +12520,7 @@
         <v>44494</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12597,7 +12597,7 @@
         <v>44495</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12654,7 +12654,7 @@
         <v>44496</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12711,7 +12711,7 @@
         <v>44497</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12768,7 +12768,7 @@
         <v>44500</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12825,7 +12825,7 @@
         <v>44505</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12882,7 +12882,7 @@
         <v>44510</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12939,7 +12939,7 @@
         <v>44524</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13001,7 +13001,7 @@
         <v>44529</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13058,7 +13058,7 @@
         <v>44547</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13115,7 +13115,7 @@
         <v>44550</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13172,7 +13172,7 @@
         <v>44550</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13229,7 +13229,7 @@
         <v>44565</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13286,7 +13286,7 @@
         <v>44575</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13343,7 +13343,7 @@
         <v>44579</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13400,7 +13400,7 @@
         <v>44587</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13457,7 +13457,7 @@
         <v>44588</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13514,7 +13514,7 @@
         <v>44592</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13571,7 +13571,7 @@
         <v>44601</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13628,7 +13628,7 @@
         <v>44610</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13685,7 +13685,7 @@
         <v>44623</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13742,7 +13742,7 @@
         <v>44624</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13799,7 +13799,7 @@
         <v>44670</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13856,7 +13856,7 @@
         <v>44673</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13913,7 +13913,7 @@
         <v>44675</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13970,7 +13970,7 @@
         <v>44705</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14027,7 +14027,7 @@
         <v>44713</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14089,7 +14089,7 @@
         <v>44717</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14146,7 +14146,7 @@
         <v>44728</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         <v>44733</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14260,7 +14260,7 @@
         <v>44733</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14317,7 +14317,7 @@
         <v>44741</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14374,7 +14374,7 @@
         <v>44755</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14431,7 +14431,7 @@
         <v>44755</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14488,7 +14488,7 @@
         <v>44781</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14545,7 +14545,7 @@
         <v>44781</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14602,7 +14602,7 @@
         <v>44788</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14659,7 +14659,7 @@
         <v>44792</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14716,7 +14716,7 @@
         <v>44792</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14773,7 +14773,7 @@
         <v>44798</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14830,7 +14830,7 @@
         <v>44799</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14892,7 +14892,7 @@
         <v>44799</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14949,7 +14949,7 @@
         <v>44799</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15011,7 +15011,7 @@
         <v>44799</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15073,7 +15073,7 @@
         <v>44804</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15130,7 +15130,7 @@
         <v>44805</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15187,7 +15187,7 @@
         <v>44812</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15249,7 +15249,7 @@
         <v>44820</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15306,7 +15306,7 @@
         <v>44820</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15368,7 +15368,7 @@
         <v>44830</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15425,7 +15425,7 @@
         <v>44830</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15482,7 +15482,7 @@
         <v>44832</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15539,7 +15539,7 @@
         <v>44832</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15596,7 +15596,7 @@
         <v>44837</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15653,7 +15653,7 @@
         <v>44837</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15710,7 +15710,7 @@
         <v>44869</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15767,7 +15767,7 @@
         <v>44879</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15829,7 +15829,7 @@
         <v>44886</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>44887</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15943,7 +15943,7 @@
         <v>44889</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16000,7 +16000,7 @@
         <v>44900</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16057,7 +16057,7 @@
         <v>44908</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16114,7 +16114,7 @@
         <v>44911</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16171,7 +16171,7 @@
         <v>44935</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16233,7 +16233,7 @@
         <v>44935</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16290,7 +16290,7 @@
         <v>44950</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16347,7 +16347,7 @@
         <v>44951</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16404,7 +16404,7 @@
         <v>44958</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         <v>44972</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16523,7 +16523,7 @@
         <v>44977</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16580,7 +16580,7 @@
         <v>44977</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44981</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16694,7 +16694,7 @@
         <v>44987</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>44988</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16828,7 +16828,7 @@
         <v>44992</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16885,7 +16885,7 @@
         <v>44992</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16942,7 +16942,7 @@
         <v>44992</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16999,7 +16999,7 @@
         <v>44999</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17061,7 +17061,7 @@
         <v>44999</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17123,7 +17123,7 @@
         <v>45008</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17180,7 +17180,7 @@
         <v>45015</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17237,7 +17237,7 @@
         <v>45016</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17294,7 +17294,7 @@
         <v>45016</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17351,7 +17351,7 @@
         <v>45021</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17413,7 +17413,7 @@
         <v>45027</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17470,7 +17470,7 @@
         <v>45036</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17527,7 +17527,7 @@
         <v>45036</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17584,7 +17584,7 @@
         <v>45036</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
         <v>45036</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17698,7 +17698,7 @@
         <v>45044</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17755,7 +17755,7 @@
         <v>45044</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17812,7 +17812,7 @@
         <v>45049</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17874,7 +17874,7 @@
         <v>45054</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17936,7 +17936,7 @@
         <v>45054</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17998,7 +17998,7 @@
         <v>45054</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18055,7 +18055,7 @@
         <v>45054</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18112,7 +18112,7 @@
         <v>45054</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18169,7 +18169,7 @@
         <v>45056</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18231,7 +18231,7 @@
         <v>45062</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18288,7 +18288,7 @@
         <v>45068</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18345,7 +18345,7 @@
         <v>45076</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18402,7 +18402,7 @@
         <v>45079</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18459,7 +18459,7 @@
         <v>45079</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18516,7 +18516,7 @@
         <v>45096</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18573,7 +18573,7 @@
         <v>45097</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18630,7 +18630,7 @@
         <v>45099</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18687,7 +18687,7 @@
         <v>45099</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18744,7 +18744,7 @@
         <v>45105</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18806,7 +18806,7 @@
         <v>45110</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18863,7 +18863,7 @@
         <v>45110</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18920,7 +18920,7 @@
         <v>45110</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18977,7 +18977,7 @@
         <v>45116</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19034,7 +19034,7 @@
         <v>45117</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19091,7 +19091,7 @@
         <v>45117</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19148,7 +19148,7 @@
         <v>45139</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19205,7 +19205,7 @@
         <v>45140</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19262,7 +19262,7 @@
         <v>45146</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19319,7 +19319,7 @@
         <v>45173</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19376,7 +19376,7 @@
         <v>45182</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19433,7 +19433,7 @@
         <v>45188</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>

--- a/Översikt BORLÄNGE.xlsx
+++ b/Översikt BORLÄNGE.xlsx
@@ -572,7 +572,7 @@
         <v>44512</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44494</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>44552</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44887</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -954,7 +954,7 @@
         <v>45069</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
         <v>44274</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1135,7 +1135,7 @@
         <v>44824</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>45028</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1319,7 +1319,7 @@
         <v>43544</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1406,7 +1406,7 @@
         <v>43781</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1493,7 +1493,7 @@
         <v>44599</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1580,7 +1580,7 @@
         <v>45072</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
         <v>43431</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1757,7 +1757,7 @@
         <v>43811</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1843,7 +1843,7 @@
         <v>44420</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1933,7 +1933,7 @@
         <v>44453</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2023,7 +2023,7 @@
         <v>44463</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         <v>44494</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>44505</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2290,7 +2290,7 @@
         <v>44874</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>44908</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>44996</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>44999</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
         <v>45068</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
         <v>45074</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2814,7 +2814,7 @@
         <v>45117</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
         <v>43409</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>43434</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
         <v>43441</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3155,7 +3155,7 @@
         <v>43544</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3244,7 +3244,7 @@
         <v>43969</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3334,7 +3334,7 @@
         <v>44362</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         <v>44410</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3504,7 +3504,7 @@
         <v>44426</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>44454</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3674,7 +3674,7 @@
         <v>44470</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3759,7 +3759,7 @@
         <v>44473</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>44603</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3938,7 +3938,7 @@
         <v>44705</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4023,7 +4023,7 @@
         <v>44798</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4108,7 +4108,7 @@
         <v>44798</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4193,7 +4193,7 @@
         <v>44897</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>44931</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4367,7 +4367,7 @@
         <v>45036</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         <v>45040</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>45061</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         <v>45062</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>45072</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4801,7 +4801,7 @@
         <v>45090</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4886,7 +4886,7 @@
         <v>43432</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4943,7 +4943,7 @@
         <v>43447</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5000,7 +5000,7 @@
         <v>43448</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5057,7 +5057,7 @@
         <v>43452</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5114,7 +5114,7 @@
         <v>43453</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>43455</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         <v>43461</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>43473</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         <v>43473</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
         <v>43486</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>43507</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         <v>43544</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>43544</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>43544</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>43550</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>43556</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5808,7 +5808,7 @@
         <v>43581</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
         <v>43601</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5922,7 +5922,7 @@
         <v>43606</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5979,7 +5979,7 @@
         <v>43613</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6036,7 +6036,7 @@
         <v>43614</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6093,7 +6093,7 @@
         <v>43614</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6150,7 +6150,7 @@
         <v>43614</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6207,7 +6207,7 @@
         <v>43630</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6264,7 +6264,7 @@
         <v>43642</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6321,7 +6321,7 @@
         <v>43648</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6383,7 +6383,7 @@
         <v>43649</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6445,7 +6445,7 @@
         <v>43660</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6502,7 +6502,7 @@
         <v>43704</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         <v>43704</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         <v>43707</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>43739</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6730,7 +6730,7 @@
         <v>43767</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         <v>43768</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>43783</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6901,7 +6901,7 @@
         <v>43803</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         <v>43808</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>43812</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>43893</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>43902</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>43909</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>43918</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7305,7 +7305,7 @@
         <v>43927</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>43938</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7419,7 +7419,7 @@
         <v>43941</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7476,7 +7476,7 @@
         <v>43948</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         <v>43957</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7590,7 +7590,7 @@
         <v>43971</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7652,7 +7652,7 @@
         <v>43991</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7709,7 +7709,7 @@
         <v>44064</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>44104</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7823,7 +7823,7 @@
         <v>44105</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>44110</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7942,7 +7942,7 @@
         <v>44110</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7999,7 +7999,7 @@
         <v>44110</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8061,7 +8061,7 @@
         <v>44110</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>44118</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
         <v>44120</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8247,7 +8247,7 @@
         <v>44120</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8309,7 +8309,7 @@
         <v>44132</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8366,7 +8366,7 @@
         <v>44145</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8423,7 +8423,7 @@
         <v>44147</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8480,7 +8480,7 @@
         <v>44154</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8537,7 +8537,7 @@
         <v>44167</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>44168</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>44172</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>44174</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>44203</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8827,7 +8827,7 @@
         <v>44222</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         <v>44228</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>44244</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>44274</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9055,7 +9055,7 @@
         <v>44279</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9112,7 +9112,7 @@
         <v>44280</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9169,7 +9169,7 @@
         <v>44280</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>44286</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9283,7 +9283,7 @@
         <v>44287</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>44293</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9402,7 +9402,7 @@
         <v>44293</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>44298</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>44299</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>44305</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>44306</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>44308</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         <v>44319</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9806,7 +9806,7 @@
         <v>44337</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9863,7 +9863,7 @@
         <v>44341</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9920,7 +9920,7 @@
         <v>44361</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9977,7 +9977,7 @@
         <v>44376</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10034,7 +10034,7 @@
         <v>44377</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10096,7 +10096,7 @@
         <v>44379</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
         <v>44379</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10210,7 +10210,7 @@
         <v>44384</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10267,7 +10267,7 @@
         <v>44384</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10324,7 +10324,7 @@
         <v>44384</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10381,7 +10381,7 @@
         <v>44389</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10438,7 +10438,7 @@
         <v>44389</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10495,7 +10495,7 @@
         <v>44393</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10552,7 +10552,7 @@
         <v>44393</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10609,7 +10609,7 @@
         <v>44399</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10666,7 +10666,7 @@
         <v>44399</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10728,7 +10728,7 @@
         <v>44417</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10785,7 +10785,7 @@
         <v>44420</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10842,7 +10842,7 @@
         <v>44426</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>44427</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10956,7 +10956,7 @@
         <v>44433</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11013,7 +11013,7 @@
         <v>44434</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>44438</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         <v>44438</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11194,7 +11194,7 @@
         <v>44438</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11256,7 +11256,7 @@
         <v>44439</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11313,7 +11313,7 @@
         <v>44441</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11370,7 +11370,7 @@
         <v>44452</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11427,7 +11427,7 @@
         <v>44452</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11484,7 +11484,7 @@
         <v>44452</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11541,7 +11541,7 @@
         <v>44452</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11598,7 +11598,7 @@
         <v>44454</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11655,7 +11655,7 @@
         <v>44461</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11712,7 +11712,7 @@
         <v>44466</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11769,7 +11769,7 @@
         <v>44466</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11826,7 +11826,7 @@
         <v>44467</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11883,7 +11883,7 @@
         <v>44468</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11940,7 +11940,7 @@
         <v>44475</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12002,7 +12002,7 @@
         <v>44475</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12064,7 +12064,7 @@
         <v>44487</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12121,7 +12121,7 @@
         <v>44487</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12178,7 +12178,7 @@
         <v>44488</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12235,7 +12235,7 @@
         <v>44488</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12292,7 +12292,7 @@
         <v>44493</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12349,7 +12349,7 @@
         <v>44494</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12406,7 +12406,7 @@
         <v>44494</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12463,7 +12463,7 @@
         <v>44494</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12520,7 +12520,7 @@
         <v>44494</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12597,7 +12597,7 @@
         <v>44495</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12654,7 +12654,7 @@
         <v>44496</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12711,7 +12711,7 @@
         <v>44497</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12768,7 +12768,7 @@
         <v>44500</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12825,7 +12825,7 @@
         <v>44505</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12882,7 +12882,7 @@
         <v>44510</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12939,7 +12939,7 @@
         <v>44524</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13001,7 +13001,7 @@
         <v>44529</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13058,7 +13058,7 @@
         <v>44547</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13115,7 +13115,7 @@
         <v>44550</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13172,7 +13172,7 @@
         <v>44550</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13229,7 +13229,7 @@
         <v>44565</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13286,7 +13286,7 @@
         <v>44575</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13343,7 +13343,7 @@
         <v>44579</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13400,7 +13400,7 @@
         <v>44587</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13457,7 +13457,7 @@
         <v>44588</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13514,7 +13514,7 @@
         <v>44592</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13571,7 +13571,7 @@
         <v>44601</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13628,7 +13628,7 @@
         <v>44610</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13685,7 +13685,7 @@
         <v>44623</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13742,7 +13742,7 @@
         <v>44624</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13799,7 +13799,7 @@
         <v>44670</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13856,7 +13856,7 @@
         <v>44673</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13913,7 +13913,7 @@
         <v>44675</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13970,7 +13970,7 @@
         <v>44705</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14027,7 +14027,7 @@
         <v>44713</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14089,7 +14089,7 @@
         <v>44717</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14146,7 +14146,7 @@
         <v>44728</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         <v>44733</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14260,7 +14260,7 @@
         <v>44733</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14317,7 +14317,7 @@
         <v>44741</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14374,7 +14374,7 @@
         <v>44755</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14431,7 +14431,7 @@
         <v>44755</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14488,7 +14488,7 @@
         <v>44781</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14545,7 +14545,7 @@
         <v>44781</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14602,7 +14602,7 @@
         <v>44788</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14659,7 +14659,7 @@
         <v>44792</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14716,7 +14716,7 @@
         <v>44792</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14773,7 +14773,7 @@
         <v>44798</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14830,7 +14830,7 @@
         <v>44799</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14892,7 +14892,7 @@
         <v>44799</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14949,7 +14949,7 @@
         <v>44799</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15011,7 +15011,7 @@
         <v>44799</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15073,7 +15073,7 @@
         <v>44804</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15130,7 +15130,7 @@
         <v>44805</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15187,7 +15187,7 @@
         <v>44812</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15249,7 +15249,7 @@
         <v>44820</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15306,7 +15306,7 @@
         <v>44820</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15368,7 +15368,7 @@
         <v>44830</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15425,7 +15425,7 @@
         <v>44830</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15482,7 +15482,7 @@
         <v>44832</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15539,7 +15539,7 @@
         <v>44832</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15596,7 +15596,7 @@
         <v>44837</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15653,7 +15653,7 @@
         <v>44837</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15710,7 +15710,7 @@
         <v>44869</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15767,7 +15767,7 @@
         <v>44879</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15829,7 +15829,7 @@
         <v>44886</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>44887</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15943,7 +15943,7 @@
         <v>44889</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16000,7 +16000,7 @@
         <v>44900</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16057,7 +16057,7 @@
         <v>44908</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16114,7 +16114,7 @@
         <v>44911</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16171,7 +16171,7 @@
         <v>44935</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16233,7 +16233,7 @@
         <v>44935</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16290,7 +16290,7 @@
         <v>44950</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16347,7 +16347,7 @@
         <v>44951</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16404,7 +16404,7 @@
         <v>44958</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         <v>44972</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16523,7 +16523,7 @@
         <v>44977</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16580,7 +16580,7 @@
         <v>44977</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44981</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16694,7 +16694,7 @@
         <v>44987</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>44988</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16828,7 +16828,7 @@
         <v>44992</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16885,7 +16885,7 @@
         <v>44992</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16942,7 +16942,7 @@
         <v>44992</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16999,7 +16999,7 @@
         <v>44999</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17061,7 +17061,7 @@
         <v>44999</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17123,7 +17123,7 @@
         <v>45008</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17180,7 +17180,7 @@
         <v>45015</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17237,7 +17237,7 @@
         <v>45016</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17294,7 +17294,7 @@
         <v>45016</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17351,7 +17351,7 @@
         <v>45021</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17413,7 +17413,7 @@
         <v>45027</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17470,7 +17470,7 @@
         <v>45036</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17527,7 +17527,7 @@
         <v>45036</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17584,7 +17584,7 @@
         <v>45036</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
         <v>45036</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17698,7 +17698,7 @@
         <v>45044</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17755,7 +17755,7 @@
         <v>45044</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17812,7 +17812,7 @@
         <v>45049</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17874,7 +17874,7 @@
         <v>45054</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17936,7 +17936,7 @@
         <v>45054</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17998,7 +17998,7 @@
         <v>45054</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18055,7 +18055,7 @@
         <v>45054</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18112,7 +18112,7 @@
         <v>45054</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18169,7 +18169,7 @@
         <v>45056</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18231,7 +18231,7 @@
         <v>45062</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18288,7 +18288,7 @@
         <v>45068</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18345,7 +18345,7 @@
         <v>45076</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18402,7 +18402,7 @@
         <v>45079</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18459,7 +18459,7 @@
         <v>45079</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18516,7 +18516,7 @@
         <v>45096</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18573,7 +18573,7 @@
         <v>45097</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18630,7 +18630,7 @@
         <v>45099</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18687,7 +18687,7 @@
         <v>45099</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18744,7 +18744,7 @@
         <v>45105</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18806,7 +18806,7 @@
         <v>45110</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18863,7 +18863,7 @@
         <v>45110</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18920,7 +18920,7 @@
         <v>45110</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18977,7 +18977,7 @@
         <v>45116</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19034,7 +19034,7 @@
         <v>45117</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19091,7 +19091,7 @@
         <v>45117</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19148,7 +19148,7 @@
         <v>45139</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19205,7 +19205,7 @@
         <v>45140</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19262,7 +19262,7 @@
         <v>45146</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19319,7 +19319,7 @@
         <v>45173</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19376,7 +19376,7 @@
         <v>45182</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19433,7 +19433,7 @@
         <v>45188</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
